--- a/data/data_import.xlsx
+++ b/data/data_import.xlsx
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1263"/>
+  <dimension ref="A1:H1627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1246" workbookViewId="0">
-      <selection activeCell="K1262" sqref="K1262"/>
+    <sheetView tabSelected="1" topLeftCell="A1605" workbookViewId="0">
+      <selection activeCell="A1621" sqref="A1621:A1627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20700,6 +20700,5848 @@
       <c r="F1263" s="2"/>
       <c r="G1263" s="2"/>
       <c r="H1263" s="2"/>
+    </row>
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1264" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>8867</v>
+      </c>
+      <c r="C1264" s="2"/>
+      <c r="D1264" s="2"/>
+      <c r="E1264" s="2"/>
+      <c r="F1264" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G1264" s="2"/>
+      <c r="H1264" s="2"/>
+    </row>
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1265" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B1265" s="1">
+        <v>8868</v>
+      </c>
+      <c r="C1265" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1265" s="2"/>
+      <c r="E1265" s="2"/>
+      <c r="F1265" s="2"/>
+      <c r="G1265" s="2"/>
+      <c r="H1265" s="2"/>
+    </row>
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1266" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B1266" s="1">
+        <v>8869</v>
+      </c>
+      <c r="C1266" s="2"/>
+      <c r="D1266" s="2"/>
+      <c r="E1266" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1266" s="2"/>
+      <c r="G1266" s="2"/>
+      <c r="H1266" s="2"/>
+    </row>
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1267" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B1267" s="1">
+        <v>3279</v>
+      </c>
+      <c r="C1267" s="2">
+        <v>40</v>
+      </c>
+      <c r="D1267" s="2"/>
+      <c r="E1267" s="2"/>
+      <c r="F1267" s="2"/>
+      <c r="G1267" s="2"/>
+      <c r="H1267" s="2"/>
+    </row>
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1268" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B1268" s="1">
+        <v>3280</v>
+      </c>
+      <c r="C1268" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1268" s="2"/>
+      <c r="E1268" s="2"/>
+      <c r="F1268" s="2"/>
+      <c r="G1268" s="2"/>
+      <c r="H1268" s="2"/>
+    </row>
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1269" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B1269" s="1">
+        <v>3281</v>
+      </c>
+      <c r="C1269" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1269" s="2"/>
+      <c r="E1269" s="2"/>
+      <c r="F1269" s="2"/>
+      <c r="G1269" s="2"/>
+      <c r="H1269" s="2"/>
+    </row>
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1270" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B1270" s="1">
+        <v>3282</v>
+      </c>
+      <c r="C1270" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1270" s="2"/>
+      <c r="E1270" s="2"/>
+      <c r="F1270" s="2"/>
+      <c r="G1270" s="2"/>
+      <c r="H1270" s="2"/>
+    </row>
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1271" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B1271" s="1">
+        <v>8870</v>
+      </c>
+      <c r="C1271" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1271" s="2"/>
+      <c r="E1271" s="2"/>
+      <c r="F1271" s="2"/>
+      <c r="G1271" s="2"/>
+      <c r="H1271" s="2"/>
+    </row>
+    <row r="1272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1272" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B1272" s="1">
+        <v>8871</v>
+      </c>
+      <c r="C1272" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1272" s="2"/>
+      <c r="E1272" s="2"/>
+      <c r="F1272" s="2"/>
+      <c r="G1272" s="2"/>
+      <c r="H1272" s="2"/>
+    </row>
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1273" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B1273" s="1">
+        <v>8872</v>
+      </c>
+      <c r="C1273" s="2"/>
+      <c r="D1273" s="2"/>
+      <c r="E1273" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1273" s="2"/>
+      <c r="G1273" s="2"/>
+      <c r="H1273" s="2"/>
+    </row>
+    <row r="1274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1274" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B1274" s="1">
+        <v>7566</v>
+      </c>
+      <c r="C1274" s="2"/>
+      <c r="D1274" s="2"/>
+      <c r="E1274" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1274" s="2"/>
+      <c r="G1274" s="2"/>
+      <c r="H1274" s="2"/>
+    </row>
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1275" s="3">
+        <v>43648</v>
+      </c>
+      <c r="B1275" s="1">
+        <v>7567</v>
+      </c>
+      <c r="C1275" s="2"/>
+      <c r="D1275" s="2"/>
+      <c r="E1275" s="2"/>
+      <c r="F1275" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1275" s="2"/>
+      <c r="H1275" s="2"/>
+    </row>
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1276" s="3">
+        <v>43648</v>
+      </c>
+      <c r="B1276" s="1">
+        <v>7568</v>
+      </c>
+      <c r="C1276" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1276" s="2"/>
+      <c r="E1276" s="2"/>
+      <c r="F1276" s="2"/>
+      <c r="G1276" s="2"/>
+      <c r="H1276" s="2"/>
+    </row>
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1277" s="3">
+        <v>43648</v>
+      </c>
+      <c r="B1277" s="1">
+        <v>7569</v>
+      </c>
+      <c r="C1277" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1277" s="2"/>
+      <c r="E1277" s="2"/>
+      <c r="F1277" s="2"/>
+      <c r="G1277" s="2"/>
+      <c r="H1277" s="2"/>
+    </row>
+    <row r="1278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1278" s="3">
+        <v>43648</v>
+      </c>
+      <c r="B1278" s="1">
+        <v>8873</v>
+      </c>
+      <c r="C1278" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D1278" s="2"/>
+      <c r="E1278" s="2"/>
+      <c r="F1278" s="2"/>
+      <c r="G1278" s="2"/>
+      <c r="H1278" s="2"/>
+    </row>
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1279" s="3">
+        <v>43648</v>
+      </c>
+      <c r="B1279" s="1">
+        <v>8874</v>
+      </c>
+      <c r="C1279" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1279" s="2"/>
+      <c r="E1279" s="2"/>
+      <c r="F1279" s="2"/>
+      <c r="G1279" s="2"/>
+      <c r="H1279" s="2"/>
+    </row>
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1280" s="3">
+        <v>43648</v>
+      </c>
+      <c r="B1280" s="1">
+        <v>8875</v>
+      </c>
+      <c r="C1280" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1280" s="2"/>
+      <c r="E1280" s="2"/>
+      <c r="F1280" s="2"/>
+      <c r="G1280" s="2"/>
+      <c r="H1280" s="2"/>
+    </row>
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1281" s="3">
+        <v>43648</v>
+      </c>
+      <c r="B1281" s="1">
+        <v>8876</v>
+      </c>
+      <c r="C1281" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1281" s="2"/>
+      <c r="E1281" s="2"/>
+      <c r="F1281" s="2"/>
+      <c r="G1281" s="2"/>
+      <c r="H1281" s="2"/>
+    </row>
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1282" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B1282" s="1">
+        <v>8877</v>
+      </c>
+      <c r="C1282" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1282" s="2"/>
+      <c r="E1282" s="2"/>
+      <c r="F1282" s="2"/>
+      <c r="G1282" s="2"/>
+      <c r="H1282" s="2"/>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1283" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B1283" s="1">
+        <v>8878</v>
+      </c>
+      <c r="C1283" s="2"/>
+      <c r="D1283" s="2"/>
+      <c r="E1283" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1283" s="2"/>
+      <c r="G1283" s="2"/>
+      <c r="H1283" s="2"/>
+    </row>
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1284" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B1284" s="1">
+        <v>8879</v>
+      </c>
+      <c r="C1284" s="2"/>
+      <c r="D1284" s="2"/>
+      <c r="E1284" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1284" s="2"/>
+      <c r="G1284" s="2"/>
+      <c r="H1284" s="2"/>
+    </row>
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1285" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B1285" s="1">
+        <v>8880</v>
+      </c>
+      <c r="C1285" s="2"/>
+      <c r="D1285" s="2"/>
+      <c r="E1285" s="2"/>
+      <c r="F1285" s="2"/>
+      <c r="G1285" s="2"/>
+      <c r="H1285" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1286" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B1286" s="1">
+        <v>8881</v>
+      </c>
+      <c r="C1286" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1286" s="2"/>
+      <c r="E1286" s="2"/>
+      <c r="F1286" s="2"/>
+      <c r="G1286" s="2"/>
+      <c r="H1286" s="2"/>
+    </row>
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1287" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B1287" s="1">
+        <v>8882</v>
+      </c>
+      <c r="C1287" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1287" s="2"/>
+      <c r="E1287" s="2"/>
+      <c r="F1287" s="2"/>
+      <c r="G1287" s="2"/>
+      <c r="H1287" s="2"/>
+    </row>
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1288" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B1288" s="1">
+        <v>8883</v>
+      </c>
+      <c r="C1288" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1288" s="2"/>
+      <c r="E1288" s="2"/>
+      <c r="F1288" s="2"/>
+      <c r="G1288" s="2"/>
+      <c r="H1288" s="2"/>
+    </row>
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1289" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B1289" s="1">
+        <v>8884</v>
+      </c>
+      <c r="C1289" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1289" s="2"/>
+      <c r="E1289" s="2"/>
+      <c r="F1289" s="2"/>
+      <c r="G1289" s="2"/>
+      <c r="H1289" s="2"/>
+    </row>
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1290" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B1290" s="1">
+        <v>8885</v>
+      </c>
+      <c r="C1290" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1290" s="2"/>
+      <c r="E1290" s="2"/>
+      <c r="F1290" s="2"/>
+      <c r="G1290" s="2"/>
+      <c r="H1290" s="2"/>
+    </row>
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1291" s="3">
+        <v>43650</v>
+      </c>
+      <c r="B1291" s="1">
+        <v>8886</v>
+      </c>
+      <c r="C1291" s="2"/>
+      <c r="D1291" s="2"/>
+      <c r="E1291" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1291" s="2"/>
+      <c r="G1291" s="2"/>
+      <c r="H1291" s="2"/>
+    </row>
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1292" s="3">
+        <v>43650</v>
+      </c>
+      <c r="B1292" s="1">
+        <v>8887</v>
+      </c>
+      <c r="C1292" s="2"/>
+      <c r="D1292" s="2"/>
+      <c r="E1292" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1292" s="2"/>
+      <c r="G1292" s="2"/>
+      <c r="H1292" s="2"/>
+    </row>
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1293" s="3">
+        <v>43650</v>
+      </c>
+      <c r="B1293" s="1">
+        <v>8888</v>
+      </c>
+      <c r="C1293" s="2"/>
+      <c r="D1293" s="2"/>
+      <c r="E1293" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1293" s="2"/>
+      <c r="G1293" s="2"/>
+      <c r="H1293" s="2"/>
+    </row>
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1294" s="3">
+        <v>43650</v>
+      </c>
+      <c r="B1294" s="1">
+        <v>8889</v>
+      </c>
+      <c r="C1294" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1294" s="2"/>
+      <c r="E1294" s="2"/>
+      <c r="F1294" s="2"/>
+      <c r="G1294" s="2"/>
+      <c r="H1294" s="2"/>
+    </row>
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1295" s="3">
+        <v>43650</v>
+      </c>
+      <c r="B1295" s="1">
+        <v>8890</v>
+      </c>
+      <c r="C1295" s="2"/>
+      <c r="D1295" s="2"/>
+      <c r="E1295" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1295" s="2"/>
+      <c r="G1295" s="2"/>
+      <c r="H1295" s="2"/>
+    </row>
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1296" s="3">
+        <v>43650</v>
+      </c>
+      <c r="B1296" s="1">
+        <v>8891</v>
+      </c>
+      <c r="C1296" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1296" s="2"/>
+      <c r="E1296" s="2"/>
+      <c r="F1296" s="2"/>
+      <c r="G1296" s="2"/>
+      <c r="H1296" s="2"/>
+    </row>
+    <row r="1297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1297" s="3">
+        <v>43650</v>
+      </c>
+      <c r="B1297" s="1">
+        <v>8892</v>
+      </c>
+      <c r="C1297" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1297" s="2"/>
+      <c r="E1297" s="2"/>
+      <c r="F1297" s="2"/>
+      <c r="G1297" s="2"/>
+      <c r="H1297" s="2"/>
+    </row>
+    <row r="1298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1298" s="3">
+        <v>43650</v>
+      </c>
+      <c r="B1298" s="1">
+        <v>8893</v>
+      </c>
+      <c r="C1298" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1298" s="2"/>
+      <c r="E1298" s="2"/>
+      <c r="F1298" s="2"/>
+      <c r="G1298" s="2"/>
+      <c r="H1298" s="2"/>
+    </row>
+    <row r="1299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1299" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B1299" s="1">
+        <v>8894</v>
+      </c>
+      <c r="C1299" s="2"/>
+      <c r="D1299" s="2"/>
+      <c r="E1299" s="2"/>
+      <c r="F1299" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="G1299" s="2"/>
+      <c r="H1299" s="2"/>
+    </row>
+    <row r="1300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1300" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B1300" s="1">
+        <v>8895</v>
+      </c>
+      <c r="C1300" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1300" s="2"/>
+      <c r="E1300" s="2"/>
+      <c r="F1300" s="2"/>
+      <c r="G1300" s="2"/>
+      <c r="H1300" s="2"/>
+    </row>
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1301" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B1301" s="1">
+        <v>8896</v>
+      </c>
+      <c r="C1301" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1301" s="2"/>
+      <c r="E1301" s="2"/>
+      <c r="F1301" s="2"/>
+      <c r="G1301" s="2"/>
+      <c r="H1301" s="2"/>
+    </row>
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1302" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B1302" s="1">
+        <v>8897</v>
+      </c>
+      <c r="C1302" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1302" s="2"/>
+      <c r="E1302" s="2"/>
+      <c r="F1302" s="2"/>
+      <c r="G1302" s="2"/>
+      <c r="H1302" s="2"/>
+    </row>
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1303" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B1303" s="1">
+        <v>8898</v>
+      </c>
+      <c r="C1303" s="2"/>
+      <c r="D1303" s="2"/>
+      <c r="E1303" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1303" s="2"/>
+      <c r="G1303" s="2"/>
+      <c r="H1303" s="2"/>
+    </row>
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1304" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B1304" s="1">
+        <v>8899</v>
+      </c>
+      <c r="C1304" s="2"/>
+      <c r="D1304" s="2"/>
+      <c r="E1304" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1304" s="2"/>
+      <c r="G1304" s="2"/>
+      <c r="H1304" s="2"/>
+    </row>
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1305" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B1305" s="1">
+        <v>8900</v>
+      </c>
+      <c r="C1305" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1305" s="2"/>
+      <c r="E1305" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1305" s="2"/>
+      <c r="G1305" s="2"/>
+      <c r="H1305" s="2"/>
+    </row>
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1306" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B1306" s="1">
+        <v>8701</v>
+      </c>
+      <c r="C1306" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1306" s="2"/>
+      <c r="E1306" s="2"/>
+      <c r="F1306" s="2"/>
+      <c r="G1306" s="2"/>
+      <c r="H1306" s="2"/>
+    </row>
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1307" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B1307" s="1">
+        <v>8702</v>
+      </c>
+      <c r="C1307" s="2"/>
+      <c r="D1307" s="2"/>
+      <c r="E1307" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1307" s="2"/>
+      <c r="G1307" s="2"/>
+      <c r="H1307" s="2"/>
+    </row>
+    <row r="1308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1308" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B1308" s="1">
+        <v>8703</v>
+      </c>
+      <c r="C1308" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D1308" s="2"/>
+      <c r="E1308" s="2"/>
+      <c r="F1308" s="2"/>
+      <c r="G1308" s="2"/>
+      <c r="H1308" s="2"/>
+    </row>
+    <row r="1309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1309" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B1309" s="1">
+        <v>8704</v>
+      </c>
+      <c r="C1309" s="2"/>
+      <c r="D1309" s="2"/>
+      <c r="E1309" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1309" s="2"/>
+      <c r="G1309" s="2"/>
+      <c r="H1309" s="2"/>
+    </row>
+    <row r="1310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1310" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B1310" s="1">
+        <v>8705</v>
+      </c>
+      <c r="C1310" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1310" s="2"/>
+      <c r="E1310" s="2"/>
+      <c r="F1310" s="2"/>
+      <c r="G1310" s="2"/>
+      <c r="H1310" s="2"/>
+    </row>
+    <row r="1311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1311" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B1311" s="1">
+        <v>8706</v>
+      </c>
+      <c r="C1311" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1311" s="2"/>
+      <c r="E1311" s="2"/>
+      <c r="F1311" s="2"/>
+      <c r="G1311" s="2"/>
+      <c r="H1311" s="2"/>
+    </row>
+    <row r="1312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1312" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B1312" s="1">
+        <v>8707</v>
+      </c>
+      <c r="C1312" s="2"/>
+      <c r="D1312" s="2"/>
+      <c r="E1312" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1312" s="2"/>
+      <c r="G1312" s="2"/>
+      <c r="H1312" s="2"/>
+    </row>
+    <row r="1313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1313" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B1313" s="1">
+        <v>8708</v>
+      </c>
+      <c r="C1313" s="2"/>
+      <c r="D1313" s="2"/>
+      <c r="E1313" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1313" s="2"/>
+      <c r="G1313" s="2"/>
+      <c r="H1313" s="2"/>
+    </row>
+    <row r="1314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1314" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B1314" s="1">
+        <v>8709</v>
+      </c>
+      <c r="C1314" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1314" s="2"/>
+      <c r="E1314" s="2"/>
+      <c r="F1314" s="2"/>
+      <c r="G1314" s="2"/>
+      <c r="H1314" s="2"/>
+    </row>
+    <row r="1315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1315" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B1315" s="1">
+        <v>8710</v>
+      </c>
+      <c r="C1315" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1315" s="2"/>
+      <c r="E1315" s="2"/>
+      <c r="F1315" s="2"/>
+      <c r="G1315" s="2"/>
+      <c r="H1315" s="2"/>
+    </row>
+    <row r="1316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1316" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B1316" s="1">
+        <v>7570</v>
+      </c>
+      <c r="C1316" s="2"/>
+      <c r="D1316" s="2"/>
+      <c r="E1316" s="2"/>
+      <c r="F1316" s="2">
+        <v>7</v>
+      </c>
+      <c r="G1316" s="2"/>
+      <c r="H1316" s="2"/>
+    </row>
+    <row r="1317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1317" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B1317" s="1">
+        <v>8711</v>
+      </c>
+      <c r="C1317" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1317" s="2"/>
+      <c r="E1317" s="2"/>
+      <c r="F1317" s="2"/>
+      <c r="G1317" s="2"/>
+      <c r="H1317" s="2"/>
+    </row>
+    <row r="1318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1318" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B1318" s="1">
+        <v>8712</v>
+      </c>
+      <c r="C1318" s="2"/>
+      <c r="D1318" s="2"/>
+      <c r="E1318" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1318" s="2"/>
+      <c r="G1318" s="2"/>
+      <c r="H1318" s="2"/>
+    </row>
+    <row r="1319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1319" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1319" s="1">
+        <v>7571</v>
+      </c>
+      <c r="C1319" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1319" s="2"/>
+      <c r="E1319" s="2"/>
+      <c r="F1319" s="2"/>
+      <c r="G1319" s="2"/>
+      <c r="H1319" s="2"/>
+    </row>
+    <row r="1320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1320" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1320" s="1">
+        <v>8713</v>
+      </c>
+      <c r="C1320" s="2"/>
+      <c r="D1320" s="2"/>
+      <c r="E1320" s="2"/>
+      <c r="F1320" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1320" s="2"/>
+      <c r="H1320" s="2"/>
+    </row>
+    <row r="1321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1321" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1321" s="1">
+        <v>8714</v>
+      </c>
+      <c r="C1321" s="2"/>
+      <c r="D1321" s="2"/>
+      <c r="E1321" s="2"/>
+      <c r="F1321" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1321" s="2"/>
+      <c r="H1321" s="2"/>
+    </row>
+    <row r="1322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1322" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1322" s="1">
+        <v>8715</v>
+      </c>
+      <c r="C1322" s="2"/>
+      <c r="D1322" s="2"/>
+      <c r="E1322" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1322" s="2"/>
+      <c r="G1322" s="2"/>
+      <c r="H1322" s="2"/>
+    </row>
+    <row r="1323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1323" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1323" s="1">
+        <v>8716</v>
+      </c>
+      <c r="C1323" s="2"/>
+      <c r="D1323" s="2"/>
+      <c r="E1323" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1323" s="2"/>
+      <c r="G1323" s="2"/>
+      <c r="H1323" s="2"/>
+    </row>
+    <row r="1324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1324" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1324" s="1">
+        <v>8717</v>
+      </c>
+      <c r="C1324" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1324" s="2"/>
+      <c r="E1324" s="2"/>
+      <c r="F1324" s="2"/>
+      <c r="G1324" s="2"/>
+      <c r="H1324" s="2"/>
+    </row>
+    <row r="1325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1325" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1325" s="1">
+        <v>8718</v>
+      </c>
+      <c r="C1325" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1325" s="2"/>
+      <c r="E1325" s="2"/>
+      <c r="F1325" s="2"/>
+      <c r="G1325" s="2"/>
+      <c r="H1325" s="2"/>
+    </row>
+    <row r="1326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1326" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1326" s="1">
+        <v>8719</v>
+      </c>
+      <c r="C1326" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1326" s="2"/>
+      <c r="E1326" s="2"/>
+      <c r="F1326" s="2"/>
+      <c r="G1326" s="2"/>
+      <c r="H1326" s="2"/>
+    </row>
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1327" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1327" s="1">
+        <v>8720</v>
+      </c>
+      <c r="C1327" s="2"/>
+      <c r="D1327" s="2"/>
+      <c r="E1327" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1327" s="2"/>
+      <c r="G1327" s="2"/>
+      <c r="H1327" s="2"/>
+    </row>
+    <row r="1328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1328" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1328" s="1">
+        <v>8721</v>
+      </c>
+      <c r="C1328" s="2"/>
+      <c r="D1328" s="2"/>
+      <c r="E1328" s="2"/>
+      <c r="F1328" s="2"/>
+      <c r="G1328" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1328" s="2"/>
+    </row>
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1329" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1329" s="1">
+        <v>8722</v>
+      </c>
+      <c r="C1329" s="2"/>
+      <c r="D1329" s="2"/>
+      <c r="E1329" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1329" s="2"/>
+      <c r="G1329" s="2"/>
+      <c r="H1329" s="2"/>
+    </row>
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1330" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1330" s="1">
+        <v>8723</v>
+      </c>
+      <c r="C1330" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1330" s="2"/>
+      <c r="E1330" s="2"/>
+      <c r="F1330" s="2"/>
+      <c r="G1330" s="2"/>
+      <c r="H1330" s="2"/>
+    </row>
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1331" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1331" s="1">
+        <v>8724</v>
+      </c>
+      <c r="C1331" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1331" s="2"/>
+      <c r="E1331" s="2"/>
+      <c r="F1331" s="2"/>
+      <c r="G1331" s="2"/>
+      <c r="H1331" s="2"/>
+    </row>
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1332" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1332" s="1">
+        <v>8725</v>
+      </c>
+      <c r="C1332" s="2"/>
+      <c r="D1332" s="2"/>
+      <c r="E1332" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1332" s="2"/>
+      <c r="G1332" s="2"/>
+      <c r="H1332" s="2"/>
+    </row>
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1333" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1333" s="1">
+        <v>8726</v>
+      </c>
+      <c r="C1333" s="2">
+        <v>32</v>
+      </c>
+      <c r="D1333" s="2"/>
+      <c r="E1333" s="2"/>
+      <c r="F1333" s="2"/>
+      <c r="G1333" s="2"/>
+      <c r="H1333" s="2"/>
+    </row>
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1334" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B1334" s="1">
+        <v>8727</v>
+      </c>
+      <c r="C1334" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1334" s="2"/>
+      <c r="E1334" s="2"/>
+      <c r="F1334" s="2"/>
+      <c r="G1334" s="2"/>
+      <c r="H1334" s="2"/>
+    </row>
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1335" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1335" s="1">
+        <v>7572</v>
+      </c>
+      <c r="C1335" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1335" s="2"/>
+      <c r="E1335" s="2"/>
+      <c r="F1335" s="2"/>
+      <c r="G1335" s="2"/>
+      <c r="H1335" s="2"/>
+    </row>
+    <row r="1336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1336" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1336" s="1">
+        <v>7573</v>
+      </c>
+      <c r="C1336" s="2"/>
+      <c r="D1336" s="2"/>
+      <c r="E1336" s="2">
+        <v>200</v>
+      </c>
+      <c r="F1336" s="2"/>
+      <c r="G1336" s="2"/>
+      <c r="H1336" s="2"/>
+    </row>
+    <row r="1337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1337" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1337" s="1">
+        <v>8728</v>
+      </c>
+      <c r="C1337" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1337" s="2"/>
+      <c r="E1337" s="2"/>
+      <c r="F1337" s="2"/>
+      <c r="G1337" s="2"/>
+      <c r="H1337" s="2"/>
+    </row>
+    <row r="1338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1338" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1338" s="1">
+        <v>8729</v>
+      </c>
+      <c r="C1338" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1338" s="2"/>
+      <c r="E1338" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F1338" s="2"/>
+      <c r="G1338" s="2"/>
+      <c r="H1338" s="2"/>
+    </row>
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1339" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1339" s="1">
+        <v>8730</v>
+      </c>
+      <c r="C1339" s="2"/>
+      <c r="D1339" s="2"/>
+      <c r="E1339" s="2"/>
+      <c r="F1339" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1339" s="2"/>
+      <c r="H1339" s="2"/>
+    </row>
+    <row r="1340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1340" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1340" s="1">
+        <v>8731</v>
+      </c>
+      <c r="C1340" s="2"/>
+      <c r="D1340" s="2"/>
+      <c r="E1340" s="2"/>
+      <c r="F1340" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1340" s="2"/>
+      <c r="H1340" s="2"/>
+    </row>
+    <row r="1341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1341" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1341" s="1">
+        <v>8732</v>
+      </c>
+      <c r="C1341" s="2"/>
+      <c r="D1341" s="2"/>
+      <c r="E1341" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1341" s="2"/>
+      <c r="G1341" s="2"/>
+      <c r="H1341" s="2"/>
+    </row>
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1342" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1342" s="1">
+        <v>8733</v>
+      </c>
+      <c r="C1342" s="2"/>
+      <c r="D1342" s="2"/>
+      <c r="E1342" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1342" s="2"/>
+      <c r="G1342" s="2"/>
+      <c r="H1342" s="2"/>
+    </row>
+    <row r="1343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1343" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1343" s="1">
+        <v>8734</v>
+      </c>
+      <c r="C1343" s="2"/>
+      <c r="D1343" s="2"/>
+      <c r="E1343" s="2"/>
+      <c r="F1343" s="2"/>
+      <c r="G1343" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H1343" s="2"/>
+    </row>
+    <row r="1344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1344" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1344" s="1">
+        <v>8735</v>
+      </c>
+      <c r="C1344" s="2"/>
+      <c r="D1344" s="2"/>
+      <c r="E1344" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F1344" s="2"/>
+      <c r="G1344" s="2"/>
+      <c r="H1344" s="2"/>
+    </row>
+    <row r="1345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1345" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1345" s="1">
+        <v>8736</v>
+      </c>
+      <c r="C1345" s="2"/>
+      <c r="D1345" s="2"/>
+      <c r="E1345" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1345" s="2"/>
+      <c r="G1345" s="2"/>
+      <c r="H1345" s="2"/>
+    </row>
+    <row r="1346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1346" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1346" s="1">
+        <v>8737</v>
+      </c>
+      <c r="C1346" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D1346" s="2"/>
+      <c r="E1346" s="2"/>
+      <c r="F1346" s="2"/>
+      <c r="G1346" s="2"/>
+      <c r="H1346" s="2"/>
+    </row>
+    <row r="1347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1347" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1347" s="1">
+        <v>8738</v>
+      </c>
+      <c r="C1347" s="2"/>
+      <c r="D1347" s="2"/>
+      <c r="E1347" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1347" s="2"/>
+      <c r="G1347" s="2"/>
+      <c r="H1347" s="2"/>
+    </row>
+    <row r="1348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1348" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1348" s="1">
+        <v>8739</v>
+      </c>
+      <c r="C1348" s="2"/>
+      <c r="D1348" s="2"/>
+      <c r="E1348" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1348" s="2"/>
+      <c r="G1348" s="2"/>
+      <c r="H1348" s="2"/>
+    </row>
+    <row r="1349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1349" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1349" s="1">
+        <v>8740</v>
+      </c>
+      <c r="C1349" s="2"/>
+      <c r="D1349" s="2"/>
+      <c r="E1349" s="2"/>
+      <c r="F1349" s="2"/>
+      <c r="G1349" s="2"/>
+      <c r="H1349" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1350" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1350" s="1">
+        <v>8741</v>
+      </c>
+      <c r="C1350" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1350" s="2"/>
+      <c r="E1350" s="2"/>
+      <c r="F1350" s="2"/>
+      <c r="G1350" s="2"/>
+      <c r="H1350" s="2"/>
+    </row>
+    <row r="1351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1351" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B1351" s="1">
+        <v>8742</v>
+      </c>
+      <c r="C1351" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1351" s="2"/>
+      <c r="E1351" s="2"/>
+      <c r="F1351" s="2"/>
+      <c r="G1351" s="2"/>
+      <c r="H1351" s="2"/>
+    </row>
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1352" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1352" s="1">
+        <v>8743</v>
+      </c>
+      <c r="C1352" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D1352" s="2"/>
+      <c r="E1352" s="2"/>
+      <c r="F1352" s="2"/>
+      <c r="G1352" s="2"/>
+      <c r="H1352" s="2"/>
+    </row>
+    <row r="1353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1353" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1353" s="1">
+        <v>8744</v>
+      </c>
+      <c r="C1353" s="2"/>
+      <c r="D1353" s="2"/>
+      <c r="E1353" s="2"/>
+      <c r="F1353" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1353" s="2"/>
+      <c r="H1353" s="2"/>
+    </row>
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1354" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1354" s="1">
+        <v>8745</v>
+      </c>
+      <c r="C1354" s="2"/>
+      <c r="D1354" s="2"/>
+      <c r="E1354" s="2"/>
+      <c r="F1354" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1354" s="2"/>
+      <c r="H1354" s="2"/>
+    </row>
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1355" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1355" s="1">
+        <v>8746</v>
+      </c>
+      <c r="C1355" s="2"/>
+      <c r="D1355" s="2"/>
+      <c r="E1355" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1355" s="2"/>
+      <c r="G1355" s="2"/>
+      <c r="H1355" s="2"/>
+    </row>
+    <row r="1356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1356" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1356" s="1">
+        <v>8747</v>
+      </c>
+      <c r="C1356" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1356" s="2"/>
+      <c r="E1356" s="2"/>
+      <c r="F1356" s="2"/>
+      <c r="G1356" s="2"/>
+      <c r="H1356" s="2"/>
+    </row>
+    <row r="1357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1357" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1357" s="1">
+        <v>8748</v>
+      </c>
+      <c r="C1357" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1357" s="2"/>
+      <c r="E1357" s="2"/>
+      <c r="F1357" s="2"/>
+      <c r="G1357" s="2"/>
+      <c r="H1357" s="2"/>
+    </row>
+    <row r="1358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1358" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1358" s="1">
+        <v>8749</v>
+      </c>
+      <c r="C1358" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1358" s="2"/>
+      <c r="E1358" s="2"/>
+      <c r="F1358" s="2"/>
+      <c r="G1358" s="2"/>
+      <c r="H1358" s="2"/>
+    </row>
+    <row r="1359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1359" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1359" s="1">
+        <v>8750</v>
+      </c>
+      <c r="C1359" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1359" s="2"/>
+      <c r="E1359" s="2"/>
+      <c r="F1359" s="2"/>
+      <c r="G1359" s="2"/>
+      <c r="H1359" s="2"/>
+    </row>
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1360" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1360" s="1">
+        <v>7574</v>
+      </c>
+      <c r="C1360" s="2"/>
+      <c r="D1360" s="2"/>
+      <c r="E1360" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1360" s="2"/>
+      <c r="G1360" s="2"/>
+      <c r="H1360" s="2"/>
+    </row>
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1361" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1361" s="1">
+        <v>8601</v>
+      </c>
+      <c r="C1361" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1361" s="2"/>
+      <c r="E1361" s="2"/>
+      <c r="F1361" s="2"/>
+      <c r="G1361" s="2"/>
+      <c r="H1361" s="2"/>
+    </row>
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1362" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1362" s="1">
+        <v>8602</v>
+      </c>
+      <c r="C1362" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1362" s="2"/>
+      <c r="E1362" s="2"/>
+      <c r="F1362" s="2"/>
+      <c r="G1362" s="2"/>
+      <c r="H1362" s="2"/>
+    </row>
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1363" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B1363" s="1">
+        <v>8603</v>
+      </c>
+      <c r="C1363" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1363" s="2"/>
+      <c r="E1363" s="2"/>
+      <c r="F1363" s="2"/>
+      <c r="G1363" s="2"/>
+      <c r="H1363" s="2"/>
+    </row>
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1364" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1364" s="1">
+        <v>8604</v>
+      </c>
+      <c r="C1364" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1364" s="2"/>
+      <c r="E1364" s="2"/>
+      <c r="F1364" s="2"/>
+      <c r="G1364" s="2"/>
+      <c r="H1364" s="2"/>
+    </row>
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1365" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1365" s="1">
+        <v>8605</v>
+      </c>
+      <c r="C1365" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1365" s="2"/>
+      <c r="E1365" s="2"/>
+      <c r="F1365" s="2"/>
+      <c r="G1365" s="2"/>
+      <c r="H1365" s="2"/>
+    </row>
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1366" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1366" s="1">
+        <v>8606</v>
+      </c>
+      <c r="C1366" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1366" s="2"/>
+      <c r="E1366" s="2"/>
+      <c r="F1366" s="2"/>
+      <c r="G1366" s="2"/>
+      <c r="H1366" s="2"/>
+    </row>
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1367" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1367" s="1">
+        <v>8607</v>
+      </c>
+      <c r="C1367" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1367" s="2"/>
+      <c r="E1367" s="2"/>
+      <c r="F1367" s="2"/>
+      <c r="G1367" s="2"/>
+      <c r="H1367" s="2"/>
+    </row>
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1368" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1368" s="1">
+        <v>8608</v>
+      </c>
+      <c r="C1368" s="2"/>
+      <c r="D1368" s="2"/>
+      <c r="E1368" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1368" s="2"/>
+      <c r="G1368" s="2"/>
+      <c r="H1368" s="2"/>
+    </row>
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1369" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1369" s="1">
+        <v>8609</v>
+      </c>
+      <c r="C1369" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1369" s="2"/>
+      <c r="E1369" s="2"/>
+      <c r="F1369" s="2"/>
+      <c r="G1369" s="2"/>
+      <c r="H1369" s="2"/>
+    </row>
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1370" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1370" s="1">
+        <v>8610</v>
+      </c>
+      <c r="C1370" s="2"/>
+      <c r="D1370" s="2"/>
+      <c r="E1370" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1370" s="2"/>
+      <c r="G1370" s="2"/>
+      <c r="H1370" s="2"/>
+    </row>
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1371" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1371" s="1">
+        <v>8611</v>
+      </c>
+      <c r="C1371" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1371" s="2"/>
+      <c r="E1371" s="2"/>
+      <c r="F1371" s="2"/>
+      <c r="G1371" s="2"/>
+      <c r="H1371" s="2"/>
+    </row>
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1372" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1372" s="1">
+        <v>8612</v>
+      </c>
+      <c r="C1372" s="2"/>
+      <c r="D1372" s="2"/>
+      <c r="E1372" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1372" s="2"/>
+      <c r="G1372" s="2"/>
+      <c r="H1372" s="2"/>
+    </row>
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1373" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1373" s="1">
+        <v>8613</v>
+      </c>
+      <c r="C1373" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1373" s="2"/>
+      <c r="E1373" s="2"/>
+      <c r="F1373" s="2"/>
+      <c r="G1373" s="2"/>
+      <c r="H1373" s="2"/>
+    </row>
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1374" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1374" s="1">
+        <v>8614</v>
+      </c>
+      <c r="C1374" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1374" s="2"/>
+      <c r="E1374" s="2"/>
+      <c r="F1374" s="2"/>
+      <c r="G1374" s="2"/>
+      <c r="H1374" s="2"/>
+    </row>
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1375" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1375" s="1">
+        <v>8615</v>
+      </c>
+      <c r="C1375" s="2"/>
+      <c r="D1375" s="2"/>
+      <c r="E1375" s="2"/>
+      <c r="F1375" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1375" s="2"/>
+      <c r="H1375" s="2"/>
+    </row>
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1376" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1376" s="1">
+        <v>8616</v>
+      </c>
+      <c r="C1376" s="2"/>
+      <c r="D1376" s="2"/>
+      <c r="E1376" s="2"/>
+      <c r="F1376" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1376" s="2"/>
+      <c r="H1376" s="2"/>
+    </row>
+    <row r="1377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1377" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B1377" s="1">
+        <v>8617</v>
+      </c>
+      <c r="C1377" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1377" s="2"/>
+      <c r="E1377" s="2"/>
+      <c r="F1377" s="2"/>
+      <c r="G1377" s="2"/>
+      <c r="H1377" s="2"/>
+    </row>
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1378" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1378" s="1">
+        <v>7575</v>
+      </c>
+      <c r="C1378" s="2"/>
+      <c r="D1378" s="2"/>
+      <c r="E1378" s="2"/>
+      <c r="F1378" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1378" s="2"/>
+      <c r="H1378" s="2"/>
+    </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1379" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1379" s="1">
+        <v>7576</v>
+      </c>
+      <c r="C1379" s="2"/>
+      <c r="D1379" s="2"/>
+      <c r="E1379" s="2"/>
+      <c r="F1379" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1379" s="2"/>
+      <c r="H1379" s="2"/>
+    </row>
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1380" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1380" s="1">
+        <v>8618</v>
+      </c>
+      <c r="C1380" s="2"/>
+      <c r="D1380" s="2"/>
+      <c r="E1380" s="2"/>
+      <c r="F1380" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1380" s="2"/>
+      <c r="H1380" s="2"/>
+    </row>
+    <row r="1381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1381" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1381" s="1">
+        <v>8619</v>
+      </c>
+      <c r="C1381" s="2"/>
+      <c r="D1381" s="2"/>
+      <c r="E1381" s="2"/>
+      <c r="F1381" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1381" s="2"/>
+      <c r="H1381" s="2"/>
+    </row>
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1382" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1382" s="1">
+        <v>8620</v>
+      </c>
+      <c r="C1382" s="2"/>
+      <c r="D1382" s="2"/>
+      <c r="E1382" s="2"/>
+      <c r="F1382" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1382" s="2"/>
+      <c r="H1382" s="2"/>
+    </row>
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1383" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1383" s="1">
+        <v>8621</v>
+      </c>
+      <c r="C1383" s="2"/>
+      <c r="D1383" s="2"/>
+      <c r="E1383" s="2"/>
+      <c r="F1383" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1383" s="2"/>
+      <c r="H1383" s="2"/>
+    </row>
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1384" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1384" s="1">
+        <v>8622</v>
+      </c>
+      <c r="C1384" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D1384" s="2"/>
+      <c r="E1384" s="2"/>
+      <c r="F1384" s="2"/>
+      <c r="G1384" s="2"/>
+      <c r="H1384" s="2"/>
+    </row>
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1385" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1385" s="1">
+        <v>8623</v>
+      </c>
+      <c r="C1385" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1385" s="2"/>
+      <c r="E1385" s="2"/>
+      <c r="F1385" s="2"/>
+      <c r="G1385" s="2"/>
+      <c r="H1385" s="2"/>
+    </row>
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1386" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1386" s="1">
+        <v>8624</v>
+      </c>
+      <c r="C1386" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1386" s="2"/>
+      <c r="E1386" s="2"/>
+      <c r="F1386" s="2"/>
+      <c r="G1386" s="2"/>
+      <c r="H1386" s="2"/>
+    </row>
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1387" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1387" s="1">
+        <v>8625</v>
+      </c>
+      <c r="C1387" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1387" s="2"/>
+      <c r="E1387" s="2"/>
+      <c r="F1387" s="2"/>
+      <c r="G1387" s="2"/>
+      <c r="H1387" s="2"/>
+    </row>
+    <row r="1388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1388" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1388" s="1">
+        <v>8626</v>
+      </c>
+      <c r="C1388" s="2"/>
+      <c r="D1388" s="2"/>
+      <c r="E1388" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1388" s="2"/>
+      <c r="G1388" s="2"/>
+      <c r="H1388" s="2"/>
+    </row>
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1389" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1389" s="1">
+        <v>8627</v>
+      </c>
+      <c r="C1389" s="2"/>
+      <c r="D1389" s="2"/>
+      <c r="E1389" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1389" s="2"/>
+      <c r="G1389" s="2"/>
+      <c r="H1389" s="2"/>
+    </row>
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1390" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1390" s="1">
+        <v>8628</v>
+      </c>
+      <c r="C1390" s="2"/>
+      <c r="D1390" s="2"/>
+      <c r="E1390" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1390" s="2"/>
+      <c r="G1390" s="2"/>
+      <c r="H1390" s="2"/>
+    </row>
+    <row r="1391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1391" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1391" s="1">
+        <v>8629</v>
+      </c>
+      <c r="C1391" s="2"/>
+      <c r="D1391" s="2"/>
+      <c r="E1391" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1391" s="2"/>
+      <c r="G1391" s="2"/>
+      <c r="H1391" s="2"/>
+    </row>
+    <row r="1392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1392" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1392" s="1">
+        <v>8630</v>
+      </c>
+      <c r="C1392" s="2"/>
+      <c r="D1392" s="2"/>
+      <c r="E1392" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1392" s="2"/>
+      <c r="G1392" s="2"/>
+      <c r="H1392" s="2"/>
+    </row>
+    <row r="1393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1393" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1393" s="1">
+        <v>8631</v>
+      </c>
+      <c r="C1393" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1393" s="2"/>
+      <c r="E1393" s="2"/>
+      <c r="F1393" s="2"/>
+      <c r="G1393" s="2"/>
+      <c r="H1393" s="2"/>
+    </row>
+    <row r="1394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1394" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1394" s="1">
+        <v>8632</v>
+      </c>
+      <c r="C1394" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1394" s="2"/>
+      <c r="E1394" s="2"/>
+      <c r="F1394" s="2"/>
+      <c r="G1394" s="2"/>
+      <c r="H1394" s="2"/>
+    </row>
+    <row r="1395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1395" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1395" s="1">
+        <v>8633</v>
+      </c>
+      <c r="C1395" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1395" s="2"/>
+      <c r="E1395" s="2"/>
+      <c r="F1395" s="2"/>
+      <c r="G1395" s="2"/>
+      <c r="H1395" s="2"/>
+    </row>
+    <row r="1396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1396" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1396" s="1">
+        <v>8634</v>
+      </c>
+      <c r="C1396" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1396" s="2"/>
+      <c r="E1396" s="2"/>
+      <c r="F1396" s="2"/>
+      <c r="G1396" s="2"/>
+      <c r="H1396" s="2"/>
+    </row>
+    <row r="1397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1397" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1397" s="1">
+        <v>8635</v>
+      </c>
+      <c r="C1397" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1397" s="2"/>
+      <c r="E1397" s="2"/>
+      <c r="F1397" s="2"/>
+      <c r="G1397" s="2"/>
+      <c r="H1397" s="2"/>
+    </row>
+    <row r="1398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1398" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1398" s="1">
+        <v>7577</v>
+      </c>
+      <c r="C1398" s="2"/>
+      <c r="D1398" s="2"/>
+      <c r="E1398" s="2"/>
+      <c r="F1398" s="2">
+        <v>16</v>
+      </c>
+      <c r="G1398" s="2"/>
+      <c r="H1398" s="2"/>
+    </row>
+    <row r="1399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1399" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1399" s="1">
+        <v>8636</v>
+      </c>
+      <c r="C1399" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1399" s="2"/>
+      <c r="E1399" s="2"/>
+      <c r="F1399" s="2"/>
+      <c r="G1399" s="2"/>
+      <c r="H1399" s="2"/>
+    </row>
+    <row r="1400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1400" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1400" s="1">
+        <v>7578</v>
+      </c>
+      <c r="C1400" s="2"/>
+      <c r="D1400" s="2"/>
+      <c r="E1400" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1400" s="2"/>
+      <c r="G1400" s="2"/>
+      <c r="H1400" s="2"/>
+    </row>
+    <row r="1401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1401" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1401" s="1">
+        <v>8637</v>
+      </c>
+      <c r="C1401" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1401" s="2"/>
+      <c r="E1401" s="2"/>
+      <c r="F1401" s="2"/>
+      <c r="G1401" s="2"/>
+      <c r="H1401" s="2"/>
+    </row>
+    <row r="1402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1402" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B1402" s="1">
+        <v>8638</v>
+      </c>
+      <c r="C1402" s="2"/>
+      <c r="D1402" s="2"/>
+      <c r="E1402" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F1402" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1402" s="2"/>
+      <c r="H1402" s="2"/>
+    </row>
+    <row r="1403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1403" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1403" s="1">
+        <v>8639</v>
+      </c>
+      <c r="C1403" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1403" s="2"/>
+      <c r="E1403" s="2"/>
+      <c r="F1403" s="2"/>
+      <c r="G1403" s="2"/>
+      <c r="H1403" s="2"/>
+    </row>
+    <row r="1404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1404" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1404" s="1">
+        <v>8640</v>
+      </c>
+      <c r="C1404" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1404" s="2"/>
+      <c r="E1404" s="2"/>
+      <c r="F1404" s="2"/>
+      <c r="G1404" s="2"/>
+      <c r="H1404" s="2"/>
+    </row>
+    <row r="1405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1405" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1405" s="1">
+        <v>8641</v>
+      </c>
+      <c r="C1405" s="2"/>
+      <c r="D1405" s="2"/>
+      <c r="E1405" s="2"/>
+      <c r="F1405" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1405" s="2"/>
+      <c r="H1405" s="2"/>
+    </row>
+    <row r="1406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1406" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1406" s="1">
+        <v>8642</v>
+      </c>
+      <c r="C1406" s="2"/>
+      <c r="D1406" s="2"/>
+      <c r="E1406" s="2"/>
+      <c r="F1406" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1406" s="2"/>
+      <c r="H1406" s="2"/>
+    </row>
+    <row r="1407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1407" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1407" s="1">
+        <v>8643</v>
+      </c>
+      <c r="C1407" s="2"/>
+      <c r="D1407" s="2"/>
+      <c r="E1407" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1407" s="2"/>
+      <c r="G1407" s="2"/>
+      <c r="H1407" s="2"/>
+    </row>
+    <row r="1408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1408" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1408" s="1">
+        <v>8644</v>
+      </c>
+      <c r="C1408" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1408" s="2"/>
+      <c r="E1408" s="2"/>
+      <c r="F1408" s="2"/>
+      <c r="G1408" s="2"/>
+      <c r="H1408" s="2"/>
+    </row>
+    <row r="1409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1409" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1409" s="1">
+        <v>8645</v>
+      </c>
+      <c r="C1409" s="2"/>
+      <c r="D1409" s="2"/>
+      <c r="E1409" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1409" s="2"/>
+      <c r="G1409" s="2"/>
+      <c r="H1409" s="2"/>
+    </row>
+    <row r="1410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1410" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1410" s="1">
+        <v>8646</v>
+      </c>
+      <c r="C1410" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1410" s="2"/>
+      <c r="E1410" s="2"/>
+      <c r="F1410" s="2"/>
+      <c r="G1410" s="2"/>
+      <c r="H1410" s="2"/>
+    </row>
+    <row r="1411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1411" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1411" s="1">
+        <v>8647</v>
+      </c>
+      <c r="C1411" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1411" s="2"/>
+      <c r="E1411" s="2"/>
+      <c r="F1411" s="2"/>
+      <c r="G1411" s="2"/>
+      <c r="H1411" s="2"/>
+    </row>
+    <row r="1412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1412" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1412" s="1">
+        <v>8648</v>
+      </c>
+      <c r="C1412" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1412" s="2"/>
+      <c r="E1412" s="2"/>
+      <c r="F1412" s="2"/>
+      <c r="G1412" s="2"/>
+      <c r="H1412" s="2"/>
+    </row>
+    <row r="1413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1413" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1413" s="1">
+        <v>8649</v>
+      </c>
+      <c r="C1413" s="2"/>
+      <c r="D1413" s="2"/>
+      <c r="E1413" s="2"/>
+      <c r="F1413" s="2"/>
+      <c r="G1413" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1413" s="2"/>
+    </row>
+    <row r="1414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1414" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1414" s="1">
+        <v>8650</v>
+      </c>
+      <c r="C1414" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1414" s="2"/>
+      <c r="E1414" s="2"/>
+      <c r="F1414" s="2"/>
+      <c r="G1414" s="2"/>
+      <c r="H1414" s="2"/>
+    </row>
+    <row r="1415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1415" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1415" s="1">
+        <v>8651</v>
+      </c>
+      <c r="C1415" s="2"/>
+      <c r="D1415" s="2"/>
+      <c r="E1415" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F1415" s="2"/>
+      <c r="G1415" s="2"/>
+      <c r="H1415" s="2"/>
+    </row>
+    <row r="1416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1416" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1416" s="1">
+        <v>7599</v>
+      </c>
+      <c r="C1416" s="2"/>
+      <c r="D1416" s="2"/>
+      <c r="E1416" s="2"/>
+      <c r="F1416" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1416" s="2"/>
+      <c r="H1416" s="2"/>
+    </row>
+    <row r="1417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1417" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1417" s="1">
+        <v>7580</v>
+      </c>
+      <c r="C1417" s="2"/>
+      <c r="D1417" s="2"/>
+      <c r="E1417" s="2"/>
+      <c r="F1417" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1417" s="2"/>
+      <c r="H1417" s="2"/>
+    </row>
+    <row r="1418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1418" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1418" s="1">
+        <v>8652</v>
+      </c>
+      <c r="C1418" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1418" s="2"/>
+      <c r="E1418" s="2"/>
+      <c r="F1418" s="2"/>
+      <c r="G1418" s="2"/>
+      <c r="H1418" s="2"/>
+    </row>
+    <row r="1419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1419" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1419" s="1">
+        <v>8653</v>
+      </c>
+      <c r="C1419" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1419" s="2"/>
+      <c r="E1419" s="2"/>
+      <c r="F1419" s="2"/>
+      <c r="G1419" s="2"/>
+      <c r="H1419" s="2"/>
+    </row>
+    <row r="1420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1420" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B1420" s="1">
+        <v>8654</v>
+      </c>
+      <c r="C1420" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1420" s="2"/>
+      <c r="E1420" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F1420" s="2"/>
+      <c r="G1420" s="2"/>
+      <c r="H1420" s="2"/>
+    </row>
+    <row r="1421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1421" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1421" s="1">
+        <v>8655</v>
+      </c>
+      <c r="C1421" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1421" s="2"/>
+      <c r="E1421" s="2"/>
+      <c r="F1421" s="2"/>
+      <c r="G1421" s="2"/>
+      <c r="H1421" s="2"/>
+    </row>
+    <row r="1422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1422" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1422" s="1">
+        <v>8656</v>
+      </c>
+      <c r="C1422" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1422" s="2"/>
+      <c r="E1422" s="2"/>
+      <c r="F1422" s="2"/>
+      <c r="G1422" s="2"/>
+      <c r="H1422" s="2"/>
+    </row>
+    <row r="1423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1423" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1423" s="1">
+        <v>8657</v>
+      </c>
+      <c r="C1423" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1423" s="2"/>
+      <c r="E1423" s="2"/>
+      <c r="F1423" s="2"/>
+      <c r="G1423" s="2"/>
+      <c r="H1423" s="2"/>
+    </row>
+    <row r="1424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1424" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1424" s="1">
+        <v>8658</v>
+      </c>
+      <c r="C1424" s="2"/>
+      <c r="D1424" s="2"/>
+      <c r="E1424" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1424" s="2"/>
+      <c r="G1424" s="2"/>
+      <c r="H1424" s="2"/>
+    </row>
+    <row r="1425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1425" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1425" s="1">
+        <v>8659</v>
+      </c>
+      <c r="C1425" s="2"/>
+      <c r="D1425" s="2"/>
+      <c r="E1425" s="2"/>
+      <c r="F1425" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G1425" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1425" s="2"/>
+    </row>
+    <row r="1426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1426" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1426" s="1">
+        <v>8660</v>
+      </c>
+      <c r="C1426" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1426" s="2"/>
+      <c r="E1426" s="2"/>
+      <c r="F1426" s="2"/>
+      <c r="G1426" s="2"/>
+      <c r="H1426" s="2"/>
+    </row>
+    <row r="1427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1427" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1427" s="1">
+        <v>8661</v>
+      </c>
+      <c r="C1427" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1427" s="2"/>
+      <c r="E1427" s="2"/>
+      <c r="F1427" s="2"/>
+      <c r="G1427" s="2"/>
+      <c r="H1427" s="2"/>
+    </row>
+    <row r="1428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1428" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1428" s="1">
+        <v>8662</v>
+      </c>
+      <c r="C1428" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1428" s="2"/>
+      <c r="E1428" s="2"/>
+      <c r="F1428" s="2"/>
+      <c r="G1428" s="2"/>
+      <c r="H1428" s="2"/>
+    </row>
+    <row r="1429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1429" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1429" s="1">
+        <v>8663</v>
+      </c>
+      <c r="C1429" s="2"/>
+      <c r="D1429" s="2"/>
+      <c r="E1429" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1429" s="2"/>
+      <c r="G1429" s="2"/>
+      <c r="H1429" s="2"/>
+    </row>
+    <row r="1430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1430" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1430" s="1">
+        <v>8664</v>
+      </c>
+      <c r="C1430" s="2"/>
+      <c r="D1430" s="2"/>
+      <c r="E1430" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F1430" s="2"/>
+      <c r="G1430" s="2"/>
+      <c r="H1430" s="2"/>
+    </row>
+    <row r="1431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1431" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1431" s="1">
+        <v>8665</v>
+      </c>
+      <c r="C1431" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1431" s="2"/>
+      <c r="E1431" s="2"/>
+      <c r="F1431" s="2"/>
+      <c r="G1431" s="2"/>
+      <c r="H1431" s="2"/>
+    </row>
+    <row r="1432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1432" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1432" s="1">
+        <v>8666</v>
+      </c>
+      <c r="C1432" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1432" s="2"/>
+      <c r="E1432" s="2"/>
+      <c r="F1432" s="2"/>
+      <c r="G1432" s="2"/>
+      <c r="H1432" s="2"/>
+    </row>
+    <row r="1433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1433" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1433" s="1">
+        <v>8667</v>
+      </c>
+      <c r="C1433" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D1433" s="2"/>
+      <c r="E1433" s="2"/>
+      <c r="F1433" s="2"/>
+      <c r="G1433" s="2"/>
+      <c r="H1433" s="2"/>
+    </row>
+    <row r="1434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1434" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1434" s="1">
+        <v>8668</v>
+      </c>
+      <c r="C1434" s="2"/>
+      <c r="D1434" s="2"/>
+      <c r="E1434" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1434" s="2"/>
+      <c r="G1434" s="2"/>
+      <c r="H1434" s="2"/>
+    </row>
+    <row r="1435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1435" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1435" s="1">
+        <v>8669</v>
+      </c>
+      <c r="C1435" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1435" s="2"/>
+      <c r="E1435" s="2"/>
+      <c r="F1435" s="2"/>
+      <c r="G1435" s="2"/>
+      <c r="H1435" s="2"/>
+    </row>
+    <row r="1436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1436" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1436" s="1">
+        <v>8670</v>
+      </c>
+      <c r="C1436" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1436" s="2"/>
+      <c r="E1436" s="2"/>
+      <c r="F1436" s="2"/>
+      <c r="G1436" s="2"/>
+      <c r="H1436" s="2"/>
+    </row>
+    <row r="1437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1437" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1437" s="1">
+        <v>8671</v>
+      </c>
+      <c r="C1437" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1437" s="2"/>
+      <c r="E1437" s="2"/>
+      <c r="F1437" s="2"/>
+      <c r="G1437" s="2"/>
+      <c r="H1437" s="2"/>
+    </row>
+    <row r="1438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1438" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1438" s="1">
+        <v>8672</v>
+      </c>
+      <c r="C1438" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1438" s="2"/>
+      <c r="E1438" s="2"/>
+      <c r="F1438" s="2"/>
+      <c r="G1438" s="2"/>
+      <c r="H1438" s="2"/>
+    </row>
+    <row r="1439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1439" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1439" s="1">
+        <v>8673</v>
+      </c>
+      <c r="C1439" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1439" s="2"/>
+      <c r="E1439" s="2"/>
+      <c r="F1439" s="2"/>
+      <c r="G1439" s="2"/>
+      <c r="H1439" s="2"/>
+    </row>
+    <row r="1440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1440" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1440" s="1">
+        <v>8674</v>
+      </c>
+      <c r="C1440" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1440" s="2"/>
+      <c r="E1440" s="2"/>
+      <c r="F1440" s="2"/>
+      <c r="G1440" s="2"/>
+      <c r="H1440" s="2"/>
+    </row>
+    <row r="1441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1441" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1441" s="1">
+        <v>7581</v>
+      </c>
+      <c r="C1441" s="2"/>
+      <c r="D1441" s="2"/>
+      <c r="E1441" s="2"/>
+      <c r="F1441" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1441" s="2"/>
+      <c r="H1441" s="2"/>
+    </row>
+    <row r="1442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1442" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1442" s="1">
+        <v>7582</v>
+      </c>
+      <c r="C1442" s="2"/>
+      <c r="D1442" s="2"/>
+      <c r="E1442" s="2"/>
+      <c r="F1442" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1442" s="2"/>
+      <c r="H1442" s="2"/>
+    </row>
+    <row r="1443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1443" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1443" s="1">
+        <v>7583</v>
+      </c>
+      <c r="C1443" s="2"/>
+      <c r="D1443" s="2"/>
+      <c r="E1443" s="2"/>
+      <c r="F1443" s="2"/>
+      <c r="G1443" s="2">
+        <v>7</v>
+      </c>
+      <c r="H1443" s="2"/>
+    </row>
+    <row r="1444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1444" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B1444" s="1">
+        <v>7584</v>
+      </c>
+      <c r="C1444" s="2"/>
+      <c r="D1444" s="2"/>
+      <c r="E1444" s="2"/>
+      <c r="F1444" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1444" s="2"/>
+      <c r="H1444" s="2"/>
+    </row>
+    <row r="1445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1445" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1445" s="1">
+        <v>7585</v>
+      </c>
+      <c r="C1445" s="2"/>
+      <c r="D1445" s="2"/>
+      <c r="E1445" s="2"/>
+      <c r="F1445" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1445" s="2"/>
+      <c r="H1445" s="2"/>
+    </row>
+    <row r="1446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1446" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1446" s="1">
+        <v>7586</v>
+      </c>
+      <c r="C1446" s="2"/>
+      <c r="D1446" s="2"/>
+      <c r="E1446" s="2"/>
+      <c r="F1446" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1446" s="2"/>
+      <c r="H1446" s="2"/>
+    </row>
+    <row r="1447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1447" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1447" s="1">
+        <v>8675</v>
+      </c>
+      <c r="C1447" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1447" s="2"/>
+      <c r="E1447" s="2"/>
+      <c r="F1447" s="2"/>
+      <c r="G1447" s="2"/>
+      <c r="H1447" s="2"/>
+    </row>
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1448" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1448" s="1">
+        <v>8676</v>
+      </c>
+      <c r="C1448" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D1448" s="2"/>
+      <c r="E1448" s="2"/>
+      <c r="F1448" s="2"/>
+      <c r="G1448" s="2"/>
+      <c r="H1448" s="2"/>
+    </row>
+    <row r="1449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1449" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1449" s="1">
+        <v>8677</v>
+      </c>
+      <c r="C1449" s="2"/>
+      <c r="D1449" s="2"/>
+      <c r="E1449" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1449" s="2"/>
+      <c r="G1449" s="2"/>
+      <c r="H1449" s="2"/>
+    </row>
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1450" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1450" s="1">
+        <v>8678</v>
+      </c>
+      <c r="C1450" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1450" s="2"/>
+      <c r="E1450" s="2"/>
+      <c r="F1450" s="2"/>
+      <c r="G1450" s="2"/>
+      <c r="H1450" s="2"/>
+    </row>
+    <row r="1451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1451" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1451" s="1">
+        <v>8679</v>
+      </c>
+      <c r="C1451" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1451" s="2"/>
+      <c r="E1451" s="2"/>
+      <c r="F1451" s="2"/>
+      <c r="G1451" s="2"/>
+      <c r="H1451" s="2"/>
+    </row>
+    <row r="1452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1452" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1452" s="1">
+        <v>8680</v>
+      </c>
+      <c r="C1452" s="2"/>
+      <c r="D1452" s="2"/>
+      <c r="E1452" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1452" s="2"/>
+      <c r="G1452" s="2"/>
+      <c r="H1452" s="2"/>
+    </row>
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1453" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1453" s="1">
+        <v>8681</v>
+      </c>
+      <c r="C1453" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1453" s="2"/>
+      <c r="E1453" s="2"/>
+      <c r="F1453" s="2"/>
+      <c r="G1453" s="2"/>
+      <c r="H1453" s="2"/>
+    </row>
+    <row r="1454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1454" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1454" s="1">
+        <v>8682</v>
+      </c>
+      <c r="C1454" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1454" s="2"/>
+      <c r="E1454" s="2"/>
+      <c r="F1454" s="2"/>
+      <c r="G1454" s="2"/>
+      <c r="H1454" s="2"/>
+    </row>
+    <row r="1455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1455" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1455" s="1">
+        <v>8683</v>
+      </c>
+      <c r="C1455" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1455" s="2"/>
+      <c r="E1455" s="2"/>
+      <c r="F1455" s="2"/>
+      <c r="G1455" s="2"/>
+      <c r="H1455" s="2"/>
+    </row>
+    <row r="1456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1456" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1456" s="1">
+        <v>8684</v>
+      </c>
+      <c r="C1456" s="2"/>
+      <c r="D1456" s="2"/>
+      <c r="E1456" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1456" s="2"/>
+      <c r="G1456" s="2"/>
+      <c r="H1456" s="2"/>
+    </row>
+    <row r="1457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1457" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1457" s="1">
+        <v>8685</v>
+      </c>
+      <c r="C1457" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1457" s="2"/>
+      <c r="E1457" s="2"/>
+      <c r="F1457" s="2"/>
+      <c r="G1457" s="2"/>
+      <c r="H1457" s="2"/>
+    </row>
+    <row r="1458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1458" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1458" s="1">
+        <v>8686</v>
+      </c>
+      <c r="C1458" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1458" s="2"/>
+      <c r="E1458" s="2"/>
+      <c r="F1458" s="2"/>
+      <c r="G1458" s="2"/>
+      <c r="H1458" s="2"/>
+    </row>
+    <row r="1459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1459" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1459" s="1">
+        <v>8687</v>
+      </c>
+      <c r="C1459" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1459" s="2"/>
+      <c r="E1459" s="2"/>
+      <c r="F1459" s="2"/>
+      <c r="G1459" s="2"/>
+      <c r="H1459" s="2"/>
+    </row>
+    <row r="1460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1460" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1460" s="1">
+        <v>8688</v>
+      </c>
+      <c r="C1460" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1460" s="2"/>
+      <c r="E1460" s="2"/>
+      <c r="F1460" s="2"/>
+      <c r="G1460" s="2"/>
+      <c r="H1460" s="2"/>
+    </row>
+    <row r="1461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1461" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1461" s="1">
+        <v>8689</v>
+      </c>
+      <c r="C1461" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1461" s="2"/>
+      <c r="E1461" s="2"/>
+      <c r="F1461" s="2"/>
+      <c r="G1461" s="2"/>
+      <c r="H1461" s="2"/>
+    </row>
+    <row r="1462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1462" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1462" s="1">
+        <v>8690</v>
+      </c>
+      <c r="C1462" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1462" s="2"/>
+      <c r="E1462" s="2"/>
+      <c r="F1462" s="2"/>
+      <c r="G1462" s="2"/>
+      <c r="H1462" s="2"/>
+    </row>
+    <row r="1463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1463" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1463" s="1">
+        <v>8692</v>
+      </c>
+      <c r="C1463" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1463" s="2"/>
+      <c r="E1463" s="2"/>
+      <c r="F1463" s="2"/>
+      <c r="G1463" s="2"/>
+      <c r="H1463" s="2"/>
+    </row>
+    <row r="1464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1464" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1464" s="1"/>
+      <c r="C1464" s="2"/>
+      <c r="D1464" s="2">
+        <v>330</v>
+      </c>
+      <c r="E1464" s="2"/>
+      <c r="F1464" s="2"/>
+      <c r="G1464" s="2"/>
+      <c r="H1464" s="2"/>
+    </row>
+    <row r="1465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1465" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1465" s="1"/>
+      <c r="C1465" s="2">
+        <v>44</v>
+      </c>
+      <c r="D1465" s="2"/>
+      <c r="E1465" s="2"/>
+      <c r="F1465" s="2"/>
+      <c r="G1465" s="2"/>
+      <c r="H1465" s="2"/>
+    </row>
+    <row r="1466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1466" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1466" s="1">
+        <v>8693</v>
+      </c>
+      <c r="C1466" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1466" s="2"/>
+      <c r="E1466" s="2"/>
+      <c r="F1466" s="2"/>
+      <c r="G1466" s="2"/>
+      <c r="H1466" s="2"/>
+    </row>
+    <row r="1467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1467" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B1467" s="1">
+        <v>8694</v>
+      </c>
+      <c r="C1467" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1467" s="2"/>
+      <c r="E1467" s="2"/>
+      <c r="F1467" s="2"/>
+      <c r="G1467" s="2"/>
+      <c r="H1467" s="2"/>
+    </row>
+    <row r="1468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1468" s="3">
+        <v>43663</v>
+      </c>
+      <c r="B1468" s="1">
+        <v>8695</v>
+      </c>
+      <c r="C1468" s="2"/>
+      <c r="D1468" s="2"/>
+      <c r="E1468" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1468" s="2"/>
+      <c r="G1468" s="2"/>
+      <c r="H1468" s="2"/>
+    </row>
+    <row r="1469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1469" s="3">
+        <v>43663</v>
+      </c>
+      <c r="B1469" s="1">
+        <v>8696</v>
+      </c>
+      <c r="C1469" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1469" s="2"/>
+      <c r="E1469" s="2"/>
+      <c r="F1469" s="2"/>
+      <c r="G1469" s="2"/>
+      <c r="H1469" s="2"/>
+    </row>
+    <row r="1470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1470" s="3">
+        <v>43663</v>
+      </c>
+      <c r="B1470" s="1">
+        <v>8697</v>
+      </c>
+      <c r="C1470" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1470" s="2"/>
+      <c r="E1470" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F1470" s="2"/>
+      <c r="G1470" s="2"/>
+      <c r="H1470" s="2"/>
+    </row>
+    <row r="1471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1471" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B1471" s="1">
+        <v>8698</v>
+      </c>
+      <c r="C1471" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1471" s="2"/>
+      <c r="E1471" s="2"/>
+      <c r="F1471" s="2"/>
+      <c r="G1471" s="2"/>
+      <c r="H1471" s="2"/>
+    </row>
+    <row r="1472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1472" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B1472" s="1">
+        <v>8699</v>
+      </c>
+      <c r="C1472" s="2"/>
+      <c r="D1472" s="2"/>
+      <c r="E1472" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1472" s="2"/>
+      <c r="G1472" s="2"/>
+      <c r="H1472" s="2"/>
+    </row>
+    <row r="1473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1473" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B1473" s="1">
+        <v>8700</v>
+      </c>
+      <c r="C1473" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1473" s="2"/>
+      <c r="E1473" s="2"/>
+      <c r="F1473" s="2"/>
+      <c r="G1473" s="2"/>
+      <c r="H1473" s="2"/>
+    </row>
+    <row r="1474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1474" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B1474" s="1">
+        <v>8501</v>
+      </c>
+      <c r="C1474" s="2"/>
+      <c r="D1474" s="2"/>
+      <c r="E1474" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1474" s="2"/>
+      <c r="G1474" s="2"/>
+      <c r="H1474" s="2"/>
+    </row>
+    <row r="1475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1475" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B1475" s="1">
+        <v>8502</v>
+      </c>
+      <c r="C1475" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1475" s="2"/>
+      <c r="E1475" s="2"/>
+      <c r="F1475" s="2"/>
+      <c r="G1475" s="2"/>
+      <c r="H1475" s="2"/>
+    </row>
+    <row r="1476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1476" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B1476" s="1">
+        <v>8503</v>
+      </c>
+      <c r="C1476" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1476" s="2"/>
+      <c r="E1476" s="2"/>
+      <c r="F1476" s="2"/>
+      <c r="G1476" s="2"/>
+      <c r="H1476" s="2"/>
+    </row>
+    <row r="1477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1477" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B1477" s="1">
+        <v>8504</v>
+      </c>
+      <c r="C1477" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1477" s="2"/>
+      <c r="E1477" s="2"/>
+      <c r="F1477" s="2"/>
+      <c r="G1477" s="2"/>
+      <c r="H1477" s="2"/>
+    </row>
+    <row r="1478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1478" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B1478" s="1">
+        <v>7587</v>
+      </c>
+      <c r="C1478" s="2"/>
+      <c r="D1478" s="2"/>
+      <c r="E1478" s="2"/>
+      <c r="F1478" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1478" s="2"/>
+      <c r="H1478" s="2"/>
+    </row>
+    <row r="1479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1479" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B1479" s="1">
+        <v>7588</v>
+      </c>
+      <c r="C1479" s="2"/>
+      <c r="D1479" s="2"/>
+      <c r="E1479" s="2"/>
+      <c r="F1479" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1479" s="2"/>
+      <c r="H1479" s="2"/>
+    </row>
+    <row r="1480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1480" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1480" s="1">
+        <v>7589</v>
+      </c>
+      <c r="C1480" s="2"/>
+      <c r="D1480" s="2"/>
+      <c r="E1480" s="2"/>
+      <c r="F1480" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1480" s="2"/>
+      <c r="H1480" s="2"/>
+    </row>
+    <row r="1481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1481" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1481" s="1">
+        <v>7590</v>
+      </c>
+      <c r="C1481" s="2"/>
+      <c r="D1481" s="2"/>
+      <c r="E1481" s="2"/>
+      <c r="F1481" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1481" s="2"/>
+      <c r="H1481" s="2"/>
+    </row>
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1482" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1482" s="1">
+        <v>8505</v>
+      </c>
+      <c r="C1482" s="2"/>
+      <c r="D1482" s="2"/>
+      <c r="E1482" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1482" s="2"/>
+      <c r="G1482" s="2"/>
+      <c r="H1482" s="2"/>
+    </row>
+    <row r="1483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1483" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1483" s="1">
+        <v>8506</v>
+      </c>
+      <c r="C1483" s="2"/>
+      <c r="D1483" s="2"/>
+      <c r="E1483" s="2"/>
+      <c r="F1483" s="2">
+        <v>60</v>
+      </c>
+      <c r="G1483" s="2"/>
+      <c r="H1483" s="2"/>
+    </row>
+    <row r="1484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1484" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1484" s="1">
+        <v>8507</v>
+      </c>
+      <c r="C1484" s="2"/>
+      <c r="D1484" s="2"/>
+      <c r="E1484" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1484" s="2"/>
+      <c r="G1484" s="2"/>
+      <c r="H1484" s="2"/>
+    </row>
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1485" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1485" s="1">
+        <v>8508</v>
+      </c>
+      <c r="C1485" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1485" s="2"/>
+      <c r="E1485" s="2"/>
+      <c r="F1485" s="2"/>
+      <c r="G1485" s="2"/>
+      <c r="H1485" s="2"/>
+    </row>
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1486" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1486" s="1">
+        <v>8509</v>
+      </c>
+      <c r="C1486" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1486" s="2"/>
+      <c r="E1486" s="2"/>
+      <c r="F1486" s="2"/>
+      <c r="G1486" s="2"/>
+      <c r="H1486" s="2"/>
+    </row>
+    <row r="1487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1487" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1487" s="1">
+        <v>8510</v>
+      </c>
+      <c r="C1487" s="2"/>
+      <c r="D1487" s="2"/>
+      <c r="E1487" s="2"/>
+      <c r="F1487" s="2"/>
+      <c r="G1487" s="2"/>
+      <c r="H1487" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1488" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1488" s="1">
+        <v>8511</v>
+      </c>
+      <c r="C1488" s="2"/>
+      <c r="D1488" s="2"/>
+      <c r="E1488" s="2"/>
+      <c r="F1488" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1488" s="2"/>
+      <c r="H1488" s="2"/>
+    </row>
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1489" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1489" s="1">
+        <v>8512</v>
+      </c>
+      <c r="C1489" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1489" s="2"/>
+      <c r="E1489" s="2"/>
+      <c r="F1489" s="2"/>
+      <c r="G1489" s="2"/>
+      <c r="H1489" s="2"/>
+    </row>
+    <row r="1490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1490" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1490" s="1">
+        <v>8513</v>
+      </c>
+      <c r="C1490" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1490" s="2"/>
+      <c r="E1490" s="2"/>
+      <c r="F1490" s="2"/>
+      <c r="G1490" s="2"/>
+      <c r="H1490" s="2"/>
+    </row>
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1491" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1491" s="1">
+        <v>8514</v>
+      </c>
+      <c r="C1491" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1491" s="2"/>
+      <c r="E1491" s="2"/>
+      <c r="F1491" s="2"/>
+      <c r="G1491" s="2"/>
+      <c r="H1491" s="2"/>
+    </row>
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1492" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1492" s="1">
+        <v>8515</v>
+      </c>
+      <c r="C1492" s="2"/>
+      <c r="D1492" s="2"/>
+      <c r="E1492" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1492" s="2"/>
+      <c r="G1492" s="2"/>
+      <c r="H1492" s="2"/>
+    </row>
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1493" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1493" s="1">
+        <v>8516</v>
+      </c>
+      <c r="C1493" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1493" s="2"/>
+      <c r="E1493" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F1493" s="2"/>
+      <c r="G1493" s="2"/>
+      <c r="H1493" s="2"/>
+    </row>
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1494" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B1494" s="1">
+        <v>8517</v>
+      </c>
+      <c r="C1494" s="2"/>
+      <c r="D1494" s="2"/>
+      <c r="E1494" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1494" s="2"/>
+      <c r="G1494" s="2"/>
+      <c r="H1494" s="2"/>
+    </row>
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1495" s="3">
+        <v>43666</v>
+      </c>
+      <c r="B1495" s="1">
+        <v>8518</v>
+      </c>
+      <c r="C1495" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1495" s="2"/>
+      <c r="E1495" s="2"/>
+      <c r="F1495" s="2"/>
+      <c r="G1495" s="2"/>
+      <c r="H1495" s="2"/>
+    </row>
+    <row r="1496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1496" s="3">
+        <v>43666</v>
+      </c>
+      <c r="B1496" s="1">
+        <v>8519</v>
+      </c>
+      <c r="C1496" s="2"/>
+      <c r="D1496" s="2"/>
+      <c r="E1496" s="2">
+        <v>80</v>
+      </c>
+      <c r="F1496" s="2"/>
+      <c r="G1496" s="2"/>
+      <c r="H1496" s="2"/>
+    </row>
+    <row r="1497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1497" s="3">
+        <v>43666</v>
+      </c>
+      <c r="B1497" s="1">
+        <v>8520</v>
+      </c>
+      <c r="C1497" s="2"/>
+      <c r="D1497" s="2"/>
+      <c r="E1497" s="2"/>
+      <c r="F1497" s="2"/>
+      <c r="G1497" s="2">
+        <v>72</v>
+      </c>
+      <c r="H1497" s="2"/>
+    </row>
+    <row r="1498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1498" s="3">
+        <v>43666</v>
+      </c>
+      <c r="B1498" s="1">
+        <v>8521</v>
+      </c>
+      <c r="C1498" s="2"/>
+      <c r="D1498" s="2"/>
+      <c r="E1498" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1498" s="2"/>
+      <c r="G1498" s="2"/>
+      <c r="H1498" s="2"/>
+    </row>
+    <row r="1499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1499" s="3">
+        <v>43666</v>
+      </c>
+      <c r="B1499" s="1">
+        <v>8522</v>
+      </c>
+      <c r="C1499" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1499" s="2"/>
+      <c r="E1499" s="2"/>
+      <c r="F1499" s="2"/>
+      <c r="G1499" s="2"/>
+      <c r="H1499" s="2"/>
+    </row>
+    <row r="1500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1500" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1500" s="1">
+        <v>8523</v>
+      </c>
+      <c r="C1500" s="2"/>
+      <c r="D1500" s="2"/>
+      <c r="E1500" s="2"/>
+      <c r="F1500" s="2">
+        <v>6</v>
+      </c>
+      <c r="G1500" s="2"/>
+      <c r="H1500" s="2"/>
+    </row>
+    <row r="1501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1501" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1501" s="1">
+        <v>8524</v>
+      </c>
+      <c r="C1501" s="2"/>
+      <c r="D1501" s="2"/>
+      <c r="E1501" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1501" s="2"/>
+      <c r="G1501" s="2"/>
+      <c r="H1501" s="2"/>
+    </row>
+    <row r="1502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1502" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1502" s="1">
+        <v>8525</v>
+      </c>
+      <c r="C1502" s="2"/>
+      <c r="D1502" s="2"/>
+      <c r="E1502" s="2"/>
+      <c r="F1502" s="2">
+        <v>6</v>
+      </c>
+      <c r="G1502" s="2"/>
+      <c r="H1502" s="2"/>
+    </row>
+    <row r="1503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1503" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1503" s="1">
+        <v>8526</v>
+      </c>
+      <c r="C1503" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1503" s="2"/>
+      <c r="E1503" s="2"/>
+      <c r="F1503" s="2"/>
+      <c r="G1503" s="2"/>
+      <c r="H1503" s="2"/>
+    </row>
+    <row r="1504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1504" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1504" s="1">
+        <v>8527</v>
+      </c>
+      <c r="C1504" s="2"/>
+      <c r="D1504" s="2"/>
+      <c r="E1504" s="2"/>
+      <c r="F1504" s="2"/>
+      <c r="G1504" s="2"/>
+      <c r="H1504" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1505" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1505" s="1">
+        <v>8528</v>
+      </c>
+      <c r="C1505" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1505" s="2"/>
+      <c r="E1505" s="2"/>
+      <c r="F1505" s="2"/>
+      <c r="G1505" s="2"/>
+      <c r="H1505" s="2"/>
+    </row>
+    <row r="1506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1506" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1506" s="1">
+        <v>8529</v>
+      </c>
+      <c r="C1506" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1506" s="2"/>
+      <c r="E1506" s="2"/>
+      <c r="F1506" s="2"/>
+      <c r="G1506" s="2"/>
+      <c r="H1506" s="2"/>
+    </row>
+    <row r="1507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1507" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1507" s="1">
+        <v>8530</v>
+      </c>
+      <c r="C1507" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1507" s="2"/>
+      <c r="E1507" s="2"/>
+      <c r="F1507" s="2"/>
+      <c r="G1507" s="2"/>
+      <c r="H1507" s="2"/>
+    </row>
+    <row r="1508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1508" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1508" s="1">
+        <v>8531</v>
+      </c>
+      <c r="C1508" s="2"/>
+      <c r="D1508" s="2"/>
+      <c r="E1508" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1508" s="2"/>
+      <c r="G1508" s="2"/>
+      <c r="H1508" s="2"/>
+    </row>
+    <row r="1509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1509" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1509" s="1">
+        <v>8532</v>
+      </c>
+      <c r="C1509" s="2"/>
+      <c r="D1509" s="2"/>
+      <c r="E1509" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1509" s="2"/>
+      <c r="G1509" s="2"/>
+      <c r="H1509" s="2"/>
+    </row>
+    <row r="1510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1510" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1510" s="1">
+        <v>8533</v>
+      </c>
+      <c r="C1510" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1510" s="2"/>
+      <c r="E1510" s="2"/>
+      <c r="F1510" s="2"/>
+      <c r="G1510" s="2"/>
+      <c r="H1510" s="2"/>
+    </row>
+    <row r="1511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1511" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1511" s="1">
+        <v>8534</v>
+      </c>
+      <c r="C1511" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1511" s="2"/>
+      <c r="E1511" s="2"/>
+      <c r="F1511" s="2"/>
+      <c r="G1511" s="2"/>
+      <c r="H1511" s="2"/>
+    </row>
+    <row r="1512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1512" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1512" s="1">
+        <v>8535</v>
+      </c>
+      <c r="C1512" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1512" s="2"/>
+      <c r="E1512" s="2"/>
+      <c r="F1512" s="2"/>
+      <c r="G1512" s="2"/>
+      <c r="H1512" s="2"/>
+    </row>
+    <row r="1513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1513" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B1513" s="1">
+        <v>8536</v>
+      </c>
+      <c r="C1513" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1513" s="2"/>
+      <c r="E1513" s="2"/>
+      <c r="F1513" s="2"/>
+      <c r="G1513" s="2"/>
+      <c r="H1513" s="2"/>
+    </row>
+    <row r="1514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1514" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1514" s="1">
+        <v>8537</v>
+      </c>
+      <c r="C1514" s="2"/>
+      <c r="D1514" s="2"/>
+      <c r="E1514" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1514" s="2"/>
+      <c r="G1514" s="2"/>
+      <c r="H1514" s="2"/>
+    </row>
+    <row r="1515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1515" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1515" s="1">
+        <v>8538</v>
+      </c>
+      <c r="C1515" s="2"/>
+      <c r="D1515" s="2"/>
+      <c r="E1515" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1515" s="2"/>
+      <c r="G1515" s="2"/>
+      <c r="H1515" s="2"/>
+    </row>
+    <row r="1516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1516" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1516" s="1">
+        <v>8539</v>
+      </c>
+      <c r="C1516" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1516" s="2"/>
+      <c r="E1516" s="2"/>
+      <c r="F1516" s="2"/>
+      <c r="G1516" s="2"/>
+      <c r="H1516" s="2"/>
+    </row>
+    <row r="1517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1517" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1517" s="1">
+        <v>8540</v>
+      </c>
+      <c r="C1517" s="2"/>
+      <c r="D1517" s="2"/>
+      <c r="E1517" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1517" s="2"/>
+      <c r="G1517" s="2"/>
+      <c r="H1517" s="2"/>
+    </row>
+    <row r="1518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1518" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1518" s="1">
+        <v>8541</v>
+      </c>
+      <c r="C1518" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1518" s="2"/>
+      <c r="E1518" s="2"/>
+      <c r="F1518" s="2"/>
+      <c r="G1518" s="2"/>
+      <c r="H1518" s="2"/>
+    </row>
+    <row r="1519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1519" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1519" s="1">
+        <v>8542</v>
+      </c>
+      <c r="C1519" s="2"/>
+      <c r="D1519" s="2"/>
+      <c r="E1519" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1519" s="2"/>
+      <c r="G1519" s="2"/>
+      <c r="H1519" s="2"/>
+    </row>
+    <row r="1520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1520" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1520" s="1">
+        <v>8543</v>
+      </c>
+      <c r="C1520" s="2"/>
+      <c r="D1520" s="2"/>
+      <c r="E1520" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1520" s="2"/>
+      <c r="G1520" s="2"/>
+      <c r="H1520" s="2"/>
+    </row>
+    <row r="1521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1521" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1521" s="1">
+        <v>8544</v>
+      </c>
+      <c r="C1521" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1521" s="2"/>
+      <c r="E1521" s="2"/>
+      <c r="F1521" s="2"/>
+      <c r="G1521" s="2"/>
+      <c r="H1521" s="2"/>
+    </row>
+    <row r="1522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1522" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1522" s="1">
+        <v>8545</v>
+      </c>
+      <c r="C1522" s="2"/>
+      <c r="D1522" s="2"/>
+      <c r="E1522" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1522" s="2"/>
+      <c r="G1522" s="2"/>
+      <c r="H1522" s="2"/>
+    </row>
+    <row r="1523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1523" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1523" s="1">
+        <v>8546</v>
+      </c>
+      <c r="C1523" s="2"/>
+      <c r="D1523" s="2"/>
+      <c r="E1523" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1523" s="2"/>
+      <c r="G1523" s="2"/>
+      <c r="H1523" s="2"/>
+    </row>
+    <row r="1524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1524" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1524" s="1">
+        <v>7592</v>
+      </c>
+      <c r="C1524" s="2"/>
+      <c r="D1524" s="2"/>
+      <c r="E1524" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1524" s="2"/>
+      <c r="G1524" s="2"/>
+      <c r="H1524" s="2"/>
+    </row>
+    <row r="1525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1525" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1525" s="1">
+        <v>8547</v>
+      </c>
+      <c r="C1525" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1525" s="2"/>
+      <c r="E1525" s="2"/>
+      <c r="F1525" s="2"/>
+      <c r="G1525" s="2"/>
+      <c r="H1525" s="2"/>
+    </row>
+    <row r="1526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1526" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1526" s="1">
+        <v>8548</v>
+      </c>
+      <c r="C1526" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1526" s="2"/>
+      <c r="E1526" s="2"/>
+      <c r="F1526" s="2"/>
+      <c r="G1526" s="2"/>
+      <c r="H1526" s="2"/>
+    </row>
+    <row r="1527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1527" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1527" s="1">
+        <v>8549</v>
+      </c>
+      <c r="C1527" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1527" s="2"/>
+      <c r="E1527" s="2"/>
+      <c r="F1527" s="2"/>
+      <c r="G1527" s="2"/>
+      <c r="H1527" s="2"/>
+    </row>
+    <row r="1528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1528" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1528" s="1">
+        <v>8550</v>
+      </c>
+      <c r="C1528" s="2"/>
+      <c r="D1528" s="2"/>
+      <c r="E1528" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1528" s="2"/>
+      <c r="G1528" s="2"/>
+      <c r="H1528" s="2"/>
+    </row>
+    <row r="1529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1529" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1529" s="1">
+        <v>8451</v>
+      </c>
+      <c r="C1529" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1529" s="2"/>
+      <c r="E1529" s="2"/>
+      <c r="F1529" s="2"/>
+      <c r="G1529" s="2"/>
+      <c r="H1529" s="2"/>
+    </row>
+    <row r="1530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1530" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1530" s="1">
+        <v>8452</v>
+      </c>
+      <c r="C1530" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1530" s="2"/>
+      <c r="E1530" s="2"/>
+      <c r="F1530" s="2"/>
+      <c r="G1530" s="2"/>
+      <c r="H1530" s="2"/>
+    </row>
+    <row r="1531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1531" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1531" s="1">
+        <v>8453</v>
+      </c>
+      <c r="C1531" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1531" s="2"/>
+      <c r="E1531" s="2"/>
+      <c r="F1531" s="2"/>
+      <c r="G1531" s="2"/>
+      <c r="H1531" s="2"/>
+    </row>
+    <row r="1532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1532" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1532" s="1">
+        <v>8454</v>
+      </c>
+      <c r="C1532" s="2"/>
+      <c r="D1532" s="2"/>
+      <c r="E1532" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1532" s="2"/>
+      <c r="G1532" s="2"/>
+      <c r="H1532" s="2"/>
+    </row>
+    <row r="1533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1533" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1533" s="1">
+        <v>8455</v>
+      </c>
+      <c r="C1533" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1533" s="2"/>
+      <c r="E1533" s="2"/>
+      <c r="F1533" s="2"/>
+      <c r="G1533" s="2"/>
+      <c r="H1533" s="2"/>
+    </row>
+    <row r="1534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1534" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B1534" s="1">
+        <v>8456</v>
+      </c>
+      <c r="C1534" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1534" s="2"/>
+      <c r="E1534" s="2"/>
+      <c r="F1534" s="2"/>
+      <c r="G1534" s="2"/>
+      <c r="H1534" s="2"/>
+    </row>
+    <row r="1535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1535" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1535" s="1">
+        <v>8456</v>
+      </c>
+      <c r="C1535" s="2"/>
+      <c r="D1535" s="2"/>
+      <c r="E1535" s="2"/>
+      <c r="F1535" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1535" s="2"/>
+      <c r="H1535" s="2"/>
+    </row>
+    <row r="1536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1536" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1536" s="1">
+        <v>8457</v>
+      </c>
+      <c r="C1536" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1536" s="2"/>
+      <c r="E1536" s="2"/>
+      <c r="F1536" s="2"/>
+      <c r="G1536" s="2"/>
+      <c r="H1536" s="2"/>
+    </row>
+    <row r="1537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1537" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1537" s="1">
+        <v>8458</v>
+      </c>
+      <c r="C1537" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1537" s="2"/>
+      <c r="E1537" s="2"/>
+      <c r="F1537" s="2"/>
+      <c r="G1537" s="2"/>
+      <c r="H1537" s="2"/>
+    </row>
+    <row r="1538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1538" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1538" s="1">
+        <v>8459</v>
+      </c>
+      <c r="C1538" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1538" s="2"/>
+      <c r="E1538" s="2"/>
+      <c r="F1538" s="2"/>
+      <c r="G1538" s="2"/>
+      <c r="H1538" s="2"/>
+    </row>
+    <row r="1539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1539" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1539" s="1">
+        <v>8460</v>
+      </c>
+      <c r="C1539" s="2"/>
+      <c r="D1539" s="2"/>
+      <c r="E1539" s="2"/>
+      <c r="F1539" s="2">
+        <v>6</v>
+      </c>
+      <c r="G1539" s="2"/>
+      <c r="H1539" s="2"/>
+    </row>
+    <row r="1540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1540" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1540" s="1">
+        <v>7593</v>
+      </c>
+      <c r="C1540" s="2"/>
+      <c r="D1540" s="2"/>
+      <c r="E1540" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1540" s="2"/>
+      <c r="G1540" s="2"/>
+      <c r="H1540" s="2"/>
+    </row>
+    <row r="1541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1541" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1541" s="1">
+        <v>7594</v>
+      </c>
+      <c r="C1541" s="2"/>
+      <c r="D1541" s="2"/>
+      <c r="E1541" s="2"/>
+      <c r="F1541" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1541" s="2"/>
+      <c r="H1541" s="2"/>
+    </row>
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1542" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1542" s="1">
+        <v>7595</v>
+      </c>
+      <c r="C1542" s="2"/>
+      <c r="D1542" s="2"/>
+      <c r="E1542" s="2"/>
+      <c r="F1542" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1542" s="2"/>
+      <c r="H1542" s="2"/>
+    </row>
+    <row r="1543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1543" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1543" s="1">
+        <v>7957</v>
+      </c>
+      <c r="C1543" s="2"/>
+      <c r="D1543" s="2"/>
+      <c r="E1543" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1543" s="2"/>
+      <c r="G1543" s="2"/>
+      <c r="H1543" s="2"/>
+    </row>
+    <row r="1544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1544" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1544" s="1">
+        <v>7598</v>
+      </c>
+      <c r="C1544" s="2"/>
+      <c r="D1544" s="2"/>
+      <c r="E1544" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1544" s="2"/>
+      <c r="G1544" s="2"/>
+      <c r="H1544" s="2"/>
+    </row>
+    <row r="1545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1545" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1545" s="1">
+        <v>7599</v>
+      </c>
+      <c r="C1545" s="2"/>
+      <c r="D1545" s="2"/>
+      <c r="E1545" s="2"/>
+      <c r="F1545" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1545" s="2"/>
+      <c r="H1545" s="2"/>
+    </row>
+    <row r="1546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1546" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1546" s="1">
+        <v>7600</v>
+      </c>
+      <c r="C1546" s="2"/>
+      <c r="D1546" s="2"/>
+      <c r="E1546" s="2"/>
+      <c r="F1546" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1546" s="2"/>
+      <c r="H1546" s="2"/>
+    </row>
+    <row r="1547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1547" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1547" s="1"/>
+      <c r="C1547" s="2">
+        <v>40</v>
+      </c>
+      <c r="D1547" s="2"/>
+      <c r="E1547" s="2"/>
+      <c r="F1547" s="2"/>
+      <c r="G1547" s="2"/>
+      <c r="H1547" s="2"/>
+    </row>
+    <row r="1548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1548" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1548" s="1">
+        <v>8462</v>
+      </c>
+      <c r="C1548" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1548" s="2"/>
+      <c r="E1548" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1548" s="2"/>
+      <c r="G1548" s="2"/>
+      <c r="H1548" s="2"/>
+    </row>
+    <row r="1549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1549" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1549" s="1">
+        <v>8463</v>
+      </c>
+      <c r="C1549" s="2"/>
+      <c r="D1549" s="2"/>
+      <c r="E1549" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1549" s="2"/>
+      <c r="G1549" s="2"/>
+      <c r="H1549" s="2"/>
+    </row>
+    <row r="1550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1550" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1550" s="1">
+        <v>8464</v>
+      </c>
+      <c r="C1550" s="2"/>
+      <c r="D1550" s="2"/>
+      <c r="E1550" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1550" s="2"/>
+      <c r="G1550" s="2"/>
+      <c r="H1550" s="2"/>
+    </row>
+    <row r="1551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1551" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1551" s="1">
+        <v>8465</v>
+      </c>
+      <c r="C1551" s="2"/>
+      <c r="D1551" s="2"/>
+      <c r="E1551" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1551" s="2"/>
+      <c r="G1551" s="2"/>
+      <c r="H1551" s="2"/>
+    </row>
+    <row r="1552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1552" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1552" s="1">
+        <v>8466</v>
+      </c>
+      <c r="C1552" s="2"/>
+      <c r="D1552" s="2"/>
+      <c r="E1552" s="2"/>
+      <c r="F1552" s="2">
+        <v>6</v>
+      </c>
+      <c r="G1552" s="2"/>
+      <c r="H1552" s="2"/>
+    </row>
+    <row r="1553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1553" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1553" s="1">
+        <v>8467</v>
+      </c>
+      <c r="C1553" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1553" s="2"/>
+      <c r="E1553" s="2"/>
+      <c r="F1553" s="2"/>
+      <c r="G1553" s="2"/>
+      <c r="H1553" s="2"/>
+    </row>
+    <row r="1554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1554" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B1554" s="1">
+        <v>8469</v>
+      </c>
+      <c r="C1554" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1554" s="2"/>
+      <c r="E1554" s="2"/>
+      <c r="F1554" s="2"/>
+      <c r="G1554" s="2"/>
+      <c r="H1554" s="2"/>
+    </row>
+    <row r="1555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1555" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1555" s="1">
+        <v>8468</v>
+      </c>
+      <c r="C1555" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1555" s="2"/>
+      <c r="E1555" s="2"/>
+      <c r="F1555" s="2"/>
+      <c r="G1555" s="2"/>
+      <c r="H1555" s="2"/>
+    </row>
+    <row r="1556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1556" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1556" s="1">
+        <v>8470</v>
+      </c>
+      <c r="C1556" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1556" s="2"/>
+      <c r="E1556" s="2"/>
+      <c r="F1556" s="2"/>
+      <c r="G1556" s="2"/>
+      <c r="H1556" s="2"/>
+    </row>
+    <row r="1557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1557" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1557" s="1">
+        <v>8471</v>
+      </c>
+      <c r="C1557" s="2"/>
+      <c r="D1557" s="2"/>
+      <c r="E1557" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1557" s="2"/>
+      <c r="G1557" s="2"/>
+      <c r="H1557" s="2"/>
+    </row>
+    <row r="1558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1558" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1558" s="1">
+        <v>8472</v>
+      </c>
+      <c r="C1558" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1558" s="2"/>
+      <c r="E1558" s="2"/>
+      <c r="F1558" s="2"/>
+      <c r="G1558" s="2"/>
+      <c r="H1558" s="2"/>
+    </row>
+    <row r="1559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1559" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1559" s="1">
+        <v>8473</v>
+      </c>
+      <c r="C1559" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1559" s="2"/>
+      <c r="E1559" s="2"/>
+      <c r="F1559" s="2"/>
+      <c r="G1559" s="2"/>
+      <c r="H1559" s="2"/>
+    </row>
+    <row r="1560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1560" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1560" s="1">
+        <v>8474</v>
+      </c>
+      <c r="C1560" s="2"/>
+      <c r="D1560" s="2"/>
+      <c r="E1560" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1560" s="2"/>
+      <c r="G1560" s="2"/>
+      <c r="H1560" s="2"/>
+    </row>
+    <row r="1561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1561" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1561" s="1">
+        <v>8475</v>
+      </c>
+      <c r="C1561" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1561" s="2"/>
+      <c r="E1561" s="2"/>
+      <c r="F1561" s="2"/>
+      <c r="G1561" s="2"/>
+      <c r="H1561" s="2"/>
+    </row>
+    <row r="1562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1562" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1562" s="1">
+        <v>8476</v>
+      </c>
+      <c r="C1562" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1562" s="2"/>
+      <c r="E1562" s="2"/>
+      <c r="F1562" s="2"/>
+      <c r="G1562" s="2"/>
+      <c r="H1562" s="2"/>
+    </row>
+    <row r="1563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1563" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1563" s="1">
+        <v>8477</v>
+      </c>
+      <c r="C1563" s="2"/>
+      <c r="D1563" s="2"/>
+      <c r="E1563" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1563" s="2"/>
+      <c r="G1563" s="2"/>
+      <c r="H1563" s="2"/>
+    </row>
+    <row r="1564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1564" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1564" s="1">
+        <v>8478</v>
+      </c>
+      <c r="C1564" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1564" s="2"/>
+      <c r="E1564" s="2"/>
+      <c r="F1564" s="2"/>
+      <c r="G1564" s="2"/>
+      <c r="H1564" s="2"/>
+    </row>
+    <row r="1565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1565" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1565" s="1">
+        <v>8479</v>
+      </c>
+      <c r="C1565" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1565" s="2"/>
+      <c r="E1565" s="2"/>
+      <c r="F1565" s="2"/>
+      <c r="G1565" s="2"/>
+      <c r="H1565" s="2"/>
+    </row>
+    <row r="1566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1566" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1566" s="1">
+        <v>8480</v>
+      </c>
+      <c r="C1566" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D1566" s="2"/>
+      <c r="E1566" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1566" s="2"/>
+      <c r="G1566" s="2"/>
+      <c r="H1566" s="2"/>
+    </row>
+    <row r="1567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1567" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1567" s="1">
+        <v>8481</v>
+      </c>
+      <c r="C1567" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1567" s="2"/>
+      <c r="E1567" s="2"/>
+      <c r="F1567" s="2"/>
+      <c r="G1567" s="2"/>
+      <c r="H1567" s="2"/>
+    </row>
+    <row r="1568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1568" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1568" s="1">
+        <v>8482</v>
+      </c>
+      <c r="C1568" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1568" s="2"/>
+      <c r="E1568" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F1568" s="2"/>
+      <c r="G1568" s="2"/>
+      <c r="H1568" s="2"/>
+    </row>
+    <row r="1569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1569" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1569" s="1">
+        <v>8483</v>
+      </c>
+      <c r="C1569" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1569" s="2"/>
+      <c r="E1569" s="2"/>
+      <c r="F1569" s="2"/>
+      <c r="G1569" s="2"/>
+      <c r="H1569" s="2"/>
+    </row>
+    <row r="1570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1570" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1570" s="1">
+        <v>8484</v>
+      </c>
+      <c r="C1570" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1570" s="2"/>
+      <c r="E1570" s="2"/>
+      <c r="F1570" s="2"/>
+      <c r="G1570" s="2"/>
+      <c r="H1570" s="2"/>
+    </row>
+    <row r="1571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1571" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B1571" s="1">
+        <v>8485</v>
+      </c>
+      <c r="C1571" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1571" s="2"/>
+      <c r="E1571" s="2"/>
+      <c r="F1571" s="2"/>
+      <c r="G1571" s="2"/>
+      <c r="H1571" s="2"/>
+    </row>
+    <row r="1572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1572" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1572" s="1">
+        <v>8486</v>
+      </c>
+      <c r="C1572" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1572" s="2"/>
+      <c r="E1572" s="2"/>
+      <c r="F1572" s="2"/>
+      <c r="G1572" s="2"/>
+      <c r="H1572" s="2"/>
+    </row>
+    <row r="1573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1573" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1573" s="1">
+        <v>8487</v>
+      </c>
+      <c r="C1573" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1573" s="2"/>
+      <c r="E1573" s="2"/>
+      <c r="F1573" s="2"/>
+      <c r="G1573" s="2"/>
+      <c r="H1573" s="2"/>
+    </row>
+    <row r="1574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1574" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1574" s="1">
+        <v>8488</v>
+      </c>
+      <c r="C1574" s="2"/>
+      <c r="D1574" s="2"/>
+      <c r="E1574" s="2"/>
+      <c r="F1574" s="2">
+        <v>20</v>
+      </c>
+      <c r="G1574" s="2"/>
+      <c r="H1574" s="2"/>
+    </row>
+    <row r="1575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1575" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1575" s="1">
+        <v>8489</v>
+      </c>
+      <c r="C1575" s="2"/>
+      <c r="D1575" s="2"/>
+      <c r="E1575" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1575" s="2"/>
+      <c r="G1575" s="2"/>
+      <c r="H1575" s="2"/>
+    </row>
+    <row r="1576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1576" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1576" s="1">
+        <v>8490</v>
+      </c>
+      <c r="C1576" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1576" s="2"/>
+      <c r="E1576" s="2"/>
+      <c r="F1576" s="2"/>
+      <c r="G1576" s="2"/>
+      <c r="H1576" s="2"/>
+    </row>
+    <row r="1577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1577" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1577" s="1">
+        <v>8491</v>
+      </c>
+      <c r="C1577" s="2"/>
+      <c r="D1577" s="2"/>
+      <c r="E1577" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1577" s="2"/>
+      <c r="G1577" s="2"/>
+      <c r="H1577" s="2"/>
+    </row>
+    <row r="1578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1578" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1578" s="1">
+        <v>8492</v>
+      </c>
+      <c r="C1578" s="2"/>
+      <c r="D1578" s="2"/>
+      <c r="E1578" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1578" s="2"/>
+      <c r="G1578" s="2"/>
+      <c r="H1578" s="2"/>
+    </row>
+    <row r="1579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1579" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1579" s="1">
+        <v>8493</v>
+      </c>
+      <c r="C1579" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1579" s="2"/>
+      <c r="E1579" s="2"/>
+      <c r="F1579" s="2"/>
+      <c r="G1579" s="2"/>
+      <c r="H1579" s="2"/>
+    </row>
+    <row r="1580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1580" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1580" s="1">
+        <v>8494</v>
+      </c>
+      <c r="C1580" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1580" s="2"/>
+      <c r="E1580" s="2"/>
+      <c r="F1580" s="2"/>
+      <c r="G1580" s="2"/>
+      <c r="H1580" s="2"/>
+    </row>
+    <row r="1581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1581" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1581" s="1">
+        <v>8495</v>
+      </c>
+      <c r="C1581" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1581" s="2"/>
+      <c r="E1581" s="2"/>
+      <c r="F1581" s="2"/>
+      <c r="G1581" s="2"/>
+      <c r="H1581" s="2"/>
+    </row>
+    <row r="1582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1582" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1582" s="1">
+        <v>8496</v>
+      </c>
+      <c r="C1582" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1582" s="2"/>
+      <c r="E1582" s="2"/>
+      <c r="F1582" s="2"/>
+      <c r="G1582" s="2"/>
+      <c r="H1582" s="2"/>
+    </row>
+    <row r="1583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1583" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B1583" s="1">
+        <v>8497</v>
+      </c>
+      <c r="C1583" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1583" s="2"/>
+      <c r="E1583" s="2"/>
+      <c r="F1583" s="2"/>
+      <c r="G1583" s="2"/>
+      <c r="H1583" s="2"/>
+    </row>
+    <row r="1584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1584" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1584" s="1">
+        <v>8498</v>
+      </c>
+      <c r="C1584" s="2"/>
+      <c r="D1584" s="2"/>
+      <c r="E1584" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1584" s="2"/>
+      <c r="G1584" s="2"/>
+      <c r="H1584" s="2"/>
+    </row>
+    <row r="1585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1585" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1585" s="1">
+        <v>8499</v>
+      </c>
+      <c r="C1585" s="2"/>
+      <c r="D1585" s="2"/>
+      <c r="E1585" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1585" s="2"/>
+      <c r="G1585" s="2"/>
+      <c r="H1585" s="2"/>
+    </row>
+    <row r="1586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1586" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1586" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C1586" s="2"/>
+      <c r="D1586" s="2"/>
+      <c r="E1586" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1586" s="2"/>
+      <c r="G1586" s="2"/>
+      <c r="H1586" s="2"/>
+    </row>
+    <row r="1587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1587" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1587" s="1">
+        <v>8401</v>
+      </c>
+      <c r="C1587" s="2"/>
+      <c r="D1587" s="2"/>
+      <c r="E1587" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1587" s="2"/>
+      <c r="G1587" s="2"/>
+      <c r="H1587" s="2"/>
+    </row>
+    <row r="1588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1588" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1588" s="1">
+        <v>8402</v>
+      </c>
+      <c r="C1588" s="2"/>
+      <c r="D1588" s="2"/>
+      <c r="E1588" s="2"/>
+      <c r="F1588" s="2">
+        <v>6</v>
+      </c>
+      <c r="G1588" s="2"/>
+      <c r="H1588" s="2"/>
+    </row>
+    <row r="1589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1589" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1589" s="1">
+        <v>8403</v>
+      </c>
+      <c r="C1589" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1589" s="2"/>
+      <c r="E1589" s="2"/>
+      <c r="F1589" s="2"/>
+      <c r="G1589" s="2"/>
+      <c r="H1589" s="2"/>
+    </row>
+    <row r="1590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1590" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1590" s="1">
+        <v>8404</v>
+      </c>
+      <c r="C1590" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1590" s="2"/>
+      <c r="E1590" s="2"/>
+      <c r="F1590" s="2"/>
+      <c r="G1590" s="2"/>
+      <c r="H1590" s="2"/>
+    </row>
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1591" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1591" s="1">
+        <v>8405</v>
+      </c>
+      <c r="C1591" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1591" s="2"/>
+      <c r="E1591" s="2"/>
+      <c r="F1591" s="2"/>
+      <c r="G1591" s="2"/>
+      <c r="H1591" s="2"/>
+    </row>
+    <row r="1592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1592" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1592" s="1">
+        <v>8406</v>
+      </c>
+      <c r="C1592" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1592" s="2"/>
+      <c r="E1592" s="2"/>
+      <c r="F1592" s="2"/>
+      <c r="G1592" s="2"/>
+      <c r="H1592" s="2"/>
+    </row>
+    <row r="1593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1593" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1593" s="1">
+        <v>8407</v>
+      </c>
+      <c r="C1593" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1593" s="2"/>
+      <c r="E1593" s="2"/>
+      <c r="F1593" s="2"/>
+      <c r="G1593" s="2"/>
+      <c r="H1593" s="2"/>
+    </row>
+    <row r="1594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1594" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1594" s="1">
+        <v>8201</v>
+      </c>
+      <c r="C1594" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1594" s="2"/>
+      <c r="E1594" s="2"/>
+      <c r="F1594" s="2"/>
+      <c r="G1594" s="2"/>
+      <c r="H1594" s="2"/>
+    </row>
+    <row r="1595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1595" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1595" s="1">
+        <v>8202</v>
+      </c>
+      <c r="C1595" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1595" s="2"/>
+      <c r="E1595" s="2"/>
+      <c r="F1595" s="2"/>
+      <c r="G1595" s="2"/>
+      <c r="H1595" s="2"/>
+    </row>
+    <row r="1596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1596" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1596" s="1">
+        <v>8203</v>
+      </c>
+      <c r="C1596" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1596" s="2"/>
+      <c r="E1596" s="2"/>
+      <c r="F1596" s="2"/>
+      <c r="G1596" s="2"/>
+      <c r="H1596" s="2"/>
+    </row>
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1597" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1597" s="1">
+        <v>8204</v>
+      </c>
+      <c r="C1597" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1597" s="2"/>
+      <c r="E1597" s="2"/>
+      <c r="F1597" s="2"/>
+      <c r="G1597" s="2"/>
+      <c r="H1597" s="2"/>
+    </row>
+    <row r="1598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1598" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1598" s="1">
+        <v>8205</v>
+      </c>
+      <c r="C1598" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1598" s="2"/>
+      <c r="E1598" s="2"/>
+      <c r="F1598" s="2"/>
+      <c r="G1598" s="2"/>
+      <c r="H1598" s="2"/>
+    </row>
+    <row r="1599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1599" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B1599" s="1">
+        <v>8206</v>
+      </c>
+      <c r="C1599" s="2"/>
+      <c r="D1599" s="2"/>
+      <c r="E1599" s="2"/>
+      <c r="F1599" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1599" s="2"/>
+      <c r="H1599" s="2"/>
+    </row>
+    <row r="1600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1600" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1600" s="1">
+        <v>8207</v>
+      </c>
+      <c r="C1600" s="2"/>
+      <c r="D1600" s="2"/>
+      <c r="E1600" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1600" s="2"/>
+      <c r="G1600" s="2"/>
+      <c r="H1600" s="2"/>
+    </row>
+    <row r="1601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1601" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1601" s="1">
+        <v>8208</v>
+      </c>
+      <c r="C1601" s="2"/>
+      <c r="D1601" s="2"/>
+      <c r="E1601" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1601" s="2"/>
+      <c r="G1601" s="2"/>
+      <c r="H1601" s="2"/>
+    </row>
+    <row r="1602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1602" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1602" s="1">
+        <v>8209</v>
+      </c>
+      <c r="C1602" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1602" s="2"/>
+      <c r="E1602" s="2"/>
+      <c r="F1602" s="2"/>
+      <c r="G1602" s="2"/>
+      <c r="H1602" s="2"/>
+    </row>
+    <row r="1603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1603" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1603" s="1">
+        <v>8210</v>
+      </c>
+      <c r="C1603" s="2"/>
+      <c r="D1603" s="2"/>
+      <c r="E1603" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1603" s="2"/>
+      <c r="G1603" s="2"/>
+      <c r="H1603" s="2"/>
+    </row>
+    <row r="1604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1604" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1604" s="1">
+        <v>8211</v>
+      </c>
+      <c r="C1604" s="2"/>
+      <c r="D1604" s="2"/>
+      <c r="E1604" s="2"/>
+      <c r="F1604" s="2">
+        <v>60</v>
+      </c>
+      <c r="G1604" s="2"/>
+      <c r="H1604" s="2"/>
+    </row>
+    <row r="1605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1605" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1605" s="1">
+        <v>8212</v>
+      </c>
+      <c r="C1605" s="2"/>
+      <c r="D1605" s="2"/>
+      <c r="E1605" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F1605" s="2"/>
+      <c r="G1605" s="2"/>
+      <c r="H1605" s="2"/>
+    </row>
+    <row r="1606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1606" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1606" s="1">
+        <v>8213</v>
+      </c>
+      <c r="C1606" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D1606" s="2"/>
+      <c r="E1606" s="2"/>
+      <c r="F1606" s="2"/>
+      <c r="G1606" s="2"/>
+      <c r="H1606" s="2"/>
+    </row>
+    <row r="1607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1607" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1607" s="1">
+        <v>8214</v>
+      </c>
+      <c r="C1607" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1607" s="2"/>
+      <c r="E1607" s="2"/>
+      <c r="F1607" s="2"/>
+      <c r="G1607" s="2"/>
+      <c r="H1607" s="2"/>
+    </row>
+    <row r="1608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1608" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1608" s="1">
+        <v>8215</v>
+      </c>
+      <c r="C1608" s="2"/>
+      <c r="D1608" s="2"/>
+      <c r="E1608" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1608" s="2"/>
+      <c r="G1608" s="2"/>
+      <c r="H1608" s="2"/>
+    </row>
+    <row r="1609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1609" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1609" s="1">
+        <v>8216</v>
+      </c>
+      <c r="C1609" s="2"/>
+      <c r="D1609" s="2"/>
+      <c r="E1609" s="2"/>
+      <c r="F1609" s="2"/>
+      <c r="G1609" s="2"/>
+      <c r="H1609" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1610" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1610" s="1">
+        <v>8217</v>
+      </c>
+      <c r="C1610" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D1610" s="2"/>
+      <c r="E1610" s="2"/>
+      <c r="F1610" s="2"/>
+      <c r="G1610" s="2"/>
+      <c r="H1610" s="2"/>
+    </row>
+    <row r="1611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1611" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1611" s="1">
+        <v>8218</v>
+      </c>
+      <c r="C1611" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1611" s="2"/>
+      <c r="E1611" s="2"/>
+      <c r="F1611" s="2"/>
+      <c r="G1611" s="2"/>
+      <c r="H1611" s="2"/>
+    </row>
+    <row r="1612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1612" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B1612" s="1">
+        <v>8219</v>
+      </c>
+      <c r="C1612" s="2"/>
+      <c r="D1612" s="2"/>
+      <c r="E1612" s="2"/>
+      <c r="F1612" s="2"/>
+      <c r="G1612" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1612" s="2"/>
+    </row>
+    <row r="1613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1613" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B1613" s="1">
+        <v>8220</v>
+      </c>
+      <c r="C1613" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1613" s="2"/>
+      <c r="E1613" s="2"/>
+      <c r="F1613" s="2"/>
+      <c r="G1613" s="2"/>
+      <c r="H1613" s="2"/>
+    </row>
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1614" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B1614" s="1">
+        <v>8221</v>
+      </c>
+      <c r="C1614" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1614" s="2"/>
+      <c r="E1614" s="2"/>
+      <c r="F1614" s="2"/>
+      <c r="G1614" s="2"/>
+      <c r="H1614" s="2"/>
+    </row>
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1615" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B1615" s="1">
+        <v>8222</v>
+      </c>
+      <c r="C1615" s="2"/>
+      <c r="D1615" s="2"/>
+      <c r="E1615" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1615" s="2"/>
+      <c r="G1615" s="2"/>
+      <c r="H1615" s="2"/>
+    </row>
+    <row r="1616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1616" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B1616" s="1">
+        <v>8223</v>
+      </c>
+      <c r="C1616" s="2"/>
+      <c r="D1616" s="2"/>
+      <c r="E1616" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1616" s="2"/>
+      <c r="G1616" s="2"/>
+      <c r="H1616" s="2"/>
+    </row>
+    <row r="1617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1617" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B1617" s="1">
+        <v>8224</v>
+      </c>
+      <c r="C1617" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1617" s="2"/>
+      <c r="E1617" s="2"/>
+      <c r="F1617" s="2"/>
+      <c r="G1617" s="2"/>
+      <c r="H1617" s="2"/>
+    </row>
+    <row r="1618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1618" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B1618" s="1">
+        <v>8225</v>
+      </c>
+      <c r="C1618" s="2"/>
+      <c r="D1618" s="2"/>
+      <c r="E1618" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1618" s="2"/>
+      <c r="G1618" s="2"/>
+      <c r="H1618" s="2"/>
+    </row>
+    <row r="1619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1619" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B1619" s="1">
+        <v>8226</v>
+      </c>
+      <c r="C1619" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1619" s="2"/>
+      <c r="E1619" s="2"/>
+      <c r="F1619" s="2"/>
+      <c r="G1619" s="2"/>
+      <c r="H1619" s="2"/>
+    </row>
+    <row r="1620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1620" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B1620" s="1">
+        <v>8227</v>
+      </c>
+      <c r="C1620" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1620" s="2"/>
+      <c r="E1620" s="2"/>
+      <c r="F1620" s="2"/>
+      <c r="G1620" s="2"/>
+      <c r="H1620" s="2"/>
+    </row>
+    <row r="1621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1621" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B1621" s="1">
+        <v>8228</v>
+      </c>
+      <c r="C1621" s="2"/>
+      <c r="D1621" s="2"/>
+      <c r="E1621" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1621" s="2"/>
+      <c r="G1621" s="2"/>
+      <c r="H1621" s="2"/>
+    </row>
+    <row r="1622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1622" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B1622" s="1">
+        <v>8229</v>
+      </c>
+      <c r="C1622" s="2"/>
+      <c r="D1622" s="2"/>
+      <c r="E1622" s="2"/>
+      <c r="F1622" s="2"/>
+      <c r="G1622" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1622" s="2"/>
+    </row>
+    <row r="1623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1623" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B1623" s="1">
+        <v>8230</v>
+      </c>
+      <c r="C1623" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1623" s="2"/>
+      <c r="E1623" s="2"/>
+      <c r="F1623" s="2"/>
+      <c r="G1623" s="2"/>
+      <c r="H1623" s="2"/>
+    </row>
+    <row r="1624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1624" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B1624" s="1">
+        <v>8231</v>
+      </c>
+      <c r="C1624" s="2"/>
+      <c r="D1624" s="2"/>
+      <c r="E1624" s="2"/>
+      <c r="F1624" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1624" s="2"/>
+      <c r="H1624" s="2"/>
+    </row>
+    <row r="1625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1625" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B1625" s="1">
+        <v>8232</v>
+      </c>
+      <c r="C1625" s="2"/>
+      <c r="D1625" s="2"/>
+      <c r="E1625" s="2"/>
+      <c r="F1625" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1625" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1625" s="2"/>
+    </row>
+    <row r="1626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1626" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B1626" s="1">
+        <v>8233</v>
+      </c>
+      <c r="C1626" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1626" s="2"/>
+      <c r="E1626" s="2"/>
+      <c r="F1626" s="2"/>
+      <c r="G1626" s="2"/>
+      <c r="H1626" s="2"/>
+    </row>
+    <row r="1627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1627" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B1627" s="1">
+        <v>8234</v>
+      </c>
+      <c r="C1627" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1627" s="2"/>
+      <c r="E1627" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F1627" s="2"/>
+      <c r="G1627" s="2"/>
+      <c r="H1627" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data_import.xlsx
+++ b/data/data_import.xlsx
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1627"/>
+  <dimension ref="A1:H1739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1605" workbookViewId="0">
-      <selection activeCell="A1621" sqref="A1621:A1627"/>
+    <sheetView tabSelected="1" topLeftCell="A1719" workbookViewId="0">
+      <selection activeCell="A1729" sqref="A1729:A1739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26542,6 +26542,1804 @@
       <c r="F1627" s="2"/>
       <c r="G1627" s="2"/>
       <c r="H1627" s="2"/>
+    </row>
+    <row r="1628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1628" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1628" s="1">
+        <v>8235</v>
+      </c>
+      <c r="C1628" s="2"/>
+      <c r="D1628" s="2"/>
+      <c r="E1628" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1628" s="2"/>
+      <c r="G1628" s="2"/>
+      <c r="H1628" s="2"/>
+    </row>
+    <row r="1629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1629" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1629" s="1">
+        <v>8236</v>
+      </c>
+      <c r="C1629" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1629" s="2"/>
+      <c r="E1629" s="2"/>
+      <c r="F1629" s="2"/>
+      <c r="G1629" s="2"/>
+      <c r="H1629" s="2"/>
+    </row>
+    <row r="1630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1630" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1630" s="1">
+        <v>8237</v>
+      </c>
+      <c r="C1630" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1630" s="2"/>
+      <c r="E1630" s="2"/>
+      <c r="F1630" s="2"/>
+      <c r="G1630" s="2"/>
+      <c r="H1630" s="2"/>
+    </row>
+    <row r="1631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1631" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1631" s="1">
+        <v>8239</v>
+      </c>
+      <c r="C1631" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1631" s="2"/>
+      <c r="E1631" s="2"/>
+      <c r="F1631" s="2"/>
+      <c r="G1631" s="2"/>
+      <c r="H1631" s="2"/>
+    </row>
+    <row r="1632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1632" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1632" s="1">
+        <v>8240</v>
+      </c>
+      <c r="C1632" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D1632" s="2"/>
+      <c r="E1632" s="2"/>
+      <c r="F1632" s="2"/>
+      <c r="G1632" s="2"/>
+      <c r="H1632" s="2"/>
+    </row>
+    <row r="1633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1633" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1633" s="1">
+        <v>8241</v>
+      </c>
+      <c r="C1633" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D1633" s="2"/>
+      <c r="E1633" s="2"/>
+      <c r="F1633" s="2"/>
+      <c r="G1633" s="2"/>
+      <c r="H1633" s="2"/>
+    </row>
+    <row r="1634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1634" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1634" s="1">
+        <v>8242</v>
+      </c>
+      <c r="C1634" s="2"/>
+      <c r="D1634" s="2"/>
+      <c r="E1634" s="2">
+        <v>16</v>
+      </c>
+      <c r="F1634" s="2"/>
+      <c r="G1634" s="2"/>
+      <c r="H1634" s="2"/>
+    </row>
+    <row r="1635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1635" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1635" s="1">
+        <v>8243</v>
+      </c>
+      <c r="C1635" s="2"/>
+      <c r="D1635" s="2"/>
+      <c r="E1635" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1635" s="2"/>
+      <c r="G1635" s="2"/>
+      <c r="H1635" s="2"/>
+    </row>
+    <row r="1636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1636" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1636" s="1">
+        <v>8244</v>
+      </c>
+      <c r="C1636" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1636" s="2"/>
+      <c r="E1636" s="2"/>
+      <c r="F1636" s="2"/>
+      <c r="G1636" s="2"/>
+      <c r="H1636" s="2"/>
+    </row>
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1637" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1637" s="1">
+        <v>8245</v>
+      </c>
+      <c r="C1637" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1637" s="2"/>
+      <c r="E1637" s="2"/>
+      <c r="F1637" s="2"/>
+      <c r="G1637" s="2"/>
+      <c r="H1637" s="2"/>
+    </row>
+    <row r="1638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1638" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1638" s="1">
+        <v>8246</v>
+      </c>
+      <c r="C1638" s="2"/>
+      <c r="D1638" s="2"/>
+      <c r="E1638" s="2"/>
+      <c r="F1638" s="2"/>
+      <c r="G1638" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H1638" s="2"/>
+    </row>
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1639" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1639" s="1">
+        <v>8247</v>
+      </c>
+      <c r="C1639" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1639" s="2"/>
+      <c r="E1639" s="2"/>
+      <c r="F1639" s="2"/>
+      <c r="G1639" s="2"/>
+      <c r="H1639" s="2"/>
+    </row>
+    <row r="1640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1640" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1640" s="1">
+        <v>8248</v>
+      </c>
+      <c r="C1640" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1640" s="2"/>
+      <c r="E1640" s="2"/>
+      <c r="F1640" s="2"/>
+      <c r="G1640" s="2"/>
+      <c r="H1640" s="2"/>
+    </row>
+    <row r="1641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1641" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1641" s="1">
+        <v>8408</v>
+      </c>
+      <c r="C1641" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1641" s="2"/>
+      <c r="E1641" s="2"/>
+      <c r="F1641" s="2"/>
+      <c r="G1641" s="2"/>
+      <c r="H1641" s="2"/>
+    </row>
+    <row r="1642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1642" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1642" s="1">
+        <v>8409</v>
+      </c>
+      <c r="C1642" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1642" s="2"/>
+      <c r="E1642" s="2"/>
+      <c r="F1642" s="2"/>
+      <c r="G1642" s="2"/>
+      <c r="H1642" s="2"/>
+    </row>
+    <row r="1643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1643" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1643" s="1">
+        <v>8410</v>
+      </c>
+      <c r="C1643" s="2"/>
+      <c r="D1643" s="2"/>
+      <c r="E1643" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1643" s="2"/>
+      <c r="G1643" s="2"/>
+      <c r="H1643" s="2"/>
+    </row>
+    <row r="1644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1644" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1644" s="1">
+        <v>8249</v>
+      </c>
+      <c r="C1644" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1644" s="2"/>
+      <c r="E1644" s="2"/>
+      <c r="F1644" s="2"/>
+      <c r="G1644" s="2"/>
+      <c r="H1644" s="2"/>
+    </row>
+    <row r="1645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1645" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1645" s="1">
+        <v>8250</v>
+      </c>
+      <c r="C1645" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1645" s="2"/>
+      <c r="E1645" s="2"/>
+      <c r="F1645" s="2"/>
+      <c r="G1645" s="2"/>
+      <c r="H1645" s="2"/>
+    </row>
+    <row r="1646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1646" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1646" s="1">
+        <v>8411</v>
+      </c>
+      <c r="C1646" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1646" s="2"/>
+      <c r="E1646" s="2"/>
+      <c r="F1646" s="2"/>
+      <c r="G1646" s="2"/>
+      <c r="H1646" s="2"/>
+    </row>
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1647" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1647" s="1">
+        <v>8412</v>
+      </c>
+      <c r="C1647" s="2"/>
+      <c r="D1647" s="2"/>
+      <c r="E1647" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1647" s="2"/>
+      <c r="G1647" s="2"/>
+      <c r="H1647" s="2"/>
+    </row>
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1648" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1648" s="1">
+        <v>8413</v>
+      </c>
+      <c r="C1648" s="2"/>
+      <c r="D1648" s="2"/>
+      <c r="E1648" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1648" s="2"/>
+      <c r="G1648" s="2"/>
+      <c r="H1648" s="2"/>
+    </row>
+    <row r="1649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1649" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B1649" s="1">
+        <v>8414</v>
+      </c>
+      <c r="C1649" s="2"/>
+      <c r="D1649" s="2"/>
+      <c r="E1649" s="2">
+        <v>64</v>
+      </c>
+      <c r="F1649" s="2"/>
+      <c r="G1649" s="2"/>
+      <c r="H1649" s="2"/>
+    </row>
+    <row r="1650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1650" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1650" s="1">
+        <v>8415</v>
+      </c>
+      <c r="C1650" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D1650" s="2"/>
+      <c r="E1650" s="2"/>
+      <c r="F1650" s="2"/>
+      <c r="G1650" s="2"/>
+      <c r="H1650" s="2"/>
+    </row>
+    <row r="1651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1651" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1651" s="1">
+        <v>8416</v>
+      </c>
+      <c r="C1651" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1651" s="2"/>
+      <c r="E1651" s="2"/>
+      <c r="F1651" s="2"/>
+      <c r="G1651" s="2"/>
+      <c r="H1651" s="2"/>
+    </row>
+    <row r="1652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1652" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1652" s="1">
+        <v>8417</v>
+      </c>
+      <c r="C1652" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1652" s="2"/>
+      <c r="E1652" s="2"/>
+      <c r="F1652" s="2"/>
+      <c r="G1652" s="2"/>
+      <c r="H1652" s="2"/>
+    </row>
+    <row r="1653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1653" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1653" s="1">
+        <v>8418</v>
+      </c>
+      <c r="C1653" s="2"/>
+      <c r="D1653" s="2"/>
+      <c r="E1653" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1653" s="2"/>
+      <c r="G1653" s="2"/>
+      <c r="H1653" s="2"/>
+    </row>
+    <row r="1654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1654" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1654" s="1">
+        <v>8419</v>
+      </c>
+      <c r="C1654" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1654" s="2"/>
+      <c r="E1654" s="2"/>
+      <c r="F1654" s="2"/>
+      <c r="G1654" s="2"/>
+      <c r="H1654" s="2"/>
+    </row>
+    <row r="1655" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1655" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1655" s="1">
+        <v>8420</v>
+      </c>
+      <c r="C1655" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1655" s="2"/>
+      <c r="E1655" s="2"/>
+      <c r="F1655" s="2"/>
+      <c r="G1655" s="2"/>
+      <c r="H1655" s="2"/>
+    </row>
+    <row r="1656" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1656" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1656" s="1">
+        <v>8421</v>
+      </c>
+      <c r="C1656" s="2">
+        <v>24</v>
+      </c>
+      <c r="D1656" s="2"/>
+      <c r="E1656" s="2"/>
+      <c r="F1656" s="2"/>
+      <c r="G1656" s="2"/>
+      <c r="H1656" s="2"/>
+    </row>
+    <row r="1657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1657" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1657" s="1">
+        <v>8422</v>
+      </c>
+      <c r="C1657" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1657" s="2"/>
+      <c r="E1657" s="2"/>
+      <c r="F1657" s="2"/>
+      <c r="G1657" s="2"/>
+      <c r="H1657" s="2"/>
+    </row>
+    <row r="1658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1658" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1658" s="1">
+        <v>8423</v>
+      </c>
+      <c r="C1658" s="2"/>
+      <c r="D1658" s="2"/>
+      <c r="E1658" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1658" s="2"/>
+      <c r="G1658" s="2"/>
+      <c r="H1658" s="2"/>
+    </row>
+    <row r="1659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1659" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1659" s="1">
+        <v>8424</v>
+      </c>
+      <c r="C1659" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1659" s="2"/>
+      <c r="E1659" s="2"/>
+      <c r="F1659" s="2"/>
+      <c r="G1659" s="2"/>
+      <c r="H1659" s="2"/>
+    </row>
+    <row r="1660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1660" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1660" s="1">
+        <v>8425</v>
+      </c>
+      <c r="C1660" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1660" s="2"/>
+      <c r="E1660" s="2"/>
+      <c r="F1660" s="2"/>
+      <c r="G1660" s="2"/>
+      <c r="H1660" s="2"/>
+    </row>
+    <row r="1661" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1661" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B1661" s="1">
+        <v>8426</v>
+      </c>
+      <c r="C1661" s="2"/>
+      <c r="D1661" s="2"/>
+      <c r="E1661" s="2"/>
+      <c r="F1661" s="2"/>
+      <c r="G1661" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1661" s="2"/>
+    </row>
+    <row r="1662" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1662" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B1662" s="1">
+        <v>8427</v>
+      </c>
+      <c r="C1662" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1662" s="2"/>
+      <c r="E1662" s="2"/>
+      <c r="F1662" s="2"/>
+      <c r="G1662" s="2"/>
+      <c r="H1662" s="2"/>
+    </row>
+    <row r="1663" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1663" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B1663" s="1">
+        <v>8428</v>
+      </c>
+      <c r="C1663" s="2"/>
+      <c r="D1663" s="2"/>
+      <c r="E1663" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1663" s="2"/>
+      <c r="G1663" s="2"/>
+      <c r="H1663" s="2"/>
+    </row>
+    <row r="1664" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1664" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B1664" s="1">
+        <v>8429</v>
+      </c>
+      <c r="C1664" s="2"/>
+      <c r="D1664" s="2"/>
+      <c r="E1664" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1664" s="2"/>
+      <c r="G1664" s="2"/>
+      <c r="H1664" s="2"/>
+    </row>
+    <row r="1665" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1665" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B1665" s="1">
+        <v>8430</v>
+      </c>
+      <c r="C1665" s="2"/>
+      <c r="D1665" s="2"/>
+      <c r="E1665" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1665" s="2"/>
+      <c r="G1665" s="2"/>
+      <c r="H1665" s="2"/>
+    </row>
+    <row r="1666" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1666" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B1666" s="1">
+        <v>8431</v>
+      </c>
+      <c r="C1666" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1666" s="2"/>
+      <c r="E1666" s="2"/>
+      <c r="F1666" s="2"/>
+      <c r="G1666" s="2"/>
+      <c r="H1666" s="2"/>
+    </row>
+    <row r="1667" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1667" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B1667" s="1">
+        <v>8432</v>
+      </c>
+      <c r="C1667" s="2"/>
+      <c r="D1667" s="2"/>
+      <c r="E1667" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1667" s="2"/>
+      <c r="G1667" s="2"/>
+      <c r="H1667" s="2"/>
+    </row>
+    <row r="1668" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1668" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B1668" s="1">
+        <v>8433</v>
+      </c>
+      <c r="C1668" s="2"/>
+      <c r="D1668" s="2"/>
+      <c r="E1668" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1668" s="2"/>
+      <c r="G1668" s="2"/>
+      <c r="H1668" s="2"/>
+    </row>
+    <row r="1669" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1669" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B1669" s="1">
+        <v>8434</v>
+      </c>
+      <c r="C1669" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1669" s="2"/>
+      <c r="E1669" s="2"/>
+      <c r="F1669" s="2"/>
+      <c r="G1669" s="2"/>
+      <c r="H1669" s="2"/>
+    </row>
+    <row r="1670" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1670" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B1670" s="1">
+        <v>8435</v>
+      </c>
+      <c r="C1670" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1670" s="2"/>
+      <c r="E1670" s="2"/>
+      <c r="F1670" s="2"/>
+      <c r="G1670" s="2"/>
+      <c r="H1670" s="2"/>
+    </row>
+    <row r="1671" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1671" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1671" s="1">
+        <v>8436</v>
+      </c>
+      <c r="C1671" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1671" s="2"/>
+      <c r="E1671" s="2"/>
+      <c r="F1671" s="2"/>
+      <c r="G1671" s="2"/>
+      <c r="H1671" s="2"/>
+    </row>
+    <row r="1672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1672" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1672" s="1">
+        <v>8437</v>
+      </c>
+      <c r="C1672" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1672" s="2"/>
+      <c r="E1672" s="2"/>
+      <c r="F1672" s="2"/>
+      <c r="G1672" s="2"/>
+      <c r="H1672" s="2"/>
+    </row>
+    <row r="1673" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1673" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1673" s="1">
+        <v>8438</v>
+      </c>
+      <c r="C1673" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1673" s="2"/>
+      <c r="E1673" s="2"/>
+      <c r="F1673" s="2"/>
+      <c r="G1673" s="2"/>
+      <c r="H1673" s="2"/>
+    </row>
+    <row r="1674" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1674" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1674" s="1">
+        <v>8439</v>
+      </c>
+      <c r="C1674" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1674" s="2"/>
+      <c r="E1674" s="2"/>
+      <c r="F1674" s="2"/>
+      <c r="G1674" s="2"/>
+      <c r="H1674" s="2"/>
+    </row>
+    <row r="1675" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1675" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1675" s="1">
+        <v>8440</v>
+      </c>
+      <c r="C1675" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D1675" s="2"/>
+      <c r="E1675" s="2"/>
+      <c r="F1675" s="2"/>
+      <c r="G1675" s="2"/>
+      <c r="H1675" s="2"/>
+    </row>
+    <row r="1676" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1676" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1676" s="1">
+        <v>8441</v>
+      </c>
+      <c r="C1676" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1676" s="2"/>
+      <c r="E1676" s="2"/>
+      <c r="F1676" s="2"/>
+      <c r="G1676" s="2"/>
+      <c r="H1676" s="2"/>
+    </row>
+    <row r="1677" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1677" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1677" s="1">
+        <v>8442</v>
+      </c>
+      <c r="C1677" s="2"/>
+      <c r="D1677" s="2"/>
+      <c r="E1677" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1677" s="2"/>
+      <c r="G1677" s="2"/>
+      <c r="H1677" s="2"/>
+    </row>
+    <row r="1678" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1678" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1678" s="1">
+        <v>8443</v>
+      </c>
+      <c r="C1678" s="2"/>
+      <c r="D1678" s="2"/>
+      <c r="E1678" s="2"/>
+      <c r="F1678" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G1678" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1678" s="2"/>
+    </row>
+    <row r="1679" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1679" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1679" s="1">
+        <v>8444</v>
+      </c>
+      <c r="C1679" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1679" s="2"/>
+      <c r="E1679" s="2"/>
+      <c r="F1679" s="2"/>
+      <c r="G1679" s="2"/>
+      <c r="H1679" s="2"/>
+    </row>
+    <row r="1680" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1680" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1680" s="1">
+        <v>8445</v>
+      </c>
+      <c r="C1680" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1680" s="2"/>
+      <c r="E1680" s="2"/>
+      <c r="F1680" s="2"/>
+      <c r="G1680" s="2"/>
+      <c r="H1680" s="2"/>
+    </row>
+    <row r="1681" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1681" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1681" s="1">
+        <v>8446</v>
+      </c>
+      <c r="C1681" s="2"/>
+      <c r="D1681" s="2"/>
+      <c r="E1681" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1681" s="2"/>
+      <c r="G1681" s="2"/>
+      <c r="H1681" s="2"/>
+    </row>
+    <row r="1682" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1682" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1682" s="1">
+        <v>8447</v>
+      </c>
+      <c r="C1682" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1682" s="2"/>
+      <c r="E1682" s="2"/>
+      <c r="F1682" s="2"/>
+      <c r="G1682" s="2"/>
+      <c r="H1682" s="2"/>
+    </row>
+    <row r="1683" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1683" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1683" s="1">
+        <v>8448</v>
+      </c>
+      <c r="C1683" s="2"/>
+      <c r="D1683" s="2"/>
+      <c r="E1683" s="2"/>
+      <c r="F1683" s="2">
+        <v>7</v>
+      </c>
+      <c r="G1683" s="2"/>
+      <c r="H1683" s="2"/>
+    </row>
+    <row r="1684" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1684" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1684" s="1">
+        <v>8449</v>
+      </c>
+      <c r="C1684" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1684" s="2"/>
+      <c r="E1684" s="2"/>
+      <c r="F1684" s="2"/>
+      <c r="G1684" s="2"/>
+      <c r="H1684" s="2"/>
+    </row>
+    <row r="1685" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1685" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1685" s="1">
+        <v>8450</v>
+      </c>
+      <c r="C1685" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1685" s="2"/>
+      <c r="E1685" s="2"/>
+      <c r="F1685" s="2"/>
+      <c r="G1685" s="2"/>
+      <c r="H1685" s="2"/>
+    </row>
+    <row r="1686" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1686" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1686" s="1">
+        <v>3284</v>
+      </c>
+      <c r="C1686" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1686" s="2"/>
+      <c r="E1686" s="2"/>
+      <c r="F1686" s="2"/>
+      <c r="G1686" s="2"/>
+      <c r="H1686" s="2"/>
+    </row>
+    <row r="1687" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1687" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1687" s="1">
+        <v>3285</v>
+      </c>
+      <c r="C1687" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1687" s="2"/>
+      <c r="E1687" s="2"/>
+      <c r="F1687" s="2"/>
+      <c r="G1687" s="2"/>
+      <c r="H1687" s="2"/>
+    </row>
+    <row r="1688" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1688" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1688" s="1">
+        <v>3286</v>
+      </c>
+      <c r="C1688" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1688" s="2"/>
+      <c r="E1688" s="2"/>
+      <c r="F1688" s="2"/>
+      <c r="G1688" s="2"/>
+      <c r="H1688" s="2"/>
+    </row>
+    <row r="1689" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1689" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1689" s="1">
+        <v>3287</v>
+      </c>
+      <c r="C1689" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1689" s="2"/>
+      <c r="E1689" s="2"/>
+      <c r="F1689" s="2"/>
+      <c r="G1689" s="2"/>
+      <c r="H1689" s="2"/>
+    </row>
+    <row r="1690" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1690" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1690" s="1">
+        <v>3288</v>
+      </c>
+      <c r="C1690" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1690" s="2"/>
+      <c r="E1690" s="2"/>
+      <c r="F1690" s="2"/>
+      <c r="G1690" s="2"/>
+      <c r="H1690" s="2"/>
+    </row>
+    <row r="1691" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1691" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1691" s="1">
+        <v>3289</v>
+      </c>
+      <c r="C1691" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1691" s="2"/>
+      <c r="E1691" s="2"/>
+      <c r="F1691" s="2"/>
+      <c r="G1691" s="2"/>
+      <c r="H1691" s="2"/>
+    </row>
+    <row r="1692" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1692" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1692" s="1">
+        <v>3290</v>
+      </c>
+      <c r="C1692" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1692" s="2"/>
+      <c r="E1692" s="2"/>
+      <c r="F1692" s="2"/>
+      <c r="G1692" s="2"/>
+      <c r="H1692" s="2"/>
+    </row>
+    <row r="1693" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1693" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1693" s="1">
+        <v>3291</v>
+      </c>
+      <c r="C1693" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1693" s="2"/>
+      <c r="E1693" s="2"/>
+      <c r="F1693" s="2"/>
+      <c r="G1693" s="2"/>
+      <c r="H1693" s="2"/>
+    </row>
+    <row r="1694" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1694" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1694" s="1">
+        <v>3292</v>
+      </c>
+      <c r="C1694" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1694" s="2"/>
+      <c r="E1694" s="2"/>
+      <c r="F1694" s="2"/>
+      <c r="G1694" s="2"/>
+      <c r="H1694" s="2"/>
+    </row>
+    <row r="1695" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1695" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B1695" s="1">
+        <v>3293</v>
+      </c>
+      <c r="C1695" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1695" s="2"/>
+      <c r="E1695" s="2"/>
+      <c r="F1695" s="2"/>
+      <c r="G1695" s="2"/>
+      <c r="H1695" s="2"/>
+    </row>
+    <row r="1696" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1696" s="3">
+        <v>43683</v>
+      </c>
+      <c r="B1696" s="1">
+        <v>8251</v>
+      </c>
+      <c r="C1696" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1696" s="2"/>
+      <c r="E1696" s="2"/>
+      <c r="F1696" s="2"/>
+      <c r="G1696" s="2"/>
+      <c r="H1696" s="2"/>
+    </row>
+    <row r="1697" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1697" s="3">
+        <v>43683</v>
+      </c>
+      <c r="B1697" s="1">
+        <v>8252</v>
+      </c>
+      <c r="C1697" s="2"/>
+      <c r="D1697" s="2"/>
+      <c r="E1697" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1697" s="2"/>
+      <c r="G1697" s="2"/>
+      <c r="H1697" s="2"/>
+    </row>
+    <row r="1698" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1698" s="3">
+        <v>43683</v>
+      </c>
+      <c r="B1698" s="1">
+        <v>8253</v>
+      </c>
+      <c r="C1698" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1698" s="2"/>
+      <c r="E1698" s="2"/>
+      <c r="F1698" s="2"/>
+      <c r="G1698" s="2"/>
+      <c r="H1698" s="2"/>
+    </row>
+    <row r="1699" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1699" s="3">
+        <v>43683</v>
+      </c>
+      <c r="B1699" s="1">
+        <v>8254</v>
+      </c>
+      <c r="C1699" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1699" s="2"/>
+      <c r="E1699" s="2"/>
+      <c r="F1699" s="2"/>
+      <c r="G1699" s="2"/>
+      <c r="H1699" s="2"/>
+    </row>
+    <row r="1700" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1700" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B1700" s="1">
+        <v>8255</v>
+      </c>
+      <c r="C1700" s="2"/>
+      <c r="D1700" s="2"/>
+      <c r="E1700" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1700" s="2"/>
+      <c r="G1700" s="2"/>
+      <c r="H1700" s="2"/>
+    </row>
+    <row r="1701" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1701" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B1701" s="1">
+        <v>8256</v>
+      </c>
+      <c r="C1701" s="2"/>
+      <c r="D1701" s="2"/>
+      <c r="E1701" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1701" s="2"/>
+      <c r="G1701" s="2"/>
+      <c r="H1701" s="2"/>
+    </row>
+    <row r="1702" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1702" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B1702" s="1">
+        <v>8257</v>
+      </c>
+      <c r="C1702" s="2"/>
+      <c r="D1702" s="2"/>
+      <c r="E1702" s="2"/>
+      <c r="F1702" s="2"/>
+      <c r="G1702" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1702" s="2"/>
+    </row>
+    <row r="1703" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1703" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B1703" s="1">
+        <v>8258</v>
+      </c>
+      <c r="C1703" s="2"/>
+      <c r="D1703" s="2"/>
+      <c r="E1703" s="2"/>
+      <c r="F1703" s="2">
+        <v>6</v>
+      </c>
+      <c r="G1703" s="2"/>
+      <c r="H1703" s="2"/>
+    </row>
+    <row r="1704" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1704" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B1704" s="1">
+        <v>8259</v>
+      </c>
+      <c r="C1704" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1704" s="2"/>
+      <c r="E1704" s="2"/>
+      <c r="F1704" s="2"/>
+      <c r="G1704" s="2"/>
+      <c r="H1704" s="2"/>
+    </row>
+    <row r="1705" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1705" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B1705" s="1">
+        <v>8260</v>
+      </c>
+      <c r="C1705" s="2"/>
+      <c r="D1705" s="2"/>
+      <c r="E1705" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1705" s="2"/>
+      <c r="G1705" s="2"/>
+      <c r="H1705" s="2"/>
+    </row>
+    <row r="1706" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1706" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B1706" s="1">
+        <v>8261</v>
+      </c>
+      <c r="C1706" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1706" s="2"/>
+      <c r="E1706" s="2"/>
+      <c r="F1706" s="2"/>
+      <c r="G1706" s="2"/>
+      <c r="H1706" s="2"/>
+    </row>
+    <row r="1707" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1707" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B1707" s="1">
+        <v>8262</v>
+      </c>
+      <c r="C1707" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1707" s="2"/>
+      <c r="E1707" s="2"/>
+      <c r="F1707" s="2"/>
+      <c r="G1707" s="2"/>
+      <c r="H1707" s="2"/>
+    </row>
+    <row r="1708" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1708" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B1708" s="1">
+        <v>8263</v>
+      </c>
+      <c r="C1708" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1708" s="2"/>
+      <c r="E1708" s="2"/>
+      <c r="F1708" s="2"/>
+      <c r="G1708" s="2"/>
+      <c r="H1708" s="2"/>
+    </row>
+    <row r="1709" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1709" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1709" s="1">
+        <v>8264</v>
+      </c>
+      <c r="C1709" s="2"/>
+      <c r="D1709" s="2"/>
+      <c r="E1709" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1709" s="2"/>
+      <c r="G1709" s="2"/>
+      <c r="H1709" s="2"/>
+    </row>
+    <row r="1710" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1710" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1710" s="1">
+        <v>8265</v>
+      </c>
+      <c r="C1710" s="2"/>
+      <c r="D1710" s="2"/>
+      <c r="E1710" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1710" s="2"/>
+      <c r="G1710" s="2"/>
+      <c r="H1710" s="2"/>
+    </row>
+    <row r="1711" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1711" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1711" s="1">
+        <v>8266</v>
+      </c>
+      <c r="C1711" s="2"/>
+      <c r="D1711" s="2"/>
+      <c r="E1711" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1711" s="2"/>
+      <c r="G1711" s="2"/>
+      <c r="H1711" s="2"/>
+    </row>
+    <row r="1712" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1712" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1712" s="1">
+        <v>8267</v>
+      </c>
+      <c r="C1712" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1712" s="2"/>
+      <c r="E1712" s="2"/>
+      <c r="F1712" s="2"/>
+      <c r="G1712" s="2"/>
+      <c r="H1712" s="2"/>
+    </row>
+    <row r="1713" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1713" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1713" s="1">
+        <v>8268</v>
+      </c>
+      <c r="C1713" s="2"/>
+      <c r="D1713" s="2"/>
+      <c r="E1713" s="2"/>
+      <c r="F1713" s="2">
+        <v>6</v>
+      </c>
+      <c r="G1713" s="2"/>
+      <c r="H1713" s="2"/>
+    </row>
+    <row r="1714" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1714" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1714" s="1">
+        <v>8269</v>
+      </c>
+      <c r="C1714" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1714" s="2"/>
+      <c r="E1714" s="2"/>
+      <c r="F1714" s="2"/>
+      <c r="G1714" s="2"/>
+      <c r="H1714" s="2"/>
+    </row>
+    <row r="1715" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1715" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1715" s="1">
+        <v>8270</v>
+      </c>
+      <c r="C1715" s="2"/>
+      <c r="D1715" s="2"/>
+      <c r="E1715" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1715" s="2"/>
+      <c r="G1715" s="2"/>
+      <c r="H1715" s="2"/>
+    </row>
+    <row r="1716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1716" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1716" s="1">
+        <v>8271</v>
+      </c>
+      <c r="C1716" s="2"/>
+      <c r="D1716" s="2"/>
+      <c r="E1716" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1716" s="2"/>
+      <c r="G1716" s="2"/>
+      <c r="H1716" s="2"/>
+    </row>
+    <row r="1717" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1717" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1717" s="1">
+        <v>8272</v>
+      </c>
+      <c r="C1717" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1717" s="2"/>
+      <c r="E1717" s="2"/>
+      <c r="F1717" s="2"/>
+      <c r="G1717" s="2"/>
+      <c r="H1717" s="2"/>
+    </row>
+    <row r="1718" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1718" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1718" s="1">
+        <v>8273</v>
+      </c>
+      <c r="C1718" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1718" s="2"/>
+      <c r="E1718" s="2"/>
+      <c r="F1718" s="2"/>
+      <c r="G1718" s="2"/>
+      <c r="H1718" s="2"/>
+    </row>
+    <row r="1719" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1719" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1719" s="1">
+        <v>8274</v>
+      </c>
+      <c r="C1719" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1719" s="2"/>
+      <c r="E1719" s="2"/>
+      <c r="F1719" s="2"/>
+      <c r="G1719" s="2"/>
+      <c r="H1719" s="2"/>
+    </row>
+    <row r="1720" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1720" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B1720" s="1">
+        <v>8275</v>
+      </c>
+      <c r="C1720" s="2"/>
+      <c r="D1720" s="2"/>
+      <c r="E1720" s="2"/>
+      <c r="F1720" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G1720" s="2"/>
+      <c r="H1720" s="2"/>
+    </row>
+    <row r="1721" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1721" s="3">
+        <v>43686</v>
+      </c>
+      <c r="B1721" s="1">
+        <v>8276</v>
+      </c>
+      <c r="C1721" s="2"/>
+      <c r="D1721" s="2"/>
+      <c r="E1721" s="2"/>
+      <c r="F1721" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1721" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1721" s="2"/>
+    </row>
+    <row r="1722" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1722" s="3">
+        <v>43686</v>
+      </c>
+      <c r="B1722" s="1">
+        <v>8277</v>
+      </c>
+      <c r="C1722" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1722" s="2"/>
+      <c r="E1722" s="2"/>
+      <c r="F1722" s="2"/>
+      <c r="G1722" s="2"/>
+      <c r="H1722" s="2"/>
+    </row>
+    <row r="1723" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1723" s="3">
+        <v>43686</v>
+      </c>
+      <c r="B1723" s="1">
+        <v>8278</v>
+      </c>
+      <c r="C1723" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1723" s="2"/>
+      <c r="E1723" s="2"/>
+      <c r="F1723" s="2"/>
+      <c r="G1723" s="2"/>
+      <c r="H1723" s="2"/>
+    </row>
+    <row r="1724" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1724" s="3">
+        <v>43686</v>
+      </c>
+      <c r="B1724" s="1">
+        <v>8279</v>
+      </c>
+      <c r="C1724" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1724" s="2"/>
+      <c r="E1724" s="2"/>
+      <c r="F1724" s="2"/>
+      <c r="G1724" s="2"/>
+      <c r="H1724" s="2"/>
+    </row>
+    <row r="1725" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1725" s="3">
+        <v>43686</v>
+      </c>
+      <c r="B1725" s="1">
+        <v>8280</v>
+      </c>
+      <c r="C1725" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1725" s="2"/>
+      <c r="E1725" s="2"/>
+      <c r="F1725" s="2"/>
+      <c r="G1725" s="2"/>
+      <c r="H1725" s="2"/>
+    </row>
+    <row r="1726" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1726" s="3">
+        <v>43686</v>
+      </c>
+      <c r="B1726" s="1">
+        <v>8281</v>
+      </c>
+      <c r="C1726" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1726" s="2"/>
+      <c r="E1726" s="2"/>
+      <c r="F1726" s="2"/>
+      <c r="G1726" s="2"/>
+      <c r="H1726" s="2"/>
+    </row>
+    <row r="1727" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1727" s="3">
+        <v>43686</v>
+      </c>
+      <c r="B1727" s="1">
+        <v>8282</v>
+      </c>
+      <c r="C1727" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1727" s="2"/>
+      <c r="E1727" s="2"/>
+      <c r="F1727" s="2"/>
+      <c r="G1727" s="2"/>
+      <c r="H1727" s="2"/>
+    </row>
+    <row r="1728" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1728" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1728" s="1">
+        <v>8283</v>
+      </c>
+      <c r="C1728" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1728" s="2"/>
+      <c r="E1728" s="2"/>
+      <c r="F1728" s="2"/>
+      <c r="G1728" s="2"/>
+      <c r="H1728" s="2"/>
+    </row>
+    <row r="1729" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1729" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1729" s="1">
+        <v>8284</v>
+      </c>
+      <c r="C1729" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D1729" s="2"/>
+      <c r="E1729" s="2"/>
+      <c r="F1729" s="2"/>
+      <c r="G1729" s="2"/>
+      <c r="H1729" s="2"/>
+    </row>
+    <row r="1730" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1730" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1730" s="1">
+        <v>8285</v>
+      </c>
+      <c r="C1730" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1730" s="2"/>
+      <c r="E1730" s="2"/>
+      <c r="F1730" s="2"/>
+      <c r="G1730" s="2"/>
+      <c r="H1730" s="2"/>
+    </row>
+    <row r="1731" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1731" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1731" s="1">
+        <v>8286</v>
+      </c>
+      <c r="C1731" s="2"/>
+      <c r="D1731" s="2"/>
+      <c r="E1731" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F1731" s="2"/>
+      <c r="G1731" s="2"/>
+      <c r="H1731" s="2"/>
+    </row>
+    <row r="1732" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1732" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1732" s="1">
+        <v>8287</v>
+      </c>
+      <c r="C1732" s="2"/>
+      <c r="D1732" s="2"/>
+      <c r="E1732" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1732" s="2"/>
+      <c r="G1732" s="2"/>
+      <c r="H1732" s="2"/>
+    </row>
+    <row r="1733" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1733" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1733" s="1">
+        <v>8288</v>
+      </c>
+      <c r="C1733" s="2"/>
+      <c r="D1733" s="2"/>
+      <c r="E1733" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1733" s="2"/>
+      <c r="G1733" s="2"/>
+      <c r="H1733" s="2"/>
+    </row>
+    <row r="1734" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1734" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1734" s="1">
+        <v>8289</v>
+      </c>
+      <c r="C1734" s="2"/>
+      <c r="D1734" s="2"/>
+      <c r="E1734" s="2"/>
+      <c r="F1734" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G1734" s="2"/>
+      <c r="H1734" s="2"/>
+    </row>
+    <row r="1735" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1735" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1735" s="1">
+        <v>8290</v>
+      </c>
+      <c r="C1735" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1735" s="2"/>
+      <c r="E1735" s="2"/>
+      <c r="F1735" s="2"/>
+      <c r="G1735" s="2"/>
+      <c r="H1735" s="2"/>
+    </row>
+    <row r="1736" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1736" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1736" s="1">
+        <v>8291</v>
+      </c>
+      <c r="C1736" s="2"/>
+      <c r="D1736" s="2"/>
+      <c r="E1736" s="2"/>
+      <c r="F1736" s="2"/>
+      <c r="G1736" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1736" s="2"/>
+    </row>
+    <row r="1737" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1737" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1737" s="1">
+        <v>8292</v>
+      </c>
+      <c r="C1737" s="2"/>
+      <c r="D1737" s="2"/>
+      <c r="E1737" s="2"/>
+      <c r="F1737" s="2"/>
+      <c r="G1737" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1737" s="2"/>
+    </row>
+    <row r="1738" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1738" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1738" s="1">
+        <v>8293</v>
+      </c>
+      <c r="C1738" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1738" s="2"/>
+      <c r="E1738" s="2"/>
+      <c r="F1738" s="2"/>
+      <c r="G1738" s="2"/>
+      <c r="H1738" s="2"/>
+    </row>
+    <row r="1739" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1739" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B1739" s="1">
+        <v>8294</v>
+      </c>
+      <c r="C1739" s="2"/>
+      <c r="D1739" s="2"/>
+      <c r="E1739" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1739" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1739" s="2"/>
+      <c r="H1739" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data_import.xlsx
+++ b/data/data_import.xlsx
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1739"/>
+  <dimension ref="A1:H2166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1719" workbookViewId="0">
-      <selection activeCell="A1729" sqref="A1729:A1739"/>
+    <sheetView tabSelected="1" topLeftCell="A2146" workbookViewId="0">
+      <selection activeCell="I2155" sqref="I2155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28340,6 +28340,6856 @@
       </c>
       <c r="G1739" s="2"/>
       <c r="H1739" s="2"/>
+    </row>
+    <row r="1740" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1740" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1740" s="1">
+        <v>8295</v>
+      </c>
+      <c r="C1740" s="2"/>
+      <c r="D1740" s="2"/>
+      <c r="E1740" s="2"/>
+      <c r="F1740" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G1740" s="2"/>
+      <c r="H1740" s="2"/>
+    </row>
+    <row r="1741" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1741" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1741" s="1">
+        <v>8296</v>
+      </c>
+      <c r="C1741" s="2"/>
+      <c r="D1741" s="2"/>
+      <c r="E1741" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1741" s="2"/>
+      <c r="G1741" s="2"/>
+      <c r="H1741" s="2"/>
+    </row>
+    <row r="1742" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1742" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1742" s="1">
+        <v>8297</v>
+      </c>
+      <c r="C1742" s="2"/>
+      <c r="D1742" s="2"/>
+      <c r="E1742" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1742" s="2"/>
+      <c r="G1742" s="2"/>
+      <c r="H1742" s="2"/>
+    </row>
+    <row r="1743" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1743" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1743" s="1">
+        <v>8298</v>
+      </c>
+      <c r="C1743" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1743" s="2"/>
+      <c r="E1743" s="2"/>
+      <c r="F1743" s="2"/>
+      <c r="G1743" s="2"/>
+      <c r="H1743" s="2"/>
+    </row>
+    <row r="1744" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1744" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1744" s="1">
+        <v>8299</v>
+      </c>
+      <c r="C1744" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1744" s="2"/>
+      <c r="E1744" s="2"/>
+      <c r="F1744" s="2"/>
+      <c r="G1744" s="2"/>
+      <c r="H1744" s="2"/>
+    </row>
+    <row r="1745" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1745" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1745" s="1">
+        <v>8300</v>
+      </c>
+      <c r="C1745" s="2"/>
+      <c r="D1745" s="2"/>
+      <c r="E1745" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F1745" s="2"/>
+      <c r="G1745" s="2"/>
+      <c r="H1745" s="2"/>
+    </row>
+    <row r="1746" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1746" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1746" s="1">
+        <v>8101</v>
+      </c>
+      <c r="C1746" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1746" s="2"/>
+      <c r="E1746" s="2"/>
+      <c r="F1746" s="2"/>
+      <c r="G1746" s="2"/>
+      <c r="H1746" s="2"/>
+    </row>
+    <row r="1747" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1747" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1747" s="1">
+        <v>8102</v>
+      </c>
+      <c r="C1747" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1747" s="2"/>
+      <c r="E1747" s="2"/>
+      <c r="F1747" s="2"/>
+      <c r="G1747" s="2"/>
+      <c r="H1747" s="2"/>
+    </row>
+    <row r="1748" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1748" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1748" s="1">
+        <v>8103</v>
+      </c>
+      <c r="C1748" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1748" s="2"/>
+      <c r="E1748" s="2"/>
+      <c r="F1748" s="2"/>
+      <c r="G1748" s="2"/>
+      <c r="H1748" s="2"/>
+    </row>
+    <row r="1749" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1749" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1749" s="1">
+        <v>8104</v>
+      </c>
+      <c r="C1749" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1749" s="2"/>
+      <c r="E1749" s="2"/>
+      <c r="F1749" s="2"/>
+      <c r="G1749" s="2"/>
+      <c r="H1749" s="2"/>
+    </row>
+    <row r="1750" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1750" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1750" s="1">
+        <v>8105</v>
+      </c>
+      <c r="C1750" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1750" s="2"/>
+      <c r="E1750" s="2"/>
+      <c r="F1750" s="2"/>
+      <c r="G1750" s="2"/>
+      <c r="H1750" s="2"/>
+    </row>
+    <row r="1751" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1751" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B1751" s="1">
+        <v>8106</v>
+      </c>
+      <c r="C1751" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1751" s="2"/>
+      <c r="E1751" s="2"/>
+      <c r="F1751" s="2"/>
+      <c r="G1751" s="2"/>
+      <c r="H1751" s="2"/>
+    </row>
+    <row r="1752" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1752" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B1752" s="1">
+        <v>8107</v>
+      </c>
+      <c r="C1752" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D1752" s="2"/>
+      <c r="E1752" s="2"/>
+      <c r="F1752" s="2"/>
+      <c r="G1752" s="2"/>
+      <c r="H1752" s="2"/>
+    </row>
+    <row r="1753" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1753" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B1753" s="1">
+        <v>8108</v>
+      </c>
+      <c r="C1753" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D1753" s="2"/>
+      <c r="E1753" s="2"/>
+      <c r="F1753" s="2"/>
+      <c r="G1753" s="2"/>
+      <c r="H1753" s="2"/>
+    </row>
+    <row r="1754" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1754" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B1754" s="1">
+        <v>8109</v>
+      </c>
+      <c r="C1754" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1754" s="2"/>
+      <c r="E1754" s="2"/>
+      <c r="F1754" s="2"/>
+      <c r="G1754" s="2"/>
+      <c r="H1754" s="2"/>
+    </row>
+    <row r="1755" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1755" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B1755" s="1">
+        <v>8110</v>
+      </c>
+      <c r="C1755" s="2"/>
+      <c r="D1755" s="2"/>
+      <c r="E1755" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1755" s="2"/>
+      <c r="G1755" s="2"/>
+      <c r="H1755" s="2"/>
+    </row>
+    <row r="1756" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1756" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B1756" s="1">
+        <v>8111</v>
+      </c>
+      <c r="C1756" s="2"/>
+      <c r="D1756" s="2"/>
+      <c r="E1756" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1756" s="2"/>
+      <c r="G1756" s="2"/>
+      <c r="H1756" s="2"/>
+    </row>
+    <row r="1757" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1757" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B1757" s="1">
+        <v>8112</v>
+      </c>
+      <c r="C1757" s="2"/>
+      <c r="D1757" s="2"/>
+      <c r="E1757" s="2"/>
+      <c r="F1757" s="2">
+        <v>6</v>
+      </c>
+      <c r="G1757" s="2"/>
+      <c r="H1757" s="2"/>
+    </row>
+    <row r="1758" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1758" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B1758" s="1">
+        <v>8113</v>
+      </c>
+      <c r="C1758" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1758" s="2"/>
+      <c r="E1758" s="2"/>
+      <c r="F1758" s="2"/>
+      <c r="G1758" s="2"/>
+      <c r="H1758" s="2"/>
+    </row>
+    <row r="1759" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1759" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B1759" s="1">
+        <v>8114</v>
+      </c>
+      <c r="C1759" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1759" s="2"/>
+      <c r="E1759" s="2"/>
+      <c r="F1759" s="2"/>
+      <c r="G1759" s="2"/>
+      <c r="H1759" s="2"/>
+    </row>
+    <row r="1760" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1760" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B1760" s="1">
+        <v>8115</v>
+      </c>
+      <c r="C1760" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1760" s="2"/>
+      <c r="E1760" s="2"/>
+      <c r="F1760" s="2"/>
+      <c r="G1760" s="2"/>
+      <c r="H1760" s="2"/>
+    </row>
+    <row r="1761" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1761" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B1761" s="1">
+        <v>8116</v>
+      </c>
+      <c r="C1761" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1761" s="2"/>
+      <c r="E1761" s="2"/>
+      <c r="F1761" s="2"/>
+      <c r="G1761" s="2"/>
+      <c r="H1761" s="2"/>
+    </row>
+    <row r="1762" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1762" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1762" s="1">
+        <v>8117</v>
+      </c>
+      <c r="C1762" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1762" s="2"/>
+      <c r="E1762" s="2"/>
+      <c r="F1762" s="2"/>
+      <c r="G1762" s="2"/>
+      <c r="H1762" s="2"/>
+    </row>
+    <row r="1763" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1763" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1763" s="1">
+        <v>8118</v>
+      </c>
+      <c r="C1763" s="2"/>
+      <c r="D1763" s="2"/>
+      <c r="E1763" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1763" s="2"/>
+      <c r="G1763" s="2"/>
+      <c r="H1763" s="2"/>
+    </row>
+    <row r="1764" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1764" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1764" s="1">
+        <v>8119</v>
+      </c>
+      <c r="C1764" s="2"/>
+      <c r="D1764" s="2"/>
+      <c r="E1764" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1764" s="2"/>
+      <c r="G1764" s="2"/>
+      <c r="H1764" s="2"/>
+    </row>
+    <row r="1765" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1765" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1765" s="1">
+        <v>8120</v>
+      </c>
+      <c r="C1765" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D1765" s="2"/>
+      <c r="E1765" s="2"/>
+      <c r="F1765" s="2"/>
+      <c r="G1765" s="2"/>
+      <c r="H1765" s="2"/>
+    </row>
+    <row r="1766" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1766" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1766" s="1">
+        <v>8121</v>
+      </c>
+      <c r="C1766" s="2"/>
+      <c r="D1766" s="2"/>
+      <c r="E1766" s="2"/>
+      <c r="F1766" s="2"/>
+      <c r="G1766" s="2">
+        <v>7</v>
+      </c>
+      <c r="H1766" s="2"/>
+    </row>
+    <row r="1767" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1767" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1767" s="1">
+        <v>8122</v>
+      </c>
+      <c r="C1767" s="2"/>
+      <c r="D1767" s="2"/>
+      <c r="E1767" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1767" s="2"/>
+      <c r="G1767" s="2"/>
+      <c r="H1767" s="2"/>
+    </row>
+    <row r="1768" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1768" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1768" s="1">
+        <v>8123</v>
+      </c>
+      <c r="C1768" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1768" s="2"/>
+      <c r="E1768" s="2"/>
+      <c r="F1768" s="2"/>
+      <c r="G1768" s="2"/>
+      <c r="H1768" s="2"/>
+    </row>
+    <row r="1769" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1769" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1769" s="1">
+        <v>8124</v>
+      </c>
+      <c r="C1769" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1769" s="2"/>
+      <c r="E1769" s="2"/>
+      <c r="F1769" s="2"/>
+      <c r="G1769" s="2"/>
+      <c r="H1769" s="2"/>
+    </row>
+    <row r="1770" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1770" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1770" s="1">
+        <v>8125</v>
+      </c>
+      <c r="C1770" s="2"/>
+      <c r="D1770" s="2"/>
+      <c r="E1770" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1770" s="2"/>
+      <c r="G1770" s="2"/>
+      <c r="H1770" s="2"/>
+    </row>
+    <row r="1771" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1771" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1771" s="1">
+        <v>8126</v>
+      </c>
+      <c r="C1771" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1771" s="2"/>
+      <c r="E1771" s="2"/>
+      <c r="F1771" s="2"/>
+      <c r="G1771" s="2"/>
+      <c r="H1771" s="2"/>
+    </row>
+    <row r="1772" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1772" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1772" s="1">
+        <v>8127</v>
+      </c>
+      <c r="C1772" s="2"/>
+      <c r="D1772" s="2"/>
+      <c r="E1772" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1772" s="2"/>
+      <c r="G1772" s="2"/>
+      <c r="H1772" s="2"/>
+    </row>
+    <row r="1773" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1773" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1773" s="1">
+        <v>8128</v>
+      </c>
+      <c r="C1773" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1773" s="2"/>
+      <c r="E1773" s="2"/>
+      <c r="F1773" s="2"/>
+      <c r="G1773" s="2"/>
+      <c r="H1773" s="2"/>
+    </row>
+    <row r="1774" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1774" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1774" s="1">
+        <v>8129</v>
+      </c>
+      <c r="C1774" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1774" s="2"/>
+      <c r="E1774" s="2"/>
+      <c r="F1774" s="2"/>
+      <c r="G1774" s="2"/>
+      <c r="H1774" s="2"/>
+    </row>
+    <row r="1775" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1775" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1775" s="1">
+        <v>8130</v>
+      </c>
+      <c r="C1775" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1775" s="2"/>
+      <c r="E1775" s="2"/>
+      <c r="F1775" s="2"/>
+      <c r="G1775" s="2"/>
+      <c r="H1775" s="2"/>
+    </row>
+    <row r="1776" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1776" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B1776" s="1">
+        <v>8131</v>
+      </c>
+      <c r="C1776" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1776" s="2"/>
+      <c r="E1776" s="2"/>
+      <c r="F1776" s="2"/>
+      <c r="G1776" s="2"/>
+      <c r="H1776" s="2"/>
+    </row>
+    <row r="1777" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1777" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1777" s="1">
+        <v>8132</v>
+      </c>
+      <c r="C1777" s="2"/>
+      <c r="D1777" s="2"/>
+      <c r="E1777" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1777" s="2"/>
+      <c r="G1777" s="2"/>
+      <c r="H1777" s="2"/>
+    </row>
+    <row r="1778" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1778" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1778" s="1">
+        <v>8133</v>
+      </c>
+      <c r="C1778" s="2"/>
+      <c r="D1778" s="2"/>
+      <c r="E1778" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1778" s="2"/>
+      <c r="G1778" s="2"/>
+      <c r="H1778" s="2"/>
+    </row>
+    <row r="1779" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1779" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1779" s="1">
+        <v>8134</v>
+      </c>
+      <c r="C1779" s="2"/>
+      <c r="D1779" s="2"/>
+      <c r="E1779" s="2"/>
+      <c r="F1779" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1779" s="2"/>
+      <c r="H1779" s="2"/>
+    </row>
+    <row r="1780" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1780" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1780" s="1">
+        <v>8135</v>
+      </c>
+      <c r="C1780" s="2"/>
+      <c r="D1780" s="2"/>
+      <c r="E1780" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1780" s="2"/>
+      <c r="G1780" s="2"/>
+      <c r="H1780" s="2"/>
+    </row>
+    <row r="1781" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1781" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1781" s="1">
+        <v>8136</v>
+      </c>
+      <c r="C1781" s="2"/>
+      <c r="D1781" s="2"/>
+      <c r="E1781" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1781" s="2"/>
+      <c r="G1781" s="2"/>
+      <c r="H1781" s="2"/>
+    </row>
+    <row r="1782" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1782" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1782" s="1">
+        <v>8137</v>
+      </c>
+      <c r="C1782" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1782" s="2"/>
+      <c r="E1782" s="2"/>
+      <c r="F1782" s="2"/>
+      <c r="G1782" s="2"/>
+      <c r="H1782" s="2"/>
+    </row>
+    <row r="1783" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1783" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1783" s="1">
+        <v>8138</v>
+      </c>
+      <c r="C1783" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1783" s="2"/>
+      <c r="E1783" s="2"/>
+      <c r="F1783" s="2"/>
+      <c r="G1783" s="2"/>
+      <c r="H1783" s="2"/>
+    </row>
+    <row r="1784" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1784" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1784" s="1">
+        <v>8139</v>
+      </c>
+      <c r="C1784" s="2"/>
+      <c r="D1784" s="2"/>
+      <c r="E1784" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1784" s="2"/>
+      <c r="G1784" s="2"/>
+      <c r="H1784" s="2"/>
+    </row>
+    <row r="1785" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1785" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1785" s="1">
+        <v>8140</v>
+      </c>
+      <c r="C1785" s="2"/>
+      <c r="D1785" s="2"/>
+      <c r="E1785" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1785" s="2"/>
+      <c r="G1785" s="2"/>
+      <c r="H1785" s="2"/>
+    </row>
+    <row r="1786" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1786" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1786" s="1">
+        <v>8141</v>
+      </c>
+      <c r="C1786" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1786" s="2"/>
+      <c r="E1786" s="2"/>
+      <c r="F1786" s="2"/>
+      <c r="G1786" s="2"/>
+      <c r="H1786" s="2"/>
+    </row>
+    <row r="1787" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1787" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1787" s="1">
+        <v>8142</v>
+      </c>
+      <c r="C1787" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1787" s="2"/>
+      <c r="E1787" s="2"/>
+      <c r="F1787" s="2"/>
+      <c r="G1787" s="2"/>
+      <c r="H1787" s="2"/>
+    </row>
+    <row r="1788" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1788" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1788" s="1">
+        <v>8143</v>
+      </c>
+      <c r="C1788" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1788" s="2"/>
+      <c r="E1788" s="2"/>
+      <c r="F1788" s="2"/>
+      <c r="G1788" s="2"/>
+      <c r="H1788" s="2"/>
+    </row>
+    <row r="1789" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1789" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B1789" s="1">
+        <v>8144</v>
+      </c>
+      <c r="C1789" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1789" s="2"/>
+      <c r="E1789" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1789" s="2"/>
+      <c r="G1789" s="2"/>
+      <c r="H1789" s="2"/>
+    </row>
+    <row r="1790" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1790" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1790" s="1">
+        <v>8145</v>
+      </c>
+      <c r="C1790" s="2"/>
+      <c r="D1790" s="2"/>
+      <c r="E1790" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1790" s="2"/>
+      <c r="G1790" s="2"/>
+      <c r="H1790" s="2"/>
+    </row>
+    <row r="1791" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1791" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1791" s="1">
+        <v>8146</v>
+      </c>
+      <c r="C1791" s="2"/>
+      <c r="D1791" s="2"/>
+      <c r="E1791" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1791" s="2"/>
+      <c r="G1791" s="2"/>
+      <c r="H1791" s="2"/>
+    </row>
+    <row r="1792" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1792" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1792" s="1">
+        <v>8147</v>
+      </c>
+      <c r="C1792" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1792" s="2"/>
+      <c r="E1792" s="2"/>
+      <c r="F1792" s="2"/>
+      <c r="G1792" s="2"/>
+      <c r="H1792" s="2"/>
+    </row>
+    <row r="1793" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1793" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1793" s="1">
+        <v>8148</v>
+      </c>
+      <c r="C1793" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1793" s="2"/>
+      <c r="E1793" s="2"/>
+      <c r="F1793" s="2"/>
+      <c r="G1793" s="2"/>
+      <c r="H1793" s="2"/>
+    </row>
+    <row r="1794" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1794" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1794" s="1">
+        <v>8149</v>
+      </c>
+      <c r="C1794" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1794" s="2"/>
+      <c r="E1794" s="2"/>
+      <c r="F1794" s="2"/>
+      <c r="G1794" s="2"/>
+      <c r="H1794" s="2"/>
+    </row>
+    <row r="1795" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1795" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1795" s="1">
+        <v>8150</v>
+      </c>
+      <c r="C1795" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1795" s="2"/>
+      <c r="E1795" s="2"/>
+      <c r="F1795" s="2"/>
+      <c r="G1795" s="2"/>
+      <c r="H1795" s="2"/>
+    </row>
+    <row r="1796" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1796" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1796" s="1">
+        <v>8001</v>
+      </c>
+      <c r="C1796" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1796" s="2"/>
+      <c r="E1796" s="2"/>
+      <c r="F1796" s="2"/>
+      <c r="G1796" s="2"/>
+      <c r="H1796" s="2"/>
+    </row>
+    <row r="1797" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1797" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1797" s="1">
+        <v>8002</v>
+      </c>
+      <c r="C1797" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1797" s="2"/>
+      <c r="E1797" s="2"/>
+      <c r="F1797" s="2"/>
+      <c r="G1797" s="2"/>
+      <c r="H1797" s="2"/>
+    </row>
+    <row r="1798" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1798" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1798" s="1">
+        <v>8003</v>
+      </c>
+      <c r="C1798" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1798" s="2"/>
+      <c r="E1798" s="2"/>
+      <c r="F1798" s="2"/>
+      <c r="G1798" s="2"/>
+      <c r="H1798" s="2"/>
+    </row>
+    <row r="1799" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1799" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1799" s="1">
+        <v>8004</v>
+      </c>
+      <c r="C1799" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1799" s="2"/>
+      <c r="E1799" s="2"/>
+      <c r="F1799" s="2"/>
+      <c r="G1799" s="2"/>
+      <c r="H1799" s="2"/>
+    </row>
+    <row r="1800" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1800" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1800" s="1">
+        <v>8005</v>
+      </c>
+      <c r="C1800" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1800" s="2"/>
+      <c r="E1800" s="2"/>
+      <c r="F1800" s="2"/>
+      <c r="G1800" s="2"/>
+      <c r="H1800" s="2"/>
+    </row>
+    <row r="1801" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1801" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1801" s="1">
+        <v>8006</v>
+      </c>
+      <c r="C1801" s="2"/>
+      <c r="D1801" s="2"/>
+      <c r="E1801" s="2"/>
+      <c r="F1801" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G1801" s="2"/>
+      <c r="H1801" s="2"/>
+    </row>
+    <row r="1802" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1802" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1802" s="1">
+        <v>8007</v>
+      </c>
+      <c r="C1802" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1802" s="2"/>
+      <c r="E1802" s="2"/>
+      <c r="F1802" s="2"/>
+      <c r="G1802" s="2"/>
+      <c r="H1802" s="2"/>
+    </row>
+    <row r="1803" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1803" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1803" s="1">
+        <v>8008</v>
+      </c>
+      <c r="C1803" s="2"/>
+      <c r="D1803" s="2"/>
+      <c r="E1803" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1803" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1803" s="2"/>
+      <c r="H1803" s="2"/>
+    </row>
+    <row r="1804" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1804" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1804" s="1">
+        <v>8009</v>
+      </c>
+      <c r="C1804" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1804" s="2"/>
+      <c r="E1804" s="2"/>
+      <c r="F1804" s="2"/>
+      <c r="G1804" s="2"/>
+      <c r="H1804" s="2"/>
+    </row>
+    <row r="1805" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1805" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B1805" s="1">
+        <v>8010</v>
+      </c>
+      <c r="C1805" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1805" s="2"/>
+      <c r="E1805" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F1805" s="2"/>
+      <c r="G1805" s="2"/>
+      <c r="H1805" s="2"/>
+    </row>
+    <row r="1806" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1806" s="3">
+        <v>43696</v>
+      </c>
+      <c r="B1806" s="1">
+        <v>8011</v>
+      </c>
+      <c r="C1806" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1806" s="2"/>
+      <c r="E1806" s="2"/>
+      <c r="F1806" s="2"/>
+      <c r="G1806" s="2"/>
+      <c r="H1806" s="2"/>
+    </row>
+    <row r="1807" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1807" s="3">
+        <v>43696</v>
+      </c>
+      <c r="B1807" s="1">
+        <v>8012</v>
+      </c>
+      <c r="C1807" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1807" s="2"/>
+      <c r="E1807" s="2"/>
+      <c r="F1807" s="2"/>
+      <c r="G1807" s="2"/>
+      <c r="H1807" s="2"/>
+    </row>
+    <row r="1808" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1808" s="3">
+        <v>43696</v>
+      </c>
+      <c r="B1808" s="1">
+        <v>8013</v>
+      </c>
+      <c r="C1808" s="2"/>
+      <c r="D1808" s="2"/>
+      <c r="E1808" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1808" s="2"/>
+      <c r="G1808" s="2"/>
+      <c r="H1808" s="2"/>
+    </row>
+    <row r="1809" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1809" s="3">
+        <v>43696</v>
+      </c>
+      <c r="B1809" s="1">
+        <v>8014</v>
+      </c>
+      <c r="C1809" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D1809" s="2"/>
+      <c r="E1809" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1809" s="2"/>
+      <c r="G1809" s="2"/>
+      <c r="H1809" s="2"/>
+    </row>
+    <row r="1810" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1810" s="3">
+        <v>43696</v>
+      </c>
+      <c r="B1810" s="1">
+        <v>8015</v>
+      </c>
+      <c r="C1810" s="2"/>
+      <c r="D1810" s="2"/>
+      <c r="E1810" s="2"/>
+      <c r="F1810" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G1810" s="2"/>
+      <c r="H1810" s="2"/>
+    </row>
+    <row r="1811" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1811" s="3">
+        <v>43696</v>
+      </c>
+      <c r="B1811" s="1">
+        <v>8016</v>
+      </c>
+      <c r="C1811" s="2"/>
+      <c r="D1811" s="2"/>
+      <c r="E1811" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1811" s="2"/>
+      <c r="G1811" s="2"/>
+      <c r="H1811" s="2"/>
+    </row>
+    <row r="1812" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1812" s="3">
+        <v>43696</v>
+      </c>
+      <c r="B1812" s="1">
+        <v>8017</v>
+      </c>
+      <c r="C1812" s="2"/>
+      <c r="D1812" s="2"/>
+      <c r="E1812" s="2"/>
+      <c r="F1812" s="2"/>
+      <c r="G1812" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H1812" s="2"/>
+    </row>
+    <row r="1813" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1813" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1813" s="1">
+        <v>8018</v>
+      </c>
+      <c r="C1813" s="2"/>
+      <c r="D1813" s="2"/>
+      <c r="E1813" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1813" s="2"/>
+      <c r="G1813" s="2"/>
+      <c r="H1813" s="2"/>
+    </row>
+    <row r="1814" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1814" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1814" s="1">
+        <v>8019</v>
+      </c>
+      <c r="C1814" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1814" s="2"/>
+      <c r="E1814" s="2"/>
+      <c r="F1814" s="2"/>
+      <c r="G1814" s="2"/>
+      <c r="H1814" s="2"/>
+    </row>
+    <row r="1815" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1815" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1815" s="1">
+        <v>8020</v>
+      </c>
+      <c r="C1815" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1815" s="2"/>
+      <c r="E1815" s="2"/>
+      <c r="F1815" s="2"/>
+      <c r="G1815" s="2"/>
+      <c r="H1815" s="2"/>
+    </row>
+    <row r="1816" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1816" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1816" s="1">
+        <v>8021</v>
+      </c>
+      <c r="C1816" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1816" s="2"/>
+      <c r="E1816" s="2"/>
+      <c r="F1816" s="2"/>
+      <c r="G1816" s="2"/>
+      <c r="H1816" s="2"/>
+    </row>
+    <row r="1817" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1817" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1817" s="1">
+        <v>8022</v>
+      </c>
+      <c r="C1817" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1817" s="2"/>
+      <c r="E1817" s="2"/>
+      <c r="F1817" s="2"/>
+      <c r="G1817" s="2"/>
+      <c r="H1817" s="2"/>
+    </row>
+    <row r="1818" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1818" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1818" s="1">
+        <v>8023</v>
+      </c>
+      <c r="C1818" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1818" s="2"/>
+      <c r="E1818" s="2"/>
+      <c r="F1818" s="2"/>
+      <c r="G1818" s="2"/>
+      <c r="H1818" s="2"/>
+    </row>
+    <row r="1819" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1819" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1819" s="1">
+        <v>8024</v>
+      </c>
+      <c r="C1819" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1819" s="2"/>
+      <c r="E1819" s="2"/>
+      <c r="F1819" s="2"/>
+      <c r="G1819" s="2"/>
+      <c r="H1819" s="2"/>
+    </row>
+    <row r="1820" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1820" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1820" s="1">
+        <v>8025</v>
+      </c>
+      <c r="C1820" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1820" s="2"/>
+      <c r="E1820" s="2"/>
+      <c r="F1820" s="2"/>
+      <c r="G1820" s="2"/>
+      <c r="H1820" s="2"/>
+    </row>
+    <row r="1821" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1821" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1821" s="1">
+        <v>8026</v>
+      </c>
+      <c r="C1821" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1821" s="2"/>
+      <c r="E1821" s="2"/>
+      <c r="F1821" s="2"/>
+      <c r="G1821" s="2"/>
+      <c r="H1821" s="2"/>
+    </row>
+    <row r="1822" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1822" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1822" s="1">
+        <v>8027</v>
+      </c>
+      <c r="C1822" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1822" s="2"/>
+      <c r="E1822" s="2"/>
+      <c r="F1822" s="2"/>
+      <c r="G1822" s="2"/>
+      <c r="H1822" s="2"/>
+    </row>
+    <row r="1823" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1823" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1823" s="1">
+        <v>8028</v>
+      </c>
+      <c r="C1823" s="2"/>
+      <c r="D1823" s="2"/>
+      <c r="E1823" s="2"/>
+      <c r="F1823" s="2">
+        <v>10</v>
+      </c>
+      <c r="G1823" s="2"/>
+      <c r="H1823" s="2"/>
+    </row>
+    <row r="1824" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1824" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1824" s="1">
+        <v>8029</v>
+      </c>
+      <c r="C1824" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1824" s="2"/>
+      <c r="E1824" s="2"/>
+      <c r="F1824" s="2"/>
+      <c r="G1824" s="2"/>
+      <c r="H1824" s="2"/>
+    </row>
+    <row r="1825" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1825" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1825" s="1">
+        <v>8030</v>
+      </c>
+      <c r="C1825" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1825" s="2"/>
+      <c r="E1825" s="2"/>
+      <c r="F1825" s="2"/>
+      <c r="G1825" s="2"/>
+      <c r="H1825" s="2"/>
+    </row>
+    <row r="1826" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1826" s="3">
+        <v>43697</v>
+      </c>
+      <c r="B1826" s="1">
+        <v>8031</v>
+      </c>
+      <c r="C1826" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1826" s="2"/>
+      <c r="E1826" s="2"/>
+      <c r="F1826" s="2"/>
+      <c r="G1826" s="2"/>
+      <c r="H1826" s="2"/>
+    </row>
+    <row r="1827" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1827" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1827" s="1">
+        <v>8032</v>
+      </c>
+      <c r="C1827" s="2"/>
+      <c r="D1827" s="2"/>
+      <c r="E1827" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1827" s="2"/>
+      <c r="G1827" s="2"/>
+      <c r="H1827" s="2"/>
+    </row>
+    <row r="1828" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1828" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1828" s="1">
+        <v>8033</v>
+      </c>
+      <c r="C1828" s="2"/>
+      <c r="D1828" s="2"/>
+      <c r="E1828" s="2"/>
+      <c r="F1828" s="2">
+        <v>6</v>
+      </c>
+      <c r="G1828" s="2"/>
+      <c r="H1828" s="2"/>
+    </row>
+    <row r="1829" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1829" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1829" s="1">
+        <v>8034</v>
+      </c>
+      <c r="C1829" s="2"/>
+      <c r="D1829" s="2"/>
+      <c r="E1829" s="2"/>
+      <c r="F1829" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G1829" s="2"/>
+      <c r="H1829" s="2"/>
+    </row>
+    <row r="1830" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1830" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1830" s="1">
+        <v>8035</v>
+      </c>
+      <c r="C1830" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1830" s="2"/>
+      <c r="E1830" s="2"/>
+      <c r="F1830" s="2"/>
+      <c r="G1830" s="2"/>
+      <c r="H1830" s="2"/>
+    </row>
+    <row r="1831" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1831" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1831" s="1">
+        <v>8036</v>
+      </c>
+      <c r="C1831" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1831" s="2"/>
+      <c r="E1831" s="2"/>
+      <c r="F1831" s="2"/>
+      <c r="G1831" s="2"/>
+      <c r="H1831" s="2"/>
+    </row>
+    <row r="1832" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1832" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1832" s="1">
+        <v>8037</v>
+      </c>
+      <c r="C1832" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1832" s="2"/>
+      <c r="E1832" s="2"/>
+      <c r="F1832" s="2"/>
+      <c r="G1832" s="2"/>
+      <c r="H1832" s="2"/>
+    </row>
+    <row r="1833" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1833" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1833" s="1">
+        <v>8038</v>
+      </c>
+      <c r="C1833" s="2"/>
+      <c r="D1833" s="2"/>
+      <c r="E1833" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1833" s="2"/>
+      <c r="G1833" s="2"/>
+      <c r="H1833" s="2"/>
+    </row>
+    <row r="1834" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1834" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1834" s="1">
+        <v>8039</v>
+      </c>
+      <c r="C1834" s="2"/>
+      <c r="D1834" s="2"/>
+      <c r="E1834" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1834" s="2"/>
+      <c r="G1834" s="2"/>
+      <c r="H1834" s="2"/>
+    </row>
+    <row r="1835" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1835" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1835" s="1">
+        <v>8040</v>
+      </c>
+      <c r="C1835" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1835" s="2"/>
+      <c r="E1835" s="2"/>
+      <c r="F1835" s="2"/>
+      <c r="G1835" s="2"/>
+      <c r="H1835" s="2"/>
+    </row>
+    <row r="1836" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1836" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1836" s="1">
+        <v>8041</v>
+      </c>
+      <c r="C1836" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1836" s="2"/>
+      <c r="E1836" s="2"/>
+      <c r="F1836" s="2"/>
+      <c r="G1836" s="2"/>
+      <c r="H1836" s="2"/>
+    </row>
+    <row r="1837" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1837" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1837" s="1">
+        <v>8042</v>
+      </c>
+      <c r="C1837" s="2"/>
+      <c r="D1837" s="2"/>
+      <c r="E1837" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1837" s="2"/>
+      <c r="G1837" s="2"/>
+      <c r="H1837" s="2"/>
+    </row>
+    <row r="1838" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1838" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1838" s="1">
+        <v>8043</v>
+      </c>
+      <c r="C1838" s="2"/>
+      <c r="D1838" s="2"/>
+      <c r="E1838" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1838" s="2"/>
+      <c r="G1838" s="2"/>
+      <c r="H1838" s="2"/>
+    </row>
+    <row r="1839" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1839" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1839" s="1">
+        <v>8044</v>
+      </c>
+      <c r="C1839" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1839" s="2"/>
+      <c r="E1839" s="2"/>
+      <c r="F1839" s="2"/>
+      <c r="G1839" s="2"/>
+      <c r="H1839" s="2"/>
+    </row>
+    <row r="1840" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1840" s="3">
+        <v>43698</v>
+      </c>
+      <c r="B1840" s="1">
+        <v>8045</v>
+      </c>
+      <c r="C1840" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1840" s="2"/>
+      <c r="E1840" s="2"/>
+      <c r="F1840" s="2"/>
+      <c r="G1840" s="2"/>
+      <c r="H1840" s="2"/>
+    </row>
+    <row r="1841" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1841" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1841" s="1">
+        <v>8046</v>
+      </c>
+      <c r="C1841" s="2"/>
+      <c r="D1841" s="2"/>
+      <c r="E1841" s="2">
+        <v>16</v>
+      </c>
+      <c r="F1841" s="2"/>
+      <c r="G1841" s="2"/>
+      <c r="H1841" s="2"/>
+    </row>
+    <row r="1842" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1842" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1842" s="1">
+        <v>8047</v>
+      </c>
+      <c r="C1842" s="2"/>
+      <c r="D1842" s="2"/>
+      <c r="E1842" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1842" s="2"/>
+      <c r="G1842" s="2"/>
+      <c r="H1842" s="2"/>
+    </row>
+    <row r="1843" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1843" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1843" s="1">
+        <v>8048</v>
+      </c>
+      <c r="C1843" s="2"/>
+      <c r="D1843" s="2"/>
+      <c r="E1843" s="2"/>
+      <c r="F1843" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1843" s="2"/>
+      <c r="H1843" s="2"/>
+    </row>
+    <row r="1844" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1844" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1844" s="1">
+        <v>8049</v>
+      </c>
+      <c r="C1844" s="2"/>
+      <c r="D1844" s="2"/>
+      <c r="E1844" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1844" s="2"/>
+      <c r="G1844" s="2"/>
+      <c r="H1844" s="2"/>
+    </row>
+    <row r="1845" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1845" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1845" s="1">
+        <v>8050</v>
+      </c>
+      <c r="C1845" s="2">
+        <v>24</v>
+      </c>
+      <c r="D1845" s="2"/>
+      <c r="E1845" s="2"/>
+      <c r="F1845" s="2"/>
+      <c r="G1845" s="2"/>
+      <c r="H1845" s="2"/>
+    </row>
+    <row r="1846" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1846" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1846" s="1">
+        <v>8051</v>
+      </c>
+      <c r="C1846" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1846" s="2"/>
+      <c r="E1846" s="2"/>
+      <c r="F1846" s="2"/>
+      <c r="G1846" s="2"/>
+      <c r="H1846" s="2"/>
+    </row>
+    <row r="1847" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1847" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1847" s="1">
+        <v>8052</v>
+      </c>
+      <c r="C1847" s="2"/>
+      <c r="D1847" s="2"/>
+      <c r="E1847" s="2"/>
+      <c r="F1847" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1847" s="2"/>
+      <c r="H1847" s="2"/>
+    </row>
+    <row r="1848" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1848" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1848" s="1">
+        <v>8053</v>
+      </c>
+      <c r="C1848" s="2"/>
+      <c r="D1848" s="2"/>
+      <c r="E1848" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1848" s="2"/>
+      <c r="G1848" s="2"/>
+      <c r="H1848" s="2"/>
+    </row>
+    <row r="1849" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1849" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1849" s="1">
+        <v>8055</v>
+      </c>
+      <c r="C1849" s="2"/>
+      <c r="D1849" s="2"/>
+      <c r="E1849" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1849" s="2"/>
+      <c r="G1849" s="2"/>
+      <c r="H1849" s="2"/>
+    </row>
+    <row r="1850" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1850" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1850" s="1">
+        <v>8056</v>
+      </c>
+      <c r="C1850" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1850" s="2"/>
+      <c r="E1850" s="2"/>
+      <c r="F1850" s="2"/>
+      <c r="G1850" s="2"/>
+      <c r="H1850" s="2"/>
+    </row>
+    <row r="1851" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1851" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1851" s="1">
+        <v>8057</v>
+      </c>
+      <c r="C1851" s="2"/>
+      <c r="D1851" s="2"/>
+      <c r="E1851" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1851" s="2"/>
+      <c r="G1851" s="2"/>
+      <c r="H1851" s="2"/>
+    </row>
+    <row r="1852" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1852" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1852" s="1">
+        <v>8058</v>
+      </c>
+      <c r="C1852" s="2"/>
+      <c r="D1852" s="2"/>
+      <c r="E1852" s="2"/>
+      <c r="F1852" s="2">
+        <v>7</v>
+      </c>
+      <c r="G1852" s="2"/>
+      <c r="H1852" s="2"/>
+    </row>
+    <row r="1853" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1853" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1853" s="1">
+        <v>8054</v>
+      </c>
+      <c r="C1853" s="2"/>
+      <c r="D1853" s="2"/>
+      <c r="E1853" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1853" s="2"/>
+      <c r="G1853" s="2"/>
+      <c r="H1853" s="2"/>
+    </row>
+    <row r="1854" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1854" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1854" s="1">
+        <v>8059</v>
+      </c>
+      <c r="C1854" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1854" s="2"/>
+      <c r="E1854" s="2"/>
+      <c r="F1854" s="2"/>
+      <c r="G1854" s="2"/>
+      <c r="H1854" s="2"/>
+    </row>
+    <row r="1855" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1855" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B1855" s="1">
+        <v>8060</v>
+      </c>
+      <c r="C1855" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1855" s="2"/>
+      <c r="E1855" s="2"/>
+      <c r="F1855" s="2"/>
+      <c r="G1855" s="2"/>
+      <c r="H1855" s="2"/>
+    </row>
+    <row r="1856" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1856" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1856" s="1">
+        <v>8061</v>
+      </c>
+      <c r="C1856" s="2"/>
+      <c r="D1856" s="2"/>
+      <c r="E1856" s="2"/>
+      <c r="F1856" s="2"/>
+      <c r="G1856" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1856" s="2"/>
+    </row>
+    <row r="1857" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1857" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1857" s="1">
+        <v>8062</v>
+      </c>
+      <c r="C1857" s="2"/>
+      <c r="D1857" s="2"/>
+      <c r="E1857" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1857" s="2"/>
+      <c r="G1857" s="2"/>
+      <c r="H1857" s="2"/>
+    </row>
+    <row r="1858" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1858" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1858" s="1">
+        <v>8063</v>
+      </c>
+      <c r="C1858" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1858" s="2"/>
+      <c r="E1858" s="2"/>
+      <c r="F1858" s="2"/>
+      <c r="G1858" s="2"/>
+      <c r="H1858" s="2"/>
+    </row>
+    <row r="1859" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1859" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1859" s="1">
+        <v>8064</v>
+      </c>
+      <c r="C1859" s="2">
+        <v>16</v>
+      </c>
+      <c r="D1859" s="2"/>
+      <c r="E1859" s="2"/>
+      <c r="F1859" s="2"/>
+      <c r="G1859" s="2"/>
+      <c r="H1859" s="2"/>
+    </row>
+    <row r="1860" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1860" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1860" s="1">
+        <v>8065</v>
+      </c>
+      <c r="C1860" s="2"/>
+      <c r="D1860" s="2"/>
+      <c r="E1860" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1860" s="2"/>
+      <c r="G1860" s="2"/>
+      <c r="H1860" s="2"/>
+    </row>
+    <row r="1861" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1861" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1861" s="1">
+        <v>8066</v>
+      </c>
+      <c r="C1861" s="2"/>
+      <c r="D1861" s="2"/>
+      <c r="E1861" s="2"/>
+      <c r="F1861" s="2"/>
+      <c r="G1861" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H1861" s="2"/>
+    </row>
+    <row r="1862" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1862" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1862" s="1">
+        <v>8067</v>
+      </c>
+      <c r="C1862" s="2"/>
+      <c r="D1862" s="2"/>
+      <c r="E1862" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1862" s="2"/>
+      <c r="G1862" s="2"/>
+      <c r="H1862" s="2"/>
+    </row>
+    <row r="1863" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1863" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1863" s="1">
+        <v>8068</v>
+      </c>
+      <c r="C1863" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1863" s="2"/>
+      <c r="E1863" s="2"/>
+      <c r="F1863" s="2"/>
+      <c r="G1863" s="2"/>
+      <c r="H1863" s="2"/>
+    </row>
+    <row r="1864" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1864" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1864" s="1">
+        <v>8069</v>
+      </c>
+      <c r="C1864" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1864" s="2"/>
+      <c r="E1864" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1864" s="2"/>
+      <c r="G1864" s="2"/>
+      <c r="H1864" s="2"/>
+    </row>
+    <row r="1865" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1865" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1865" s="1">
+        <v>8070</v>
+      </c>
+      <c r="C1865" s="2"/>
+      <c r="D1865" s="2"/>
+      <c r="E1865" s="2"/>
+      <c r="F1865" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G1865" s="2"/>
+      <c r="H1865" s="2"/>
+    </row>
+    <row r="1866" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1866" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1866" s="1">
+        <v>8072</v>
+      </c>
+      <c r="C1866" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1866" s="2"/>
+      <c r="E1866" s="2"/>
+      <c r="F1866" s="2"/>
+      <c r="G1866" s="2"/>
+      <c r="H1866" s="2"/>
+    </row>
+    <row r="1867" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1867" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1867" s="1">
+        <v>8073</v>
+      </c>
+      <c r="C1867" s="2">
+        <v>40</v>
+      </c>
+      <c r="D1867" s="2"/>
+      <c r="E1867" s="2"/>
+      <c r="F1867" s="2"/>
+      <c r="G1867" s="2"/>
+      <c r="H1867" s="2"/>
+    </row>
+    <row r="1868" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1868" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1868" s="1">
+        <v>8074</v>
+      </c>
+      <c r="C1868" s="2"/>
+      <c r="D1868" s="2"/>
+      <c r="E1868" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1868" s="2"/>
+      <c r="G1868" s="2"/>
+      <c r="H1868" s="2"/>
+    </row>
+    <row r="1869" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1869" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1869" s="1">
+        <v>8075</v>
+      </c>
+      <c r="C1869" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1869" s="2"/>
+      <c r="E1869" s="2"/>
+      <c r="F1869" s="2"/>
+      <c r="G1869" s="2"/>
+      <c r="H1869" s="2"/>
+    </row>
+    <row r="1870" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1870" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1870" s="1">
+        <v>8076</v>
+      </c>
+      <c r="C1870" s="2"/>
+      <c r="D1870" s="2"/>
+      <c r="E1870" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1870" s="2"/>
+      <c r="G1870" s="2"/>
+      <c r="H1870" s="2"/>
+    </row>
+    <row r="1871" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1871" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1871" s="1">
+        <v>8077</v>
+      </c>
+      <c r="C1871" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1871" s="2"/>
+      <c r="E1871" s="2"/>
+      <c r="F1871" s="2"/>
+      <c r="G1871" s="2"/>
+      <c r="H1871" s="2"/>
+    </row>
+    <row r="1872" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1872" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1872" s="1">
+        <v>8078</v>
+      </c>
+      <c r="C1872" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1872" s="2"/>
+      <c r="E1872" s="2"/>
+      <c r="F1872" s="2"/>
+      <c r="G1872" s="2"/>
+      <c r="H1872" s="2"/>
+    </row>
+    <row r="1873" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1873" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1873" s="1">
+        <v>8079</v>
+      </c>
+      <c r="C1873" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1873" s="2"/>
+      <c r="E1873" s="2"/>
+      <c r="F1873" s="2"/>
+      <c r="G1873" s="2"/>
+      <c r="H1873" s="2"/>
+    </row>
+    <row r="1874" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1874" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1874" s="1">
+        <v>8080</v>
+      </c>
+      <c r="C1874" s="2"/>
+      <c r="D1874" s="2"/>
+      <c r="E1874" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1874" s="2"/>
+      <c r="G1874" s="2"/>
+      <c r="H1874" s="2"/>
+    </row>
+    <row r="1875" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1875" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1875" s="1">
+        <v>8081</v>
+      </c>
+      <c r="C1875" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1875" s="2"/>
+      <c r="E1875" s="2"/>
+      <c r="F1875" s="2"/>
+      <c r="G1875" s="2"/>
+      <c r="H1875" s="2"/>
+    </row>
+    <row r="1876" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1876" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1876" s="1">
+        <v>8082</v>
+      </c>
+      <c r="C1876" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1876" s="2"/>
+      <c r="E1876" s="2"/>
+      <c r="F1876" s="2"/>
+      <c r="G1876" s="2"/>
+      <c r="H1876" s="2"/>
+    </row>
+    <row r="1877" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1877" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1877" s="1">
+        <v>8083</v>
+      </c>
+      <c r="C1877" s="2">
+        <v>16</v>
+      </c>
+      <c r="D1877" s="2"/>
+      <c r="E1877" s="2"/>
+      <c r="F1877" s="2"/>
+      <c r="G1877" s="2"/>
+      <c r="H1877" s="2"/>
+    </row>
+    <row r="1878" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1878" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1878" s="1">
+        <v>8084</v>
+      </c>
+      <c r="C1878" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1878" s="2"/>
+      <c r="E1878" s="2"/>
+      <c r="F1878" s="2"/>
+      <c r="G1878" s="2"/>
+      <c r="H1878" s="2"/>
+    </row>
+    <row r="1879" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1879" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1879" s="1">
+        <v>8085</v>
+      </c>
+      <c r="C1879" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1879" s="2"/>
+      <c r="E1879" s="2"/>
+      <c r="F1879" s="2"/>
+      <c r="G1879" s="2"/>
+      <c r="H1879" s="2"/>
+    </row>
+    <row r="1880" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1880" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1880" s="1">
+        <v>8086</v>
+      </c>
+      <c r="C1880" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1880" s="2"/>
+      <c r="E1880" s="2"/>
+      <c r="F1880" s="2"/>
+      <c r="G1880" s="2"/>
+      <c r="H1880" s="2"/>
+    </row>
+    <row r="1881" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1881" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1881" s="1">
+        <v>8087</v>
+      </c>
+      <c r="C1881" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1881" s="2"/>
+      <c r="E1881" s="2"/>
+      <c r="F1881" s="2"/>
+      <c r="G1881" s="2"/>
+      <c r="H1881" s="2"/>
+    </row>
+    <row r="1882" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1882" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B1882" s="1">
+        <v>8092</v>
+      </c>
+      <c r="C1882" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1882" s="2"/>
+      <c r="E1882" s="2"/>
+      <c r="F1882" s="2"/>
+      <c r="G1882" s="2"/>
+      <c r="H1882" s="2"/>
+    </row>
+    <row r="1883" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1883" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1883" s="1">
+        <v>8551</v>
+      </c>
+      <c r="C1883" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1883" s="2"/>
+      <c r="E1883" s="2"/>
+      <c r="F1883" s="2"/>
+      <c r="G1883" s="2"/>
+      <c r="H1883" s="2"/>
+    </row>
+    <row r="1884" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1884" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1884" s="1">
+        <v>8552</v>
+      </c>
+      <c r="C1884" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1884" s="2"/>
+      <c r="E1884" s="2"/>
+      <c r="F1884" s="2"/>
+      <c r="G1884" s="2"/>
+      <c r="H1884" s="2"/>
+    </row>
+    <row r="1885" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1885" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1885" s="1">
+        <v>8553</v>
+      </c>
+      <c r="C1885" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1885" s="2"/>
+      <c r="E1885" s="2"/>
+      <c r="F1885" s="2"/>
+      <c r="G1885" s="2"/>
+      <c r="H1885" s="2"/>
+    </row>
+    <row r="1886" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1886" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1886" s="1">
+        <v>8554</v>
+      </c>
+      <c r="C1886" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1886" s="2"/>
+      <c r="E1886" s="2"/>
+      <c r="F1886" s="2"/>
+      <c r="G1886" s="2"/>
+      <c r="H1886" s="2"/>
+    </row>
+    <row r="1887" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1887" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1887" s="1">
+        <v>8555</v>
+      </c>
+      <c r="C1887" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1887" s="2"/>
+      <c r="E1887" s="2"/>
+      <c r="F1887" s="2"/>
+      <c r="G1887" s="2"/>
+      <c r="H1887" s="2"/>
+    </row>
+    <row r="1888" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1888" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1888" s="1">
+        <v>8556</v>
+      </c>
+      <c r="C1888" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1888" s="2"/>
+      <c r="E1888" s="2"/>
+      <c r="F1888" s="2"/>
+      <c r="G1888" s="2"/>
+      <c r="H1888" s="2"/>
+    </row>
+    <row r="1889" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1889" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1889" s="1">
+        <v>3295</v>
+      </c>
+      <c r="C1889" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1889" s="2"/>
+      <c r="E1889" s="2"/>
+      <c r="F1889" s="2"/>
+      <c r="G1889" s="2"/>
+      <c r="H1889" s="2"/>
+    </row>
+    <row r="1890" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1890" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1890" s="1">
+        <v>3296</v>
+      </c>
+      <c r="C1890" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1890" s="2"/>
+      <c r="E1890" s="2"/>
+      <c r="F1890" s="2"/>
+      <c r="G1890" s="2"/>
+      <c r="H1890" s="2"/>
+    </row>
+    <row r="1891" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1891" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1891" s="1">
+        <v>8088</v>
+      </c>
+      <c r="C1891" s="2"/>
+      <c r="D1891" s="2"/>
+      <c r="E1891" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1891" s="2"/>
+      <c r="G1891" s="2"/>
+      <c r="H1891" s="2"/>
+    </row>
+    <row r="1892" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1892" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1892" s="1">
+        <v>8089</v>
+      </c>
+      <c r="C1892" s="2"/>
+      <c r="D1892" s="2"/>
+      <c r="E1892" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1892" s="2"/>
+      <c r="G1892" s="2"/>
+      <c r="H1892" s="2"/>
+    </row>
+    <row r="1893" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1893" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1893" s="1">
+        <v>8090</v>
+      </c>
+      <c r="C1893" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1893" s="2"/>
+      <c r="E1893" s="2"/>
+      <c r="F1893" s="2"/>
+      <c r="G1893" s="2"/>
+      <c r="H1893" s="2"/>
+    </row>
+    <row r="1894" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1894" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1894" s="1">
+        <v>8091</v>
+      </c>
+      <c r="C1894" s="2"/>
+      <c r="D1894" s="2"/>
+      <c r="E1894" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1894" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1894" s="2"/>
+      <c r="H1894" s="2"/>
+    </row>
+    <row r="1895" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1895" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1895" s="1">
+        <v>8093</v>
+      </c>
+      <c r="C1895" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1895" s="2"/>
+      <c r="E1895" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1895" s="2"/>
+      <c r="G1895" s="2"/>
+      <c r="H1895" s="2"/>
+    </row>
+    <row r="1896" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1896" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1896" s="1">
+        <v>8094</v>
+      </c>
+      <c r="C1896" s="2"/>
+      <c r="D1896" s="2"/>
+      <c r="E1896" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1896" s="2"/>
+      <c r="G1896" s="2"/>
+      <c r="H1896" s="2"/>
+    </row>
+    <row r="1897" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1897" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1897" s="1">
+        <v>8095</v>
+      </c>
+      <c r="C1897" s="2">
+        <v>24</v>
+      </c>
+      <c r="D1897" s="2"/>
+      <c r="E1897" s="2"/>
+      <c r="F1897" s="2"/>
+      <c r="G1897" s="2"/>
+      <c r="H1897" s="2"/>
+    </row>
+    <row r="1898" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1898" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1898" s="1">
+        <v>8096</v>
+      </c>
+      <c r="C1898" s="2"/>
+      <c r="D1898" s="2"/>
+      <c r="E1898" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1898" s="2"/>
+      <c r="G1898" s="2"/>
+      <c r="H1898" s="2"/>
+    </row>
+    <row r="1899" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1899" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1899" s="1">
+        <v>8097</v>
+      </c>
+      <c r="C1899" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1899" s="2"/>
+      <c r="E1899" s="2"/>
+      <c r="F1899" s="2"/>
+      <c r="G1899" s="2"/>
+      <c r="H1899" s="2"/>
+    </row>
+    <row r="1900" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1900" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1900" s="1">
+        <v>8098</v>
+      </c>
+      <c r="C1900" s="2"/>
+      <c r="D1900" s="2"/>
+      <c r="E1900" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F1900" s="2"/>
+      <c r="G1900" s="2"/>
+      <c r="H1900" s="2"/>
+    </row>
+    <row r="1901" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1901" s="3">
+        <v>43703</v>
+      </c>
+      <c r="B1901" s="1">
+        <v>8099</v>
+      </c>
+      <c r="C1901" s="2"/>
+      <c r="D1901" s="2"/>
+      <c r="E1901" s="2"/>
+      <c r="F1901" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G1901" s="2"/>
+      <c r="H1901" s="2"/>
+    </row>
+    <row r="1902" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1902" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1902" s="1">
+        <v>8100</v>
+      </c>
+      <c r="C1902" s="2"/>
+      <c r="D1902" s="2"/>
+      <c r="E1902" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1902" s="2"/>
+      <c r="G1902" s="2"/>
+      <c r="H1902" s="2"/>
+    </row>
+    <row r="1903" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1903" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1903" s="1">
+        <v>9401</v>
+      </c>
+      <c r="C1903" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1903" s="2"/>
+      <c r="E1903" s="2"/>
+      <c r="F1903" s="2"/>
+      <c r="G1903" s="2"/>
+      <c r="H1903" s="2"/>
+    </row>
+    <row r="1904" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1904" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1904" s="1">
+        <v>9402</v>
+      </c>
+      <c r="C1904" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1904" s="2"/>
+      <c r="E1904" s="2"/>
+      <c r="F1904" s="2"/>
+      <c r="G1904" s="2"/>
+      <c r="H1904" s="2"/>
+    </row>
+    <row r="1905" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1905" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1905" s="1">
+        <v>9403</v>
+      </c>
+      <c r="C1905" s="2"/>
+      <c r="D1905" s="2"/>
+      <c r="E1905" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1905" s="2"/>
+      <c r="G1905" s="2"/>
+      <c r="H1905" s="2"/>
+    </row>
+    <row r="1906" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1906" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1906" s="1">
+        <v>9404</v>
+      </c>
+      <c r="C1906" s="2">
+        <v>40</v>
+      </c>
+      <c r="D1906" s="2"/>
+      <c r="E1906" s="2"/>
+      <c r="F1906" s="2"/>
+      <c r="G1906" s="2"/>
+      <c r="H1906" s="2"/>
+    </row>
+    <row r="1907" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1907" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1907" s="1">
+        <v>9405</v>
+      </c>
+      <c r="C1907" s="2"/>
+      <c r="D1907" s="2"/>
+      <c r="E1907" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1907" s="2"/>
+      <c r="G1907" s="2"/>
+      <c r="H1907" s="2"/>
+    </row>
+    <row r="1908" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1908" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1908" s="1">
+        <v>9406</v>
+      </c>
+      <c r="C1908" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1908" s="2"/>
+      <c r="E1908" s="2"/>
+      <c r="F1908" s="2"/>
+      <c r="G1908" s="2"/>
+      <c r="H1908" s="2"/>
+    </row>
+    <row r="1909" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1909" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1909" s="1">
+        <v>9407</v>
+      </c>
+      <c r="C1909" s="2"/>
+      <c r="D1909" s="2"/>
+      <c r="E1909" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1909" s="2"/>
+      <c r="G1909" s="2"/>
+      <c r="H1909" s="2"/>
+    </row>
+    <row r="1910" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1910" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1910" s="1">
+        <v>9408</v>
+      </c>
+      <c r="C1910" s="2"/>
+      <c r="D1910" s="2"/>
+      <c r="E1910" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1910" s="2"/>
+      <c r="G1910" s="2"/>
+      <c r="H1910" s="2"/>
+    </row>
+    <row r="1911" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1911" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1911" s="1">
+        <v>9409</v>
+      </c>
+      <c r="C1911" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1911" s="2"/>
+      <c r="E1911" s="2"/>
+      <c r="F1911" s="2"/>
+      <c r="G1911" s="2"/>
+      <c r="H1911" s="2"/>
+    </row>
+    <row r="1912" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1912" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1912" s="1">
+        <v>9410</v>
+      </c>
+      <c r="C1912" s="2"/>
+      <c r="D1912" s="2"/>
+      <c r="E1912" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1912" s="2"/>
+      <c r="G1912" s="2"/>
+      <c r="H1912" s="2"/>
+    </row>
+    <row r="1913" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1913" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1913" s="1">
+        <v>9411</v>
+      </c>
+      <c r="C1913" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1913" s="2"/>
+      <c r="E1913" s="2"/>
+      <c r="F1913" s="2"/>
+      <c r="G1913" s="2"/>
+      <c r="H1913" s="2"/>
+    </row>
+    <row r="1914" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1914" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1914" s="1">
+        <v>9412</v>
+      </c>
+      <c r="C1914" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1914" s="2"/>
+      <c r="E1914" s="2"/>
+      <c r="F1914" s="2"/>
+      <c r="G1914" s="2"/>
+      <c r="H1914" s="2"/>
+    </row>
+    <row r="1915" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1915" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1915" s="1">
+        <v>9413</v>
+      </c>
+      <c r="C1915" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1915" s="2"/>
+      <c r="E1915" s="2"/>
+      <c r="F1915" s="2"/>
+      <c r="G1915" s="2"/>
+      <c r="H1915" s="2"/>
+    </row>
+    <row r="1916" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1916" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1916" s="1">
+        <v>9414</v>
+      </c>
+      <c r="C1916" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1916" s="2"/>
+      <c r="E1916" s="2"/>
+      <c r="F1916" s="2"/>
+      <c r="G1916" s="2"/>
+      <c r="H1916" s="2"/>
+    </row>
+    <row r="1917" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1917" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1917" s="1">
+        <v>9415</v>
+      </c>
+      <c r="C1917" s="2"/>
+      <c r="D1917" s="2"/>
+      <c r="E1917" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F1917" s="2"/>
+      <c r="G1917" s="2"/>
+      <c r="H1917" s="2"/>
+    </row>
+    <row r="1918" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1918" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1918" s="1">
+        <v>9416</v>
+      </c>
+      <c r="C1918" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1918" s="2"/>
+      <c r="E1918" s="2"/>
+      <c r="F1918" s="2"/>
+      <c r="G1918" s="2"/>
+      <c r="H1918" s="2"/>
+    </row>
+    <row r="1919" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1919" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1919" s="1">
+        <v>9417</v>
+      </c>
+      <c r="C1919" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1919" s="2"/>
+      <c r="E1919" s="2"/>
+      <c r="F1919" s="2"/>
+      <c r="G1919" s="2"/>
+      <c r="H1919" s="2"/>
+    </row>
+    <row r="1920" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1920" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1920" s="1">
+        <v>9418</v>
+      </c>
+      <c r="C1920" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1920" s="2"/>
+      <c r="E1920" s="2"/>
+      <c r="F1920" s="2"/>
+      <c r="G1920" s="2"/>
+      <c r="H1920" s="2"/>
+    </row>
+    <row r="1921" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1921" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B1921" s="1">
+        <v>9419</v>
+      </c>
+      <c r="C1921" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1921" s="2"/>
+      <c r="E1921" s="2"/>
+      <c r="F1921" s="2"/>
+      <c r="G1921" s="2"/>
+      <c r="H1921" s="2"/>
+    </row>
+    <row r="1922" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1922" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1922" s="1">
+        <v>9420</v>
+      </c>
+      <c r="C1922" s="2"/>
+      <c r="D1922" s="2"/>
+      <c r="E1922" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1922" s="2"/>
+      <c r="G1922" s="2"/>
+      <c r="H1922" s="2"/>
+    </row>
+    <row r="1923" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1923" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1923" s="1">
+        <v>9421</v>
+      </c>
+      <c r="C1923" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1923" s="2"/>
+      <c r="E1923" s="2"/>
+      <c r="F1923" s="2"/>
+      <c r="G1923" s="2"/>
+      <c r="H1923" s="2"/>
+    </row>
+    <row r="1924" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1924" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1924" s="1">
+        <v>9422</v>
+      </c>
+      <c r="C1924" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1924" s="2"/>
+      <c r="E1924" s="2"/>
+      <c r="F1924" s="2"/>
+      <c r="G1924" s="2"/>
+      <c r="H1924" s="2"/>
+    </row>
+    <row r="1925" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1925" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1925" s="1">
+        <v>9423</v>
+      </c>
+      <c r="C1925" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D1925" s="2"/>
+      <c r="E1925" s="2"/>
+      <c r="F1925" s="2"/>
+      <c r="G1925" s="2"/>
+      <c r="H1925" s="2"/>
+    </row>
+    <row r="1926" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1926" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1926" s="1">
+        <v>9424</v>
+      </c>
+      <c r="C1926" s="2"/>
+      <c r="D1926" s="2"/>
+      <c r="E1926" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1926" s="2"/>
+      <c r="G1926" s="2"/>
+      <c r="H1926" s="2"/>
+    </row>
+    <row r="1927" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1927" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1927" s="1">
+        <v>9425</v>
+      </c>
+      <c r="C1927" s="2"/>
+      <c r="D1927" s="2"/>
+      <c r="E1927" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1927" s="2"/>
+      <c r="G1927" s="2"/>
+      <c r="H1927" s="2"/>
+    </row>
+    <row r="1928" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1928" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1928" s="1">
+        <v>9426</v>
+      </c>
+      <c r="C1928" s="2"/>
+      <c r="D1928" s="2"/>
+      <c r="E1928" s="2"/>
+      <c r="F1928" s="2"/>
+      <c r="G1928" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="H1928" s="2"/>
+    </row>
+    <row r="1929" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1929" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1929" s="1">
+        <v>9427</v>
+      </c>
+      <c r="C1929" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1929" s="2"/>
+      <c r="E1929" s="2"/>
+      <c r="F1929" s="2"/>
+      <c r="G1929" s="2"/>
+      <c r="H1929" s="2"/>
+    </row>
+    <row r="1930" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1930" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1930" s="1">
+        <v>9427</v>
+      </c>
+      <c r="C1930" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1930" s="2"/>
+      <c r="E1930" s="2"/>
+      <c r="F1930" s="2"/>
+      <c r="G1930" s="2"/>
+      <c r="H1930" s="2"/>
+    </row>
+    <row r="1931" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1931" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1931" s="1">
+        <v>9459</v>
+      </c>
+      <c r="C1931" s="2"/>
+      <c r="D1931" s="2"/>
+      <c r="E1931" s="2"/>
+      <c r="F1931" s="2"/>
+      <c r="G1931" s="2"/>
+      <c r="H1931" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1932" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1932" s="1">
+        <v>9460</v>
+      </c>
+      <c r="C1932" s="2"/>
+      <c r="D1932" s="2"/>
+      <c r="E1932" s="2"/>
+      <c r="F1932" s="2"/>
+      <c r="G1932" s="2"/>
+      <c r="H1932" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1933" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1933" s="1">
+        <v>9461</v>
+      </c>
+      <c r="C1933" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1933" s="2"/>
+      <c r="E1933" s="2"/>
+      <c r="F1933" s="2"/>
+      <c r="G1933" s="2"/>
+      <c r="H1933" s="2"/>
+    </row>
+    <row r="1934" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1934" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1934" s="1">
+        <v>9461</v>
+      </c>
+      <c r="C1934" s="2"/>
+      <c r="D1934" s="2"/>
+      <c r="E1934" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1934" s="2"/>
+      <c r="G1934" s="2"/>
+      <c r="H1934" s="2"/>
+    </row>
+    <row r="1935" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1935" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B1935" s="1">
+        <v>9462</v>
+      </c>
+      <c r="C1935" s="2"/>
+      <c r="D1935" s="2"/>
+      <c r="E1935" s="2">
+        <v>40</v>
+      </c>
+      <c r="F1935" s="2"/>
+      <c r="G1935" s="2"/>
+      <c r="H1935" s="2"/>
+    </row>
+    <row r="1936" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1936" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1936" s="1">
+        <v>9432</v>
+      </c>
+      <c r="C1936" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1936" s="2"/>
+      <c r="E1936" s="2"/>
+      <c r="F1936" s="2"/>
+      <c r="G1936" s="2"/>
+      <c r="H1936" s="2"/>
+    </row>
+    <row r="1937" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1937" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1937" s="1">
+        <v>9433</v>
+      </c>
+      <c r="C1937" s="2"/>
+      <c r="D1937" s="2"/>
+      <c r="E1937" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1937" s="2"/>
+      <c r="G1937" s="2"/>
+      <c r="H1937" s="2"/>
+    </row>
+    <row r="1938" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1938" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1938" s="1">
+        <v>9434</v>
+      </c>
+      <c r="C1938" s="2"/>
+      <c r="D1938" s="2"/>
+      <c r="E1938" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F1938" s="2"/>
+      <c r="G1938" s="2"/>
+      <c r="H1938" s="2"/>
+    </row>
+    <row r="1939" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1939" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1939" s="1">
+        <v>9435</v>
+      </c>
+      <c r="C1939" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1939" s="2"/>
+      <c r="E1939" s="2"/>
+      <c r="F1939" s="2"/>
+      <c r="G1939" s="2"/>
+      <c r="H1939" s="2"/>
+    </row>
+    <row r="1940" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1940" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1940" s="1">
+        <v>9436</v>
+      </c>
+      <c r="C1940" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1940" s="2"/>
+      <c r="E1940" s="2"/>
+      <c r="F1940" s="2"/>
+      <c r="G1940" s="2"/>
+      <c r="H1940" s="2"/>
+    </row>
+    <row r="1941" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1941" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1941" s="1">
+        <v>9437</v>
+      </c>
+      <c r="C1941" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1941" s="2"/>
+      <c r="E1941" s="2"/>
+      <c r="F1941" s="2"/>
+      <c r="G1941" s="2"/>
+      <c r="H1941" s="2"/>
+    </row>
+    <row r="1942" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1942" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1942" s="1">
+        <v>9438</v>
+      </c>
+      <c r="C1942" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1942" s="2"/>
+      <c r="E1942" s="2"/>
+      <c r="F1942" s="2"/>
+      <c r="G1942" s="2"/>
+      <c r="H1942" s="2"/>
+    </row>
+    <row r="1943" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1943" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1943" s="1">
+        <v>9439</v>
+      </c>
+      <c r="C1943" s="2"/>
+      <c r="D1943" s="2"/>
+      <c r="E1943" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1943" s="2"/>
+      <c r="G1943" s="2"/>
+      <c r="H1943" s="2"/>
+    </row>
+    <row r="1944" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1944" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1944" s="1">
+        <v>9440</v>
+      </c>
+      <c r="C1944" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1944" s="2"/>
+      <c r="E1944" s="2"/>
+      <c r="F1944" s="2"/>
+      <c r="G1944" s="2"/>
+      <c r="H1944" s="2"/>
+    </row>
+    <row r="1945" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1945" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1945" s="1">
+        <v>9441</v>
+      </c>
+      <c r="C1945" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1945" s="2"/>
+      <c r="E1945" s="2"/>
+      <c r="F1945" s="2"/>
+      <c r="G1945" s="2"/>
+      <c r="H1945" s="2"/>
+    </row>
+    <row r="1946" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1946" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1946" s="1">
+        <v>9442</v>
+      </c>
+      <c r="C1946" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1946" s="2"/>
+      <c r="E1946" s="2"/>
+      <c r="F1946" s="2"/>
+      <c r="G1946" s="2"/>
+      <c r="H1946" s="2"/>
+    </row>
+    <row r="1947" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1947" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B1947" s="1">
+        <v>9443</v>
+      </c>
+      <c r="C1947" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1947" s="2"/>
+      <c r="E1947" s="2"/>
+      <c r="F1947" s="2"/>
+      <c r="G1947" s="2"/>
+      <c r="H1947" s="2"/>
+    </row>
+    <row r="1948" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1948" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1948" s="1">
+        <v>9444</v>
+      </c>
+      <c r="C1948" s="2"/>
+      <c r="D1948" s="2"/>
+      <c r="E1948" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1948" s="2"/>
+      <c r="G1948" s="2"/>
+      <c r="H1948" s="2"/>
+    </row>
+    <row r="1949" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1949" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1949" s="1">
+        <v>9445</v>
+      </c>
+      <c r="C1949" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1949" s="2"/>
+      <c r="E1949" s="2"/>
+      <c r="F1949" s="2"/>
+      <c r="G1949" s="2"/>
+      <c r="H1949" s="2"/>
+    </row>
+    <row r="1950" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1950" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1950" s="1">
+        <v>9446</v>
+      </c>
+      <c r="C1950" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1950" s="2"/>
+      <c r="E1950" s="2"/>
+      <c r="F1950" s="2"/>
+      <c r="G1950" s="2"/>
+      <c r="H1950" s="2"/>
+    </row>
+    <row r="1951" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1951" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1951" s="1">
+        <v>9447</v>
+      </c>
+      <c r="C1951" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1951" s="2"/>
+      <c r="E1951" s="2"/>
+      <c r="F1951" s="2"/>
+      <c r="G1951" s="2"/>
+      <c r="H1951" s="2"/>
+    </row>
+    <row r="1952" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1952" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1952" s="1">
+        <v>9448</v>
+      </c>
+      <c r="C1952" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1952" s="2"/>
+      <c r="E1952" s="2"/>
+      <c r="F1952" s="2"/>
+      <c r="G1952" s="2"/>
+      <c r="H1952" s="2"/>
+    </row>
+    <row r="1953" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1953" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1953" s="1">
+        <v>9449</v>
+      </c>
+      <c r="C1953" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1953" s="2"/>
+      <c r="E1953" s="2"/>
+      <c r="F1953" s="2"/>
+      <c r="G1953" s="2"/>
+      <c r="H1953" s="2"/>
+    </row>
+    <row r="1954" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1954" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1954" s="1">
+        <v>9450</v>
+      </c>
+      <c r="C1954" s="2"/>
+      <c r="D1954" s="2"/>
+      <c r="E1954" s="2"/>
+      <c r="F1954" s="2"/>
+      <c r="G1954" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1954" s="2"/>
+    </row>
+    <row r="1955" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1955" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1955" s="1">
+        <v>9301</v>
+      </c>
+      <c r="C1955" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1955" s="2"/>
+      <c r="E1955" s="2"/>
+      <c r="F1955" s="2"/>
+      <c r="G1955" s="2"/>
+      <c r="H1955" s="2"/>
+    </row>
+    <row r="1956" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1956" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1956" s="1">
+        <v>9302</v>
+      </c>
+      <c r="C1956" s="2"/>
+      <c r="D1956" s="2"/>
+      <c r="E1956" s="2"/>
+      <c r="F1956" s="2"/>
+      <c r="G1956" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1956" s="2"/>
+    </row>
+    <row r="1957" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1957" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1957" s="1">
+        <v>9303</v>
+      </c>
+      <c r="C1957" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1957" s="2"/>
+      <c r="E1957" s="2"/>
+      <c r="F1957" s="2"/>
+      <c r="G1957" s="2"/>
+      <c r="H1957" s="2"/>
+    </row>
+    <row r="1958" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1958" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1958" s="1">
+        <v>9304</v>
+      </c>
+      <c r="C1958" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1958" s="2"/>
+      <c r="E1958" s="2"/>
+      <c r="F1958" s="2"/>
+      <c r="G1958" s="2"/>
+      <c r="H1958" s="2"/>
+    </row>
+    <row r="1959" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1959" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1959" s="1">
+        <v>9305</v>
+      </c>
+      <c r="C1959" s="2"/>
+      <c r="D1959" s="2"/>
+      <c r="E1959" s="2"/>
+      <c r="F1959" s="2"/>
+      <c r="G1959" s="2">
+        <v>7</v>
+      </c>
+      <c r="H1959" s="2"/>
+    </row>
+    <row r="1960" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1960" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1960" s="1">
+        <v>9306</v>
+      </c>
+      <c r="C1960" s="2"/>
+      <c r="D1960" s="2"/>
+      <c r="E1960" s="2"/>
+      <c r="F1960" s="2"/>
+      <c r="G1960" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1960" s="2"/>
+    </row>
+    <row r="1961" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1961" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1961" s="1">
+        <v>9307</v>
+      </c>
+      <c r="C1961" s="2">
+        <v>24</v>
+      </c>
+      <c r="D1961" s="2"/>
+      <c r="E1961" s="2"/>
+      <c r="F1961" s="2"/>
+      <c r="G1961" s="2"/>
+      <c r="H1961" s="2"/>
+    </row>
+    <row r="1962" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1962" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1962" s="1">
+        <v>9308</v>
+      </c>
+      <c r="C1962" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1962" s="2"/>
+      <c r="E1962" s="2"/>
+      <c r="F1962" s="2"/>
+      <c r="G1962" s="2"/>
+      <c r="H1962" s="2"/>
+    </row>
+    <row r="1963" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1963" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1963" s="1">
+        <v>9309</v>
+      </c>
+      <c r="C1963" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1963" s="2"/>
+      <c r="E1963" s="2"/>
+      <c r="F1963" s="2"/>
+      <c r="G1963" s="2"/>
+      <c r="H1963" s="2"/>
+    </row>
+    <row r="1964" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1964" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1964" s="1">
+        <v>9461</v>
+      </c>
+      <c r="C1964" s="2"/>
+      <c r="D1964" s="2"/>
+      <c r="E1964" s="2"/>
+      <c r="F1964" s="2"/>
+      <c r="G1964" s="2"/>
+      <c r="H1964" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1965" s="3">
+        <v>43707</v>
+      </c>
+      <c r="B1965" s="1">
+        <v>9462</v>
+      </c>
+      <c r="C1965" s="2"/>
+      <c r="D1965" s="2"/>
+      <c r="E1965" s="2"/>
+      <c r="F1965" s="2"/>
+      <c r="G1965" s="2"/>
+      <c r="H1965" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1966" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1966" s="1">
+        <v>9310</v>
+      </c>
+      <c r="C1966" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1966" s="2"/>
+      <c r="E1966" s="2"/>
+      <c r="F1966" s="2"/>
+      <c r="G1966" s="2"/>
+      <c r="H1966" s="2"/>
+    </row>
+    <row r="1967" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1967" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1967" s="1">
+        <v>9311</v>
+      </c>
+      <c r="C1967" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1967" s="2"/>
+      <c r="E1967" s="2"/>
+      <c r="F1967" s="2"/>
+      <c r="G1967" s="2"/>
+      <c r="H1967" s="2"/>
+    </row>
+    <row r="1968" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1968" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1968" s="1">
+        <v>9312</v>
+      </c>
+      <c r="C1968" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1968" s="2"/>
+      <c r="E1968" s="2"/>
+      <c r="F1968" s="2"/>
+      <c r="G1968" s="2"/>
+      <c r="H1968" s="2"/>
+    </row>
+    <row r="1969" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1969" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1969" s="1">
+        <v>9313</v>
+      </c>
+      <c r="C1969" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1969" s="2"/>
+      <c r="E1969" s="2"/>
+      <c r="F1969" s="2"/>
+      <c r="G1969" s="2"/>
+      <c r="H1969" s="2"/>
+    </row>
+    <row r="1970" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1970" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1970" s="1">
+        <v>9314</v>
+      </c>
+      <c r="C1970" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1970" s="2"/>
+      <c r="E1970" s="2"/>
+      <c r="F1970" s="2"/>
+      <c r="G1970" s="2"/>
+      <c r="H1970" s="2"/>
+    </row>
+    <row r="1971" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1971" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1971" s="1">
+        <v>9315</v>
+      </c>
+      <c r="C1971" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1971" s="2"/>
+      <c r="E1971" s="2"/>
+      <c r="F1971" s="2"/>
+      <c r="G1971" s="2"/>
+      <c r="H1971" s="2"/>
+    </row>
+    <row r="1972" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1972" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1972" s="1">
+        <v>9316</v>
+      </c>
+      <c r="C1972" s="2">
+        <v>16</v>
+      </c>
+      <c r="D1972" s="2"/>
+      <c r="E1972" s="2"/>
+      <c r="F1972" s="2"/>
+      <c r="G1972" s="2"/>
+      <c r="H1972" s="2"/>
+    </row>
+    <row r="1973" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1973" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1973" s="1">
+        <v>9317</v>
+      </c>
+      <c r="C1973" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1973" s="2"/>
+      <c r="E1973" s="2"/>
+      <c r="F1973" s="2"/>
+      <c r="G1973" s="2"/>
+      <c r="H1973" s="2"/>
+    </row>
+    <row r="1974" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1974" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1974" s="1">
+        <v>9318</v>
+      </c>
+      <c r="C1974" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1974" s="2"/>
+      <c r="E1974" s="2"/>
+      <c r="F1974" s="2"/>
+      <c r="G1974" s="2"/>
+      <c r="H1974" s="2"/>
+    </row>
+    <row r="1975" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1975" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1975" s="1">
+        <v>9319</v>
+      </c>
+      <c r="C1975" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1975" s="2"/>
+      <c r="E1975" s="2"/>
+      <c r="F1975" s="2"/>
+      <c r="G1975" s="2"/>
+      <c r="H1975" s="2"/>
+    </row>
+    <row r="1976" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1976" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1976" s="1">
+        <v>9320</v>
+      </c>
+      <c r="C1976" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1976" s="2"/>
+      <c r="E1976" s="2"/>
+      <c r="F1976" s="2"/>
+      <c r="G1976" s="2"/>
+      <c r="H1976" s="2"/>
+    </row>
+    <row r="1977" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1977" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1977" s="1">
+        <v>9321</v>
+      </c>
+      <c r="C1977" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1977" s="2"/>
+      <c r="E1977" s="2"/>
+      <c r="F1977" s="2"/>
+      <c r="G1977" s="2"/>
+      <c r="H1977" s="2"/>
+    </row>
+    <row r="1978" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1978" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1978" s="1">
+        <v>9322</v>
+      </c>
+      <c r="C1978" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1978" s="2"/>
+      <c r="E1978" s="2"/>
+      <c r="F1978" s="2"/>
+      <c r="G1978" s="2"/>
+      <c r="H1978" s="2"/>
+    </row>
+    <row r="1979" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1979" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1979" s="1">
+        <v>9323</v>
+      </c>
+      <c r="C1979" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1979" s="2"/>
+      <c r="E1979" s="2"/>
+      <c r="F1979" s="2"/>
+      <c r="G1979" s="2"/>
+      <c r="H1979" s="2"/>
+    </row>
+    <row r="1980" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1980" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1980" s="1">
+        <v>9324</v>
+      </c>
+      <c r="C1980" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1980" s="2"/>
+      <c r="E1980" s="2"/>
+      <c r="F1980" s="2"/>
+      <c r="G1980" s="2"/>
+      <c r="H1980" s="2"/>
+    </row>
+    <row r="1981" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1981" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B1981" s="1">
+        <v>9325</v>
+      </c>
+      <c r="C1981" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1981" s="2"/>
+      <c r="E1981" s="2"/>
+      <c r="F1981" s="2"/>
+      <c r="G1981" s="2"/>
+      <c r="H1981" s="2"/>
+    </row>
+    <row r="1982" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1982" s="3">
+        <v>43710</v>
+      </c>
+      <c r="B1982" s="1">
+        <v>9326</v>
+      </c>
+      <c r="C1982" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1982" s="2"/>
+      <c r="E1982" s="2"/>
+      <c r="F1982" s="2"/>
+      <c r="G1982" s="2"/>
+      <c r="H1982" s="2"/>
+    </row>
+    <row r="1983" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1983" s="3">
+        <v>43710</v>
+      </c>
+      <c r="B1983" s="1">
+        <v>9327</v>
+      </c>
+      <c r="C1983" s="2"/>
+      <c r="D1983" s="2"/>
+      <c r="E1983" s="2"/>
+      <c r="F1983" s="2"/>
+      <c r="G1983" s="2"/>
+      <c r="H1983" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1984" s="3">
+        <v>43710</v>
+      </c>
+      <c r="B1984" s="1">
+        <v>9329</v>
+      </c>
+      <c r="C1984" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1984" s="2"/>
+      <c r="E1984" s="2"/>
+      <c r="F1984" s="2"/>
+      <c r="G1984" s="2"/>
+      <c r="H1984" s="2"/>
+    </row>
+    <row r="1985" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1985" s="3">
+        <v>43710</v>
+      </c>
+      <c r="B1985" s="1">
+        <v>9330</v>
+      </c>
+      <c r="C1985" s="2"/>
+      <c r="D1985" s="2"/>
+      <c r="E1985" s="2"/>
+      <c r="F1985" s="2"/>
+      <c r="G1985" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1985" s="2"/>
+    </row>
+    <row r="1986" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1986" s="3">
+        <v>43710</v>
+      </c>
+      <c r="B1986" s="1">
+        <v>9332</v>
+      </c>
+      <c r="C1986" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1986" s="2"/>
+      <c r="E1986" s="2"/>
+      <c r="F1986" s="2"/>
+      <c r="G1986" s="2"/>
+      <c r="H1986" s="2"/>
+    </row>
+    <row r="1987" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1987" s="3">
+        <v>43710</v>
+      </c>
+      <c r="B1987" s="1">
+        <v>9333</v>
+      </c>
+      <c r="C1987" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1987" s="2"/>
+      <c r="E1987" s="2"/>
+      <c r="F1987" s="2"/>
+      <c r="G1987" s="2"/>
+      <c r="H1987" s="2"/>
+    </row>
+    <row r="1988" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1988" s="3">
+        <v>43710</v>
+      </c>
+      <c r="B1988" s="1">
+        <v>9334</v>
+      </c>
+      <c r="C1988" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1988" s="2"/>
+      <c r="E1988" s="2"/>
+      <c r="F1988" s="2"/>
+      <c r="G1988" s="2"/>
+      <c r="H1988" s="2"/>
+    </row>
+    <row r="1989" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1989" s="3">
+        <v>43710</v>
+      </c>
+      <c r="B1989" s="1">
+        <v>9335</v>
+      </c>
+      <c r="C1989" s="2"/>
+      <c r="D1989" s="2"/>
+      <c r="E1989" s="2"/>
+      <c r="F1989" s="2"/>
+      <c r="G1989" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1989" s="2"/>
+    </row>
+    <row r="1990" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1990" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B1990" s="1">
+        <v>9336</v>
+      </c>
+      <c r="C1990" s="2"/>
+      <c r="D1990" s="2"/>
+      <c r="E1990" s="2"/>
+      <c r="F1990" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G1990" s="2"/>
+      <c r="H1990" s="2"/>
+    </row>
+    <row r="1991" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1991" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B1991" s="1">
+        <v>9337</v>
+      </c>
+      <c r="C1991" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1991" s="2"/>
+      <c r="E1991" s="2"/>
+      <c r="F1991" s="2"/>
+      <c r="G1991" s="2"/>
+      <c r="H1991" s="2"/>
+    </row>
+    <row r="1992" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1992" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B1992" s="1">
+        <v>9338</v>
+      </c>
+      <c r="C1992" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D1992" s="2"/>
+      <c r="E1992" s="2"/>
+      <c r="F1992" s="2"/>
+      <c r="G1992" s="2"/>
+      <c r="H1992" s="2"/>
+    </row>
+    <row r="1993" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1993" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B1993" s="1">
+        <v>9339</v>
+      </c>
+      <c r="C1993" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1993" s="2"/>
+      <c r="E1993" s="2"/>
+      <c r="F1993" s="2"/>
+      <c r="G1993" s="2"/>
+      <c r="H1993" s="2"/>
+    </row>
+    <row r="1994" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1994" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B1994" s="1">
+        <v>9340</v>
+      </c>
+      <c r="C1994" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1994" s="2"/>
+      <c r="E1994" s="2"/>
+      <c r="F1994" s="2"/>
+      <c r="G1994" s="2"/>
+      <c r="H1994" s="2"/>
+    </row>
+    <row r="1995" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1995" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B1995" s="1">
+        <v>9341</v>
+      </c>
+      <c r="C1995" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1995" s="2"/>
+      <c r="E1995" s="2"/>
+      <c r="F1995" s="2"/>
+      <c r="G1995" s="2"/>
+      <c r="H1995" s="2"/>
+    </row>
+    <row r="1996" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1996" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B1996" s="1">
+        <v>9342</v>
+      </c>
+      <c r="C1996" s="2">
+        <v>16</v>
+      </c>
+      <c r="D1996" s="2"/>
+      <c r="E1996" s="2"/>
+      <c r="F1996" s="2"/>
+      <c r="G1996" s="2"/>
+      <c r="H1996" s="2"/>
+    </row>
+    <row r="1997" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1997" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B1997" s="1">
+        <v>9343</v>
+      </c>
+      <c r="C1997" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1997" s="2"/>
+      <c r="E1997" s="2"/>
+      <c r="F1997" s="2"/>
+      <c r="G1997" s="2"/>
+      <c r="H1997" s="2"/>
+    </row>
+    <row r="1998" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1998" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B1998" s="1">
+        <v>9344</v>
+      </c>
+      <c r="C1998" s="2">
+        <v>16</v>
+      </c>
+      <c r="D1998" s="2"/>
+      <c r="E1998" s="2"/>
+      <c r="F1998" s="2"/>
+      <c r="G1998" s="2"/>
+      <c r="H1998" s="2"/>
+    </row>
+    <row r="1999" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1999" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B1999" s="1">
+        <v>9345</v>
+      </c>
+      <c r="C1999" s="2"/>
+      <c r="D1999" s="2"/>
+      <c r="E1999" s="2"/>
+      <c r="F1999" s="2"/>
+      <c r="G1999" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1999" s="2"/>
+    </row>
+    <row r="2000" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2000" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B2000" s="1">
+        <v>9346</v>
+      </c>
+      <c r="C2000" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2000" s="2"/>
+      <c r="E2000" s="2"/>
+      <c r="F2000" s="2"/>
+      <c r="G2000" s="2"/>
+      <c r="H2000" s="2"/>
+    </row>
+    <row r="2001" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2001" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2001" s="1">
+        <v>9347</v>
+      </c>
+      <c r="C2001" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2001" s="2"/>
+      <c r="E2001" s="2"/>
+      <c r="F2001" s="2"/>
+      <c r="G2001" s="2"/>
+      <c r="H2001" s="2"/>
+    </row>
+    <row r="2002" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2002" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2002" s="1">
+        <v>9348</v>
+      </c>
+      <c r="C2002" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2002" s="2"/>
+      <c r="E2002" s="2"/>
+      <c r="F2002" s="2"/>
+      <c r="G2002" s="2"/>
+      <c r="H2002" s="2"/>
+    </row>
+    <row r="2003" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2003" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2003" s="1">
+        <v>9349</v>
+      </c>
+      <c r="C2003" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2003" s="2"/>
+      <c r="E2003" s="2"/>
+      <c r="F2003" s="2"/>
+      <c r="G2003" s="2"/>
+      <c r="H2003" s="2"/>
+    </row>
+    <row r="2004" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2004" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2004" s="1">
+        <v>9350</v>
+      </c>
+      <c r="C2004" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2004" s="2"/>
+      <c r="E2004" s="2"/>
+      <c r="F2004" s="2"/>
+      <c r="G2004" s="2"/>
+      <c r="H2004" s="2"/>
+    </row>
+    <row r="2005" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2005" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2005" s="1">
+        <v>9351</v>
+      </c>
+      <c r="C2005" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2005" s="2"/>
+      <c r="E2005" s="2"/>
+      <c r="F2005" s="2"/>
+      <c r="G2005" s="2"/>
+      <c r="H2005" s="2"/>
+    </row>
+    <row r="2006" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2006" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2006" s="1">
+        <v>9352</v>
+      </c>
+      <c r="C2006" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2006" s="2"/>
+      <c r="E2006" s="2"/>
+      <c r="F2006" s="2"/>
+      <c r="G2006" s="2"/>
+      <c r="H2006" s="2"/>
+    </row>
+    <row r="2007" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2007" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2007" s="1">
+        <v>9353</v>
+      </c>
+      <c r="C2007" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2007" s="2"/>
+      <c r="E2007" s="2"/>
+      <c r="F2007" s="2"/>
+      <c r="G2007" s="2"/>
+      <c r="H2007" s="2"/>
+    </row>
+    <row r="2008" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2008" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2008" s="1">
+        <v>9354</v>
+      </c>
+      <c r="C2008" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2008" s="2"/>
+      <c r="E2008" s="2"/>
+      <c r="F2008" s="2"/>
+      <c r="G2008" s="2"/>
+      <c r="H2008" s="2"/>
+    </row>
+    <row r="2009" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2009" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2009" s="1">
+        <v>9355</v>
+      </c>
+      <c r="C2009" s="2">
+        <v>40</v>
+      </c>
+      <c r="D2009" s="2"/>
+      <c r="E2009" s="2"/>
+      <c r="F2009" s="2"/>
+      <c r="G2009" s="2"/>
+      <c r="H2009" s="2"/>
+    </row>
+    <row r="2010" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2010" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2010" s="1">
+        <v>9356</v>
+      </c>
+      <c r="C2010" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2010" s="2"/>
+      <c r="E2010" s="2"/>
+      <c r="F2010" s="2"/>
+      <c r="G2010" s="2"/>
+      <c r="H2010" s="2"/>
+    </row>
+    <row r="2011" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2011" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2011" s="1">
+        <v>9357</v>
+      </c>
+      <c r="C2011" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2011" s="2"/>
+      <c r="E2011" s="2"/>
+      <c r="F2011" s="2"/>
+      <c r="G2011" s="2"/>
+      <c r="H2011" s="2"/>
+    </row>
+    <row r="2012" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2012" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2012" s="1">
+        <v>9358</v>
+      </c>
+      <c r="C2012" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2012" s="2"/>
+      <c r="E2012" s="2"/>
+      <c r="F2012" s="2"/>
+      <c r="G2012" s="2"/>
+      <c r="H2012" s="2"/>
+    </row>
+    <row r="2013" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2013" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2013" s="1">
+        <v>9359</v>
+      </c>
+      <c r="C2013" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2013" s="2"/>
+      <c r="E2013" s="2"/>
+      <c r="F2013" s="2"/>
+      <c r="G2013" s="2"/>
+      <c r="H2013" s="2"/>
+    </row>
+    <row r="2014" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2014" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2014" s="1">
+        <v>9360</v>
+      </c>
+      <c r="C2014" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2014" s="2"/>
+      <c r="E2014" s="2"/>
+      <c r="F2014" s="2"/>
+      <c r="G2014" s="2"/>
+      <c r="H2014" s="2"/>
+    </row>
+    <row r="2015" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2015" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2015" s="1">
+        <v>9361</v>
+      </c>
+      <c r="C2015" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2015" s="2"/>
+      <c r="E2015" s="2"/>
+      <c r="F2015" s="2"/>
+      <c r="G2015" s="2"/>
+      <c r="H2015" s="2"/>
+    </row>
+    <row r="2016" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2016" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2016" s="1">
+        <v>9362</v>
+      </c>
+      <c r="C2016" s="2">
+        <v>24</v>
+      </c>
+      <c r="D2016" s="2"/>
+      <c r="E2016" s="2"/>
+      <c r="F2016" s="2"/>
+      <c r="G2016" s="2"/>
+      <c r="H2016" s="2"/>
+    </row>
+    <row r="2017" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2017" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2017" s="1">
+        <v>9363</v>
+      </c>
+      <c r="C2017" s="2"/>
+      <c r="D2017" s="2"/>
+      <c r="E2017" s="2"/>
+      <c r="F2017" s="2"/>
+      <c r="G2017" s="2"/>
+      <c r="H2017" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2018" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2018" s="1">
+        <v>9364</v>
+      </c>
+      <c r="C2018" s="2"/>
+      <c r="D2018" s="2"/>
+      <c r="E2018" s="2"/>
+      <c r="F2018" s="2"/>
+      <c r="G2018" s="2"/>
+      <c r="H2018" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2019" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B2019" s="1">
+        <v>9365</v>
+      </c>
+      <c r="C2019" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2019" s="2"/>
+      <c r="E2019" s="2"/>
+      <c r="F2019" s="2"/>
+      <c r="G2019" s="2"/>
+      <c r="H2019" s="2"/>
+    </row>
+    <row r="2020" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2020" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2020" s="1">
+        <v>9370</v>
+      </c>
+      <c r="C2020" s="2">
+        <v>16</v>
+      </c>
+      <c r="D2020" s="2"/>
+      <c r="E2020" s="2"/>
+      <c r="F2020" s="2"/>
+      <c r="G2020" s="2"/>
+      <c r="H2020" s="2"/>
+    </row>
+    <row r="2021" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2021" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2021" s="1">
+        <v>9371</v>
+      </c>
+      <c r="C2021" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2021" s="2"/>
+      <c r="E2021" s="2"/>
+      <c r="F2021" s="2"/>
+      <c r="G2021" s="2"/>
+      <c r="H2021" s="2"/>
+    </row>
+    <row r="2022" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2022" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2022" s="1">
+        <v>9372</v>
+      </c>
+      <c r="C2022" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2022" s="2"/>
+      <c r="E2022" s="2"/>
+      <c r="F2022" s="2"/>
+      <c r="G2022" s="2"/>
+      <c r="H2022" s="2"/>
+    </row>
+    <row r="2023" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2023" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2023" s="1">
+        <v>9373</v>
+      </c>
+      <c r="C2023" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2023" s="2"/>
+      <c r="E2023" s="2"/>
+      <c r="F2023" s="2"/>
+      <c r="G2023" s="2"/>
+      <c r="H2023" s="2"/>
+    </row>
+    <row r="2024" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2024" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2024" s="1">
+        <v>9374</v>
+      </c>
+      <c r="C2024" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2024" s="2"/>
+      <c r="E2024" s="2"/>
+      <c r="F2024" s="2"/>
+      <c r="G2024" s="2"/>
+      <c r="H2024" s="2"/>
+    </row>
+    <row r="2025" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2025" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2025" s="1">
+        <v>9375</v>
+      </c>
+      <c r="C2025" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2025" s="2"/>
+      <c r="E2025" s="2"/>
+      <c r="F2025" s="2"/>
+      <c r="G2025" s="2"/>
+      <c r="H2025" s="2"/>
+    </row>
+    <row r="2026" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2026" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2026" s="1">
+        <v>9376</v>
+      </c>
+      <c r="C2026" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2026" s="2"/>
+      <c r="E2026" s="2"/>
+      <c r="F2026" s="2"/>
+      <c r="G2026" s="2"/>
+      <c r="H2026" s="2"/>
+    </row>
+    <row r="2027" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2027" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2027" s="1">
+        <v>9377</v>
+      </c>
+      <c r="C2027" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2027" s="2"/>
+      <c r="E2027" s="2"/>
+      <c r="F2027" s="2"/>
+      <c r="G2027" s="2"/>
+      <c r="H2027" s="2"/>
+    </row>
+    <row r="2028" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2028" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2028" s="1">
+        <v>9378</v>
+      </c>
+      <c r="C2028" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2028" s="2"/>
+      <c r="E2028" s="2"/>
+      <c r="F2028" s="2"/>
+      <c r="G2028" s="2"/>
+      <c r="H2028" s="2"/>
+    </row>
+    <row r="2029" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2029" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2029" s="1">
+        <v>9379</v>
+      </c>
+      <c r="C2029" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2029" s="2"/>
+      <c r="E2029" s="2"/>
+      <c r="F2029" s="2"/>
+      <c r="G2029" s="2"/>
+      <c r="H2029" s="2"/>
+    </row>
+    <row r="2030" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2030" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2030" s="1">
+        <v>9380</v>
+      </c>
+      <c r="C2030" s="2"/>
+      <c r="D2030" s="2"/>
+      <c r="E2030" s="2"/>
+      <c r="F2030" s="2"/>
+      <c r="G2030" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2030" s="2"/>
+    </row>
+    <row r="2031" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2031" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2031" s="1">
+        <v>9381</v>
+      </c>
+      <c r="C2031" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2031" s="2"/>
+      <c r="E2031" s="2"/>
+      <c r="F2031" s="2"/>
+      <c r="G2031" s="2"/>
+      <c r="H2031" s="2"/>
+    </row>
+    <row r="2032" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2032" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2032" s="1">
+        <v>9382</v>
+      </c>
+      <c r="C2032" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2032" s="2"/>
+      <c r="E2032" s="2"/>
+      <c r="F2032" s="2"/>
+      <c r="G2032" s="2"/>
+      <c r="H2032" s="2"/>
+    </row>
+    <row r="2033" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2033" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2033" s="1">
+        <v>9383</v>
+      </c>
+      <c r="C2033" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2033" s="2"/>
+      <c r="E2033" s="2"/>
+      <c r="F2033" s="2"/>
+      <c r="G2033" s="2"/>
+      <c r="H2033" s="2"/>
+    </row>
+    <row r="2034" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2034" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B2034" s="1">
+        <v>9384</v>
+      </c>
+      <c r="C2034" s="2"/>
+      <c r="D2034" s="2"/>
+      <c r="E2034" s="2"/>
+      <c r="F2034" s="2"/>
+      <c r="G2034" s="2"/>
+      <c r="H2034" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2035" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2035" s="1">
+        <v>9385</v>
+      </c>
+      <c r="C2035" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2035" s="2"/>
+      <c r="E2035" s="2"/>
+      <c r="F2035" s="2"/>
+      <c r="G2035" s="2"/>
+      <c r="H2035" s="2"/>
+    </row>
+    <row r="2036" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2036" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2036" s="1">
+        <v>9386</v>
+      </c>
+      <c r="C2036" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2036" s="2"/>
+      <c r="E2036" s="2"/>
+      <c r="F2036" s="2"/>
+      <c r="G2036" s="2"/>
+      <c r="H2036" s="2"/>
+    </row>
+    <row r="2037" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2037" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2037" s="1">
+        <v>9387</v>
+      </c>
+      <c r="C2037" s="2">
+        <v>24</v>
+      </c>
+      <c r="D2037" s="2"/>
+      <c r="E2037" s="2"/>
+      <c r="F2037" s="2"/>
+      <c r="G2037" s="2"/>
+      <c r="H2037" s="2"/>
+    </row>
+    <row r="2038" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2038" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2038" s="1">
+        <v>9388</v>
+      </c>
+      <c r="C2038" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2038" s="2"/>
+      <c r="E2038" s="2"/>
+      <c r="F2038" s="2"/>
+      <c r="G2038" s="2"/>
+      <c r="H2038" s="2"/>
+    </row>
+    <row r="2039" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2039" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2039" s="1">
+        <v>9389</v>
+      </c>
+      <c r="C2039" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2039" s="2"/>
+      <c r="E2039" s="2"/>
+      <c r="F2039" s="2"/>
+      <c r="G2039" s="2"/>
+      <c r="H2039" s="2"/>
+    </row>
+    <row r="2040" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2040" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2040" s="1">
+        <v>9390</v>
+      </c>
+      <c r="C2040" s="2"/>
+      <c r="D2040" s="2"/>
+      <c r="E2040" s="2"/>
+      <c r="F2040" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2040" s="2"/>
+      <c r="H2040" s="2"/>
+    </row>
+    <row r="2041" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2041" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2041" s="1">
+        <v>9391</v>
+      </c>
+      <c r="C2041" s="2"/>
+      <c r="D2041" s="2"/>
+      <c r="E2041" s="2"/>
+      <c r="F2041" s="2"/>
+      <c r="G2041" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H2041" s="2"/>
+    </row>
+    <row r="2042" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2042" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2042" s="1">
+        <v>9392</v>
+      </c>
+      <c r="C2042" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2042" s="2"/>
+      <c r="E2042" s="2"/>
+      <c r="F2042" s="2"/>
+      <c r="G2042" s="2"/>
+      <c r="H2042" s="2"/>
+    </row>
+    <row r="2043" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2043" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2043" s="1">
+        <v>9393</v>
+      </c>
+      <c r="C2043" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2043" s="2"/>
+      <c r="E2043" s="2"/>
+      <c r="F2043" s="2"/>
+      <c r="G2043" s="2"/>
+      <c r="H2043" s="2"/>
+    </row>
+    <row r="2044" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2044" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2044" s="1">
+        <v>9394</v>
+      </c>
+      <c r="C2044" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2044" s="2"/>
+      <c r="E2044" s="2"/>
+      <c r="F2044" s="2"/>
+      <c r="G2044" s="2"/>
+      <c r="H2044" s="2"/>
+    </row>
+    <row r="2045" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2045" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2045" s="1">
+        <v>9395</v>
+      </c>
+      <c r="C2045" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2045" s="2"/>
+      <c r="E2045" s="2"/>
+      <c r="F2045" s="2"/>
+      <c r="G2045" s="2"/>
+      <c r="H2045" s="2"/>
+    </row>
+    <row r="2046" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2046" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2046" s="1">
+        <v>9396</v>
+      </c>
+      <c r="C2046" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2046" s="2"/>
+      <c r="E2046" s="2"/>
+      <c r="F2046" s="2"/>
+      <c r="G2046" s="2"/>
+      <c r="H2046" s="2"/>
+    </row>
+    <row r="2047" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2047" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2047" s="1">
+        <v>9397</v>
+      </c>
+      <c r="C2047" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2047" s="2"/>
+      <c r="E2047" s="2"/>
+      <c r="F2047" s="2"/>
+      <c r="G2047" s="2"/>
+      <c r="H2047" s="2"/>
+    </row>
+    <row r="2048" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2048" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2048" s="1">
+        <v>9398</v>
+      </c>
+      <c r="C2048" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2048" s="2"/>
+      <c r="E2048" s="2"/>
+      <c r="F2048" s="2"/>
+      <c r="G2048" s="2"/>
+      <c r="H2048" s="2"/>
+    </row>
+    <row r="2049" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2049" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2049" s="1">
+        <v>9399</v>
+      </c>
+      <c r="C2049" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2049" s="2">
+        <v>8</v>
+      </c>
+      <c r="E2049" s="2"/>
+      <c r="F2049" s="2"/>
+      <c r="G2049" s="2"/>
+      <c r="H2049" s="2"/>
+    </row>
+    <row r="2050" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2050" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2050" s="1">
+        <v>9400</v>
+      </c>
+      <c r="C2050" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2050" s="2"/>
+      <c r="E2050" s="2"/>
+      <c r="F2050" s="2"/>
+      <c r="G2050" s="2"/>
+      <c r="H2050" s="2"/>
+    </row>
+    <row r="2051" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2051" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2051" s="1">
+        <v>6151</v>
+      </c>
+      <c r="C2051" s="2">
+        <v>40</v>
+      </c>
+      <c r="D2051" s="2"/>
+      <c r="E2051" s="2"/>
+      <c r="F2051" s="2"/>
+      <c r="G2051" s="2"/>
+      <c r="H2051" s="2"/>
+    </row>
+    <row r="2052" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2052" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2052" s="1">
+        <v>6152</v>
+      </c>
+      <c r="C2052" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D2052" s="2"/>
+      <c r="E2052" s="2"/>
+      <c r="F2052" s="2"/>
+      <c r="G2052" s="2"/>
+      <c r="H2052" s="2"/>
+    </row>
+    <row r="2053" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2053" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2053" s="1">
+        <v>6153</v>
+      </c>
+      <c r="C2053" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2053" s="2"/>
+      <c r="E2053" s="2"/>
+      <c r="F2053" s="2"/>
+      <c r="G2053" s="2"/>
+      <c r="H2053" s="2"/>
+    </row>
+    <row r="2054" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2054" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2054" s="1">
+        <v>9467</v>
+      </c>
+      <c r="C2054" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2054" s="2"/>
+      <c r="E2054" s="2"/>
+      <c r="F2054" s="2"/>
+      <c r="G2054" s="2"/>
+      <c r="H2054" s="2"/>
+    </row>
+    <row r="2055" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2055" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B2055" s="1">
+        <v>6154</v>
+      </c>
+      <c r="C2055" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2055" s="2"/>
+      <c r="E2055" s="2"/>
+      <c r="F2055" s="2"/>
+      <c r="G2055" s="2"/>
+      <c r="H2055" s="2"/>
+    </row>
+    <row r="2056" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2056" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B2056" s="1">
+        <v>6155</v>
+      </c>
+      <c r="C2056" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2056" s="2"/>
+      <c r="E2056" s="2"/>
+      <c r="F2056" s="2"/>
+      <c r="G2056" s="2"/>
+      <c r="H2056" s="2"/>
+    </row>
+    <row r="2057" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2057" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B2057" s="1">
+        <v>6156</v>
+      </c>
+      <c r="C2057" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2057" s="2"/>
+      <c r="E2057" s="2"/>
+      <c r="F2057" s="2"/>
+      <c r="G2057" s="2"/>
+      <c r="H2057" s="2"/>
+    </row>
+    <row r="2058" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2058" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B2058" s="1">
+        <v>6157</v>
+      </c>
+      <c r="C2058" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2058" s="2"/>
+      <c r="E2058" s="2"/>
+      <c r="F2058" s="2"/>
+      <c r="G2058" s="2"/>
+      <c r="H2058" s="2"/>
+    </row>
+    <row r="2059" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2059" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B2059" s="1">
+        <v>6158</v>
+      </c>
+      <c r="C2059" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2059" s="2"/>
+      <c r="E2059" s="2"/>
+      <c r="F2059" s="2"/>
+      <c r="G2059" s="2"/>
+      <c r="H2059" s="2"/>
+    </row>
+    <row r="2060" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2060" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B2060" s="1">
+        <v>6159</v>
+      </c>
+      <c r="C2060" s="2"/>
+      <c r="D2060" s="2"/>
+      <c r="E2060" s="2"/>
+      <c r="F2060" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G2060" s="2"/>
+      <c r="H2060" s="2"/>
+    </row>
+    <row r="2061" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2061" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B2061" s="1">
+        <v>6160</v>
+      </c>
+      <c r="C2061" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2061" s="2"/>
+      <c r="E2061" s="2"/>
+      <c r="F2061" s="2"/>
+      <c r="G2061" s="2"/>
+      <c r="H2061" s="2"/>
+    </row>
+    <row r="2062" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2062" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B2062" s="1">
+        <v>6161</v>
+      </c>
+      <c r="C2062" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2062" s="2"/>
+      <c r="E2062" s="2"/>
+      <c r="F2062" s="2"/>
+      <c r="G2062" s="2"/>
+      <c r="H2062" s="2"/>
+    </row>
+    <row r="2063" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2063" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B2063" s="1">
+        <v>6162</v>
+      </c>
+      <c r="C2063" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2063" s="2"/>
+      <c r="E2063" s="2"/>
+      <c r="F2063" s="2"/>
+      <c r="G2063" s="2"/>
+      <c r="H2063" s="2"/>
+    </row>
+    <row r="2064" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2064" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B2064" s="1">
+        <v>6163</v>
+      </c>
+      <c r="C2064" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2064" s="2"/>
+      <c r="E2064" s="2"/>
+      <c r="F2064" s="2"/>
+      <c r="G2064" s="2"/>
+      <c r="H2064" s="2"/>
+    </row>
+    <row r="2065" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2065" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B2065" s="1">
+        <v>9468</v>
+      </c>
+      <c r="C2065" s="2"/>
+      <c r="D2065" s="2"/>
+      <c r="E2065" s="2"/>
+      <c r="F2065" s="2"/>
+      <c r="G2065" s="2"/>
+      <c r="H2065" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2066" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2066" s="1">
+        <v>6164</v>
+      </c>
+      <c r="C2066" s="2"/>
+      <c r="D2066" s="2"/>
+      <c r="E2066" s="2"/>
+      <c r="F2066" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2066" s="2"/>
+      <c r="H2066" s="2"/>
+    </row>
+    <row r="2067" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2067" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2067" s="1">
+        <v>6165</v>
+      </c>
+      <c r="C2067" s="2"/>
+      <c r="D2067" s="2"/>
+      <c r="E2067" s="2"/>
+      <c r="F2067" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2067" s="2"/>
+      <c r="H2067" s="2"/>
+    </row>
+    <row r="2068" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2068" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2068" s="1">
+        <v>6166</v>
+      </c>
+      <c r="C2068" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2068" s="2"/>
+      <c r="E2068" s="2"/>
+      <c r="F2068" s="2"/>
+      <c r="G2068" s="2"/>
+      <c r="H2068" s="2"/>
+    </row>
+    <row r="2069" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2069" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2069" s="1">
+        <v>6167</v>
+      </c>
+      <c r="C2069" s="2">
+        <v>24</v>
+      </c>
+      <c r="D2069" s="2"/>
+      <c r="E2069" s="2"/>
+      <c r="F2069" s="2"/>
+      <c r="G2069" s="2"/>
+      <c r="H2069" s="2"/>
+    </row>
+    <row r="2070" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2070" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2070" s="1">
+        <v>6168</v>
+      </c>
+      <c r="C2070" s="2"/>
+      <c r="D2070" s="2"/>
+      <c r="E2070" s="2"/>
+      <c r="F2070" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2070" s="2"/>
+      <c r="H2070" s="2"/>
+    </row>
+    <row r="2071" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2071" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2071" s="1">
+        <v>6169</v>
+      </c>
+      <c r="C2071" s="2">
+        <v>16</v>
+      </c>
+      <c r="D2071" s="2"/>
+      <c r="E2071" s="2"/>
+      <c r="F2071" s="2"/>
+      <c r="G2071" s="2"/>
+      <c r="H2071" s="2"/>
+    </row>
+    <row r="2072" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2072" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2072" s="1">
+        <v>6170</v>
+      </c>
+      <c r="C2072" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D2072" s="2"/>
+      <c r="E2072" s="2"/>
+      <c r="F2072" s="2"/>
+      <c r="G2072" s="2"/>
+      <c r="H2072" s="2"/>
+    </row>
+    <row r="2073" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2073" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2073" s="1">
+        <v>9469</v>
+      </c>
+      <c r="C2073" s="2"/>
+      <c r="D2073" s="2"/>
+      <c r="E2073" s="2"/>
+      <c r="F2073" s="2"/>
+      <c r="G2073" s="2"/>
+      <c r="H2073" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2074" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2074" s="1">
+        <v>9470</v>
+      </c>
+      <c r="C2074" s="2"/>
+      <c r="D2074" s="2"/>
+      <c r="E2074" s="2"/>
+      <c r="F2074" s="2"/>
+      <c r="G2074" s="2"/>
+      <c r="H2074" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2075" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2075" s="1">
+        <v>9471</v>
+      </c>
+      <c r="C2075" s="2"/>
+      <c r="D2075" s="2"/>
+      <c r="E2075" s="2"/>
+      <c r="F2075" s="2"/>
+      <c r="G2075" s="2"/>
+      <c r="H2075" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2076" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2076" s="1">
+        <v>9472</v>
+      </c>
+      <c r="C2076" s="2"/>
+      <c r="D2076" s="2"/>
+      <c r="E2076" s="2"/>
+      <c r="F2076" s="2"/>
+      <c r="G2076" s="2"/>
+      <c r="H2076" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2077" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B2077" s="1">
+        <v>9473</v>
+      </c>
+      <c r="C2077" s="2"/>
+      <c r="D2077" s="2"/>
+      <c r="E2077" s="2"/>
+      <c r="F2077" s="2"/>
+      <c r="G2077" s="2"/>
+      <c r="H2077" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2078" s="3">
+        <v>43718</v>
+      </c>
+      <c r="B2078" s="1">
+        <v>6171</v>
+      </c>
+      <c r="C2078" s="2"/>
+      <c r="D2078" s="2"/>
+      <c r="E2078" s="2"/>
+      <c r="F2078" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2078" s="2"/>
+      <c r="H2078" s="2"/>
+    </row>
+    <row r="2079" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2079" s="3">
+        <v>43718</v>
+      </c>
+      <c r="B2079" s="1">
+        <v>6172</v>
+      </c>
+      <c r="C2079" s="2"/>
+      <c r="D2079" s="2"/>
+      <c r="E2079" s="2"/>
+      <c r="F2079" s="2">
+        <v>16</v>
+      </c>
+      <c r="G2079" s="2"/>
+      <c r="H2079" s="2"/>
+    </row>
+    <row r="2080" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2080" s="3">
+        <v>43718</v>
+      </c>
+      <c r="B2080" s="1">
+        <v>6174</v>
+      </c>
+      <c r="C2080" s="2"/>
+      <c r="D2080" s="2"/>
+      <c r="E2080" s="2"/>
+      <c r="F2080" s="2"/>
+      <c r="G2080" s="2"/>
+      <c r="H2080" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2081" s="3">
+        <v>43718</v>
+      </c>
+      <c r="B2081" s="1">
+        <v>6175</v>
+      </c>
+      <c r="C2081" s="2"/>
+      <c r="D2081" s="2"/>
+      <c r="E2081" s="2"/>
+      <c r="F2081" s="2"/>
+      <c r="G2081" s="2"/>
+      <c r="H2081" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2082" s="3">
+        <v>43718</v>
+      </c>
+      <c r="B2082" s="1">
+        <v>6176</v>
+      </c>
+      <c r="C2082" s="2"/>
+      <c r="D2082" s="2"/>
+      <c r="E2082" s="2"/>
+      <c r="F2082" s="2"/>
+      <c r="G2082" s="2"/>
+      <c r="H2082" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2083" s="3">
+        <v>43718</v>
+      </c>
+      <c r="B2083" s="1">
+        <v>6177</v>
+      </c>
+      <c r="C2083" s="2"/>
+      <c r="D2083" s="2"/>
+      <c r="E2083" s="2"/>
+      <c r="F2083" s="2"/>
+      <c r="G2083" s="2"/>
+      <c r="H2083" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2084" s="3">
+        <v>43718</v>
+      </c>
+      <c r="B2084" s="1">
+        <v>6178</v>
+      </c>
+      <c r="C2084" s="2"/>
+      <c r="D2084" s="2"/>
+      <c r="E2084" s="2"/>
+      <c r="F2084" s="2"/>
+      <c r="G2084" s="2"/>
+      <c r="H2084" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2085" s="3">
+        <v>43719</v>
+      </c>
+      <c r="B2085" s="1">
+        <v>6173</v>
+      </c>
+      <c r="C2085" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2085" s="2"/>
+      <c r="E2085" s="2"/>
+      <c r="F2085" s="2"/>
+      <c r="G2085" s="2"/>
+      <c r="H2085" s="2"/>
+    </row>
+    <row r="2086" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2086" s="3">
+        <v>43719</v>
+      </c>
+      <c r="B2086" s="1">
+        <v>6174</v>
+      </c>
+      <c r="C2086" s="2"/>
+      <c r="D2086" s="2"/>
+      <c r="E2086" s="2"/>
+      <c r="F2086" s="2"/>
+      <c r="G2086" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2086" s="2"/>
+    </row>
+    <row r="2087" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2087" s="3">
+        <v>43719</v>
+      </c>
+      <c r="B2087" s="1">
+        <v>6175</v>
+      </c>
+      <c r="C2087" s="2"/>
+      <c r="D2087" s="2"/>
+      <c r="E2087" s="2"/>
+      <c r="F2087" s="2"/>
+      <c r="G2087" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2087" s="2"/>
+    </row>
+    <row r="2088" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2088" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2088" s="1">
+        <v>6176</v>
+      </c>
+      <c r="C2088" s="2"/>
+      <c r="D2088" s="2"/>
+      <c r="E2088" s="2"/>
+      <c r="F2088" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2088" s="2"/>
+      <c r="H2088" s="2"/>
+    </row>
+    <row r="2089" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2089" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2089" s="1">
+        <v>6177</v>
+      </c>
+      <c r="C2089" s="2"/>
+      <c r="D2089" s="2"/>
+      <c r="E2089" s="2"/>
+      <c r="F2089" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2089" s="2"/>
+      <c r="H2089" s="2"/>
+    </row>
+    <row r="2090" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2090" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2090" s="1">
+        <v>9479</v>
+      </c>
+      <c r="C2090" s="2"/>
+      <c r="D2090" s="2"/>
+      <c r="E2090" s="2"/>
+      <c r="F2090" s="2"/>
+      <c r="G2090" s="2"/>
+      <c r="H2090" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2091" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2091" s="1">
+        <v>9480</v>
+      </c>
+      <c r="C2091" s="2"/>
+      <c r="D2091" s="2"/>
+      <c r="E2091" s="2"/>
+      <c r="F2091" s="2"/>
+      <c r="G2091" s="2"/>
+      <c r="H2091" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2092" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2092" s="1">
+        <v>9481</v>
+      </c>
+      <c r="C2092" s="2"/>
+      <c r="D2092" s="2"/>
+      <c r="E2092" s="2"/>
+      <c r="F2092" s="2"/>
+      <c r="G2092" s="2"/>
+      <c r="H2092" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2093" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2093" s="1">
+        <v>9482</v>
+      </c>
+      <c r="C2093" s="2"/>
+      <c r="D2093" s="2"/>
+      <c r="E2093" s="2"/>
+      <c r="F2093" s="2"/>
+      <c r="G2093" s="2"/>
+      <c r="H2093" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2094" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2094" s="1">
+        <v>9483</v>
+      </c>
+      <c r="C2094" s="2"/>
+      <c r="D2094" s="2"/>
+      <c r="E2094" s="2"/>
+      <c r="F2094" s="2"/>
+      <c r="G2094" s="2"/>
+      <c r="H2094" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2095" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2095" s="1">
+        <v>9484</v>
+      </c>
+      <c r="C2095" s="2"/>
+      <c r="D2095" s="2"/>
+      <c r="E2095" s="2"/>
+      <c r="F2095" s="2"/>
+      <c r="G2095" s="2"/>
+      <c r="H2095" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2096" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2096" s="1">
+        <v>9485</v>
+      </c>
+      <c r="C2096" s="2"/>
+      <c r="D2096" s="2"/>
+      <c r="E2096" s="2"/>
+      <c r="F2096" s="2"/>
+      <c r="G2096" s="2"/>
+      <c r="H2096" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2097" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2097" s="1">
+        <v>9486</v>
+      </c>
+      <c r="C2097" s="2"/>
+      <c r="D2097" s="2"/>
+      <c r="E2097" s="2"/>
+      <c r="F2097" s="2"/>
+      <c r="G2097" s="2"/>
+      <c r="H2097" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2098" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2098" s="1">
+        <v>9487</v>
+      </c>
+      <c r="C2098" s="2"/>
+      <c r="D2098" s="2"/>
+      <c r="E2098" s="2"/>
+      <c r="F2098" s="2"/>
+      <c r="G2098" s="2"/>
+      <c r="H2098" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2099" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2099" s="1">
+        <v>9488</v>
+      </c>
+      <c r="C2099" s="2"/>
+      <c r="D2099" s="2"/>
+      <c r="E2099" s="2"/>
+      <c r="F2099" s="2"/>
+      <c r="G2099" s="2"/>
+      <c r="H2099" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2100" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B2100" s="1">
+        <v>9489</v>
+      </c>
+      <c r="C2100" s="2"/>
+      <c r="D2100" s="2"/>
+      <c r="E2100" s="2"/>
+      <c r="F2100" s="2"/>
+      <c r="G2100" s="2"/>
+      <c r="H2100" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2101" s="3">
+        <v>43722</v>
+      </c>
+      <c r="B2101" s="1">
+        <v>6178</v>
+      </c>
+      <c r="C2101" s="2"/>
+      <c r="D2101" s="2"/>
+      <c r="E2101" s="2"/>
+      <c r="F2101" s="2">
+        <v>32</v>
+      </c>
+      <c r="G2101" s="2"/>
+      <c r="H2101" s="2"/>
+    </row>
+    <row r="2102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2102" s="3">
+        <v>43725</v>
+      </c>
+      <c r="B2102" s="1">
+        <v>6179</v>
+      </c>
+      <c r="C2102" s="2"/>
+      <c r="D2102" s="2"/>
+      <c r="E2102" s="2"/>
+      <c r="F2102" s="2"/>
+      <c r="G2102" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2102" s="2"/>
+    </row>
+    <row r="2103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2103" s="3">
+        <v>43726</v>
+      </c>
+      <c r="B2103" s="1">
+        <v>6180</v>
+      </c>
+      <c r="C2103" s="2"/>
+      <c r="D2103" s="2"/>
+      <c r="E2103" s="2"/>
+      <c r="F2103" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G2103" s="2"/>
+      <c r="H2103" s="2"/>
+    </row>
+    <row r="2104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2104" s="3">
+        <v>43727</v>
+      </c>
+      <c r="B2104" s="1">
+        <v>6181</v>
+      </c>
+      <c r="C2104" s="2"/>
+      <c r="D2104" s="2"/>
+      <c r="E2104" s="2"/>
+      <c r="F2104" s="2">
+        <v>7</v>
+      </c>
+      <c r="G2104" s="2"/>
+      <c r="H2104" s="2"/>
+    </row>
+    <row r="2105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2105" s="3">
+        <v>43728</v>
+      </c>
+      <c r="B2105" s="1">
+        <v>6182</v>
+      </c>
+      <c r="C2105" s="2"/>
+      <c r="D2105" s="2"/>
+      <c r="E2105" s="2"/>
+      <c r="F2105" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2105" s="2"/>
+      <c r="H2105" s="2"/>
+    </row>
+    <row r="2106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2106" s="3">
+        <v>43728</v>
+      </c>
+      <c r="B2106" s="1">
+        <v>6183</v>
+      </c>
+      <c r="C2106" s="2"/>
+      <c r="D2106" s="2"/>
+      <c r="E2106" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2106" s="2"/>
+      <c r="G2106" s="2"/>
+      <c r="H2106" s="2"/>
+    </row>
+    <row r="2107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2107" s="3">
+        <v>43728</v>
+      </c>
+      <c r="B2107" s="1">
+        <v>6184</v>
+      </c>
+      <c r="C2107" s="2"/>
+      <c r="D2107" s="2"/>
+      <c r="E2107" s="2"/>
+      <c r="F2107" s="2"/>
+      <c r="G2107" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2107" s="2"/>
+    </row>
+    <row r="2108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2108" s="3">
+        <v>43728</v>
+      </c>
+      <c r="B2108" s="1">
+        <v>6185</v>
+      </c>
+      <c r="C2108" s="2"/>
+      <c r="D2108" s="2"/>
+      <c r="E2108" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F2108" s="2"/>
+      <c r="G2108" s="2"/>
+      <c r="H2108" s="2"/>
+    </row>
+    <row r="2109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2109" s="3">
+        <v>43728</v>
+      </c>
+      <c r="B2109" s="1">
+        <v>6186</v>
+      </c>
+      <c r="C2109" s="2"/>
+      <c r="D2109" s="2"/>
+      <c r="E2109" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F2109" s="2"/>
+      <c r="G2109" s="2"/>
+      <c r="H2109" s="2"/>
+    </row>
+    <row r="2110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2110" s="3">
+        <v>43729</v>
+      </c>
+      <c r="B2110" s="1">
+        <v>6187</v>
+      </c>
+      <c r="C2110" s="2"/>
+      <c r="D2110" s="2"/>
+      <c r="E2110" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2110" s="2"/>
+      <c r="G2110" s="2"/>
+      <c r="H2110" s="2"/>
+    </row>
+    <row r="2111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2111" s="3">
+        <v>43729</v>
+      </c>
+      <c r="B2111" s="1">
+        <v>6188</v>
+      </c>
+      <c r="C2111" s="2"/>
+      <c r="D2111" s="2"/>
+      <c r="E2111" s="2">
+        <v>7</v>
+      </c>
+      <c r="F2111" s="2"/>
+      <c r="G2111" s="2"/>
+      <c r="H2111" s="2"/>
+    </row>
+    <row r="2112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2112" s="3">
+        <v>43729</v>
+      </c>
+      <c r="B2112" s="1">
+        <v>6189</v>
+      </c>
+      <c r="C2112" s="2"/>
+      <c r="D2112" s="2"/>
+      <c r="E2112" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F2112" s="2"/>
+      <c r="G2112" s="2"/>
+      <c r="H2112" s="2"/>
+    </row>
+    <row r="2113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2113" s="3">
+        <v>43729</v>
+      </c>
+      <c r="B2113" s="1">
+        <v>6190</v>
+      </c>
+      <c r="C2113" s="2"/>
+      <c r="D2113" s="2"/>
+      <c r="E2113" s="2"/>
+      <c r="F2113" s="2"/>
+      <c r="G2113" s="2">
+        <v>7</v>
+      </c>
+      <c r="H2113" s="2"/>
+    </row>
+    <row r="2114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2114" s="3">
+        <v>43729</v>
+      </c>
+      <c r="B2114" s="1">
+        <v>6191</v>
+      </c>
+      <c r="C2114" s="2"/>
+      <c r="D2114" s="2"/>
+      <c r="E2114" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2114" s="2"/>
+      <c r="G2114" s="2"/>
+      <c r="H2114" s="2"/>
+    </row>
+    <row r="2115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2115" s="3">
+        <v>43729</v>
+      </c>
+      <c r="B2115" s="1">
+        <v>6192</v>
+      </c>
+      <c r="C2115" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2115" s="2"/>
+      <c r="E2115" s="2"/>
+      <c r="F2115" s="2"/>
+      <c r="G2115" s="2"/>
+      <c r="H2115" s="2"/>
+    </row>
+    <row r="2116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2116" s="3">
+        <v>43731</v>
+      </c>
+      <c r="B2116" s="1">
+        <v>6193</v>
+      </c>
+      <c r="C2116" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2116" s="2"/>
+      <c r="E2116" s="2"/>
+      <c r="F2116" s="2"/>
+      <c r="G2116" s="2"/>
+      <c r="H2116" s="2"/>
+    </row>
+    <row r="2117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2117" s="3">
+        <v>43731</v>
+      </c>
+      <c r="B2117" s="1">
+        <v>6194</v>
+      </c>
+      <c r="C2117" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2117" s="2"/>
+      <c r="E2117" s="2"/>
+      <c r="F2117" s="2"/>
+      <c r="G2117" s="2"/>
+      <c r="H2117" s="2"/>
+    </row>
+    <row r="2118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2118" s="3">
+        <v>43731</v>
+      </c>
+      <c r="B2118" s="1">
+        <v>6195</v>
+      </c>
+      <c r="C2118" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2118" s="2"/>
+      <c r="E2118" s="2"/>
+      <c r="F2118" s="2"/>
+      <c r="G2118" s="2"/>
+      <c r="H2118" s="2"/>
+    </row>
+    <row r="2119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2119" s="3">
+        <v>43732</v>
+      </c>
+      <c r="B2119" s="1">
+        <v>6196</v>
+      </c>
+      <c r="C2119" s="2"/>
+      <c r="D2119" s="2"/>
+      <c r="E2119" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F2119" s="2"/>
+      <c r="G2119" s="2"/>
+      <c r="H2119" s="2"/>
+    </row>
+    <row r="2120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2120" s="3">
+        <v>43732</v>
+      </c>
+      <c r="B2120" s="1">
+        <v>6197</v>
+      </c>
+      <c r="C2120" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2120" s="2"/>
+      <c r="E2120" s="2"/>
+      <c r="F2120" s="2"/>
+      <c r="G2120" s="2"/>
+      <c r="H2120" s="2"/>
+    </row>
+    <row r="2121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2121" s="3">
+        <v>43732</v>
+      </c>
+      <c r="B2121" s="1">
+        <v>6198</v>
+      </c>
+      <c r="C2121" s="2"/>
+      <c r="D2121" s="2"/>
+      <c r="E2121" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F2121" s="2"/>
+      <c r="G2121" s="2"/>
+      <c r="H2121" s="2"/>
+    </row>
+    <row r="2122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2122" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2122" s="1">
+        <v>6199</v>
+      </c>
+      <c r="C2122" s="2"/>
+      <c r="D2122" s="2"/>
+      <c r="E2122" s="2"/>
+      <c r="F2122" s="2"/>
+      <c r="G2122" s="2"/>
+      <c r="H2122" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2123" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2123" s="1">
+        <v>6200</v>
+      </c>
+      <c r="C2123" s="2"/>
+      <c r="D2123" s="2"/>
+      <c r="E2123" s="2"/>
+      <c r="F2123" s="2"/>
+      <c r="G2123" s="2"/>
+      <c r="H2123" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2124" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2124" s="1">
+        <v>6112</v>
+      </c>
+      <c r="C2124" s="2"/>
+      <c r="D2124" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2124" s="2"/>
+      <c r="F2124" s="2"/>
+      <c r="G2124" s="2"/>
+      <c r="H2124" s="2"/>
+    </row>
+    <row r="2125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2125" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2125" s="1">
+        <v>6113</v>
+      </c>
+      <c r="C2125" s="2"/>
+      <c r="D2125" s="2"/>
+      <c r="E2125" s="2"/>
+      <c r="F2125" s="2"/>
+      <c r="G2125" s="2"/>
+      <c r="H2125" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2126" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2126" s="1">
+        <v>6114</v>
+      </c>
+      <c r="C2126" s="2"/>
+      <c r="D2126" s="2"/>
+      <c r="E2126" s="2"/>
+      <c r="F2126" s="2"/>
+      <c r="G2126" s="2"/>
+      <c r="H2126" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2127" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2127" s="1">
+        <v>6115</v>
+      </c>
+      <c r="C2127" s="2"/>
+      <c r="D2127" s="2"/>
+      <c r="E2127" s="2"/>
+      <c r="F2127" s="2"/>
+      <c r="G2127" s="2"/>
+      <c r="H2127" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2128" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2128" s="1">
+        <v>6116</v>
+      </c>
+      <c r="C2128" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2128" s="2"/>
+      <c r="E2128" s="2"/>
+      <c r="F2128" s="2"/>
+      <c r="G2128" s="2"/>
+      <c r="H2128" s="2"/>
+    </row>
+    <row r="2129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2129" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2129" s="1">
+        <v>6117</v>
+      </c>
+      <c r="C2129" s="2"/>
+      <c r="D2129" s="2"/>
+      <c r="E2129" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2129" s="2"/>
+      <c r="G2129" s="2"/>
+      <c r="H2129" s="2"/>
+    </row>
+    <row r="2130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2130" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2130" s="1">
+        <v>6118</v>
+      </c>
+      <c r="C2130" s="2"/>
+      <c r="D2130" s="2"/>
+      <c r="E2130" s="2">
+        <v>7</v>
+      </c>
+      <c r="F2130" s="2"/>
+      <c r="G2130" s="2"/>
+      <c r="H2130" s="2"/>
+    </row>
+    <row r="2131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2131" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2131" s="1">
+        <v>6119</v>
+      </c>
+      <c r="C2131" s="2"/>
+      <c r="D2131" s="2"/>
+      <c r="E2131" s="2"/>
+      <c r="F2131" s="2"/>
+      <c r="G2131" s="2"/>
+      <c r="H2131" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2132" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2132" s="1">
+        <v>6120</v>
+      </c>
+      <c r="C2132" s="2"/>
+      <c r="D2132" s="2"/>
+      <c r="E2132" s="2"/>
+      <c r="F2132" s="2"/>
+      <c r="G2132" s="2"/>
+      <c r="H2132" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2133" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2133" s="1">
+        <v>6121</v>
+      </c>
+      <c r="C2133" s="2"/>
+      <c r="D2133" s="2"/>
+      <c r="E2133" s="2"/>
+      <c r="F2133" s="2"/>
+      <c r="G2133" s="2"/>
+      <c r="H2133" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2134" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2134" s="1">
+        <v>6122</v>
+      </c>
+      <c r="C2134" s="2"/>
+      <c r="D2134" s="2"/>
+      <c r="E2134" s="2"/>
+      <c r="F2134" s="2"/>
+      <c r="G2134" s="2"/>
+      <c r="H2134" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2135" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2135" s="1">
+        <v>6123</v>
+      </c>
+      <c r="C2135" s="2"/>
+      <c r="D2135" s="2"/>
+      <c r="E2135" s="2"/>
+      <c r="F2135" s="2"/>
+      <c r="G2135" s="2"/>
+      <c r="H2135" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2136" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2136" s="1">
+        <v>6124</v>
+      </c>
+      <c r="C2136" s="2"/>
+      <c r="D2136" s="2"/>
+      <c r="E2136" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2136" s="2"/>
+      <c r="G2136" s="2"/>
+      <c r="H2136" s="2"/>
+    </row>
+    <row r="2137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2137" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2137" s="1">
+        <v>6125</v>
+      </c>
+      <c r="C2137" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2137" s="2"/>
+      <c r="E2137" s="2"/>
+      <c r="F2137" s="2"/>
+      <c r="G2137" s="2"/>
+      <c r="H2137" s="2"/>
+    </row>
+    <row r="2138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2138" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2138" s="1">
+        <v>6126</v>
+      </c>
+      <c r="C2138" s="2"/>
+      <c r="D2138" s="2"/>
+      <c r="E2138" s="2">
+        <v>7</v>
+      </c>
+      <c r="F2138" s="2"/>
+      <c r="G2138" s="2"/>
+      <c r="H2138" s="2"/>
+    </row>
+    <row r="2139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2139" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2139" s="1">
+        <v>6127</v>
+      </c>
+      <c r="C2139" s="2"/>
+      <c r="D2139" s="2"/>
+      <c r="E2139" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F2139" s="2"/>
+      <c r="G2139" s="2"/>
+      <c r="H2139" s="2"/>
+    </row>
+    <row r="2140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2140" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2140" s="1">
+        <v>6128</v>
+      </c>
+      <c r="C2140" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2140" s="2"/>
+      <c r="E2140" s="2"/>
+      <c r="F2140" s="2"/>
+      <c r="G2140" s="2"/>
+      <c r="H2140" s="2"/>
+    </row>
+    <row r="2141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2141" s="3">
+        <v>43734</v>
+      </c>
+      <c r="B2141" s="1">
+        <v>6129</v>
+      </c>
+      <c r="C2141" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2141" s="2"/>
+      <c r="E2141" s="2"/>
+      <c r="F2141" s="2"/>
+      <c r="G2141" s="2"/>
+      <c r="H2141" s="2"/>
+    </row>
+    <row r="2142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2142" s="3">
+        <v>43734</v>
+      </c>
+      <c r="B2142" s="1">
+        <v>6130</v>
+      </c>
+      <c r="C2142" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2142" s="2"/>
+      <c r="E2142" s="2"/>
+      <c r="F2142" s="2"/>
+      <c r="G2142" s="2"/>
+      <c r="H2142" s="2"/>
+    </row>
+    <row r="2143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2143" s="3">
+        <v>43734</v>
+      </c>
+      <c r="B2143" s="1">
+        <v>6131</v>
+      </c>
+      <c r="C2143" s="2"/>
+      <c r="D2143" s="2"/>
+      <c r="E2143" s="2"/>
+      <c r="F2143" s="2"/>
+      <c r="G2143" s="2"/>
+      <c r="H2143" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2144" s="3">
+        <v>43734</v>
+      </c>
+      <c r="B2144" s="1">
+        <v>6132</v>
+      </c>
+      <c r="C2144" s="2"/>
+      <c r="D2144" s="2"/>
+      <c r="E2144" s="2"/>
+      <c r="F2144" s="2"/>
+      <c r="G2144" s="2"/>
+      <c r="H2144" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2145" s="3">
+        <v>43734</v>
+      </c>
+      <c r="B2145" s="1">
+        <v>6133</v>
+      </c>
+      <c r="C2145" s="2"/>
+      <c r="D2145" s="2"/>
+      <c r="E2145" s="2"/>
+      <c r="F2145" s="2"/>
+      <c r="G2145" s="2"/>
+      <c r="H2145" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2146" s="3">
+        <v>43734</v>
+      </c>
+      <c r="B2146" s="1">
+        <v>6134</v>
+      </c>
+      <c r="C2146" s="2"/>
+      <c r="D2146" s="2"/>
+      <c r="E2146" s="2"/>
+      <c r="F2146" s="2"/>
+      <c r="G2146" s="2"/>
+      <c r="H2146" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2147" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B2147" s="1">
+        <v>6135</v>
+      </c>
+      <c r="C2147" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2147" s="2"/>
+      <c r="E2147" s="2"/>
+      <c r="F2147" s="2"/>
+      <c r="G2147" s="2"/>
+      <c r="H2147" s="2"/>
+    </row>
+    <row r="2148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2148" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B2148" s="1">
+        <v>6136</v>
+      </c>
+      <c r="C2148" s="2"/>
+      <c r="D2148" s="2"/>
+      <c r="E2148" s="2"/>
+      <c r="F2148" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2148" s="2"/>
+      <c r="H2148" s="2"/>
+    </row>
+    <row r="2149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2149" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B2149" s="1">
+        <v>6137</v>
+      </c>
+      <c r="C2149" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2149" s="2"/>
+      <c r="E2149" s="2"/>
+      <c r="F2149" s="2"/>
+      <c r="G2149" s="2"/>
+      <c r="H2149" s="2"/>
+    </row>
+    <row r="2150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2150" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B2150" s="1">
+        <v>6138</v>
+      </c>
+      <c r="C2150" s="2"/>
+      <c r="D2150" s="2"/>
+      <c r="E2150" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2150" s="2"/>
+      <c r="G2150" s="2"/>
+      <c r="H2150" s="2"/>
+    </row>
+    <row r="2151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2151" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B2151" s="1">
+        <v>6139</v>
+      </c>
+      <c r="C2151" s="2"/>
+      <c r="D2151" s="2"/>
+      <c r="E2151" s="2"/>
+      <c r="F2151" s="2"/>
+      <c r="G2151" s="2"/>
+      <c r="H2151" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2152" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B2152" s="1">
+        <v>6140</v>
+      </c>
+      <c r="C2152" s="2"/>
+      <c r="D2152" s="2"/>
+      <c r="E2152" s="2"/>
+      <c r="F2152" s="2"/>
+      <c r="G2152" s="2"/>
+      <c r="H2152" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2153" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B2153" s="1">
+        <v>6141</v>
+      </c>
+      <c r="C2153" s="2"/>
+      <c r="D2153" s="2"/>
+      <c r="E2153" s="2"/>
+      <c r="F2153" s="2"/>
+      <c r="G2153" s="2"/>
+      <c r="H2153" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2154" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B2154" s="1">
+        <v>6142</v>
+      </c>
+      <c r="C2154" s="2"/>
+      <c r="D2154" s="2"/>
+      <c r="E2154" s="2"/>
+      <c r="F2154" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2154" s="2"/>
+      <c r="H2154" s="2"/>
+    </row>
+    <row r="2155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2155" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B2155" s="1">
+        <v>6143</v>
+      </c>
+      <c r="C2155" s="2"/>
+      <c r="D2155" s="2"/>
+      <c r="E2155" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2155" s="2"/>
+      <c r="G2155" s="2"/>
+      <c r="H2155" s="2"/>
+    </row>
+    <row r="2156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2156" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B2156" s="1">
+        <v>6144</v>
+      </c>
+      <c r="C2156" s="2"/>
+      <c r="D2156" s="2"/>
+      <c r="E2156" s="2">
+        <v>40</v>
+      </c>
+      <c r="F2156" s="2"/>
+      <c r="G2156" s="2"/>
+      <c r="H2156" s="2"/>
+    </row>
+    <row r="2157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2157" s="3">
+        <v>43736</v>
+      </c>
+      <c r="B2157" s="1">
+        <v>6145</v>
+      </c>
+      <c r="C2157" s="2"/>
+      <c r="D2157" s="2"/>
+      <c r="E2157" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F2157" s="2"/>
+      <c r="G2157" s="2"/>
+      <c r="H2157" s="2"/>
+    </row>
+    <row r="2158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2158" s="3">
+        <v>43736</v>
+      </c>
+      <c r="B2158" s="1">
+        <v>6146</v>
+      </c>
+      <c r="C2158" s="2"/>
+      <c r="D2158" s="2"/>
+      <c r="E2158" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2158" s="2"/>
+      <c r="G2158" s="2"/>
+      <c r="H2158" s="2"/>
+    </row>
+    <row r="2159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2159" s="3">
+        <v>43736</v>
+      </c>
+      <c r="B2159" s="1">
+        <v>6147</v>
+      </c>
+      <c r="C2159" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2159" s="2"/>
+      <c r="E2159" s="2"/>
+      <c r="F2159" s="2"/>
+      <c r="G2159" s="2"/>
+      <c r="H2159" s="2"/>
+    </row>
+    <row r="2160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2160" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B2160" s="1">
+        <v>6148</v>
+      </c>
+      <c r="C2160" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D2160" s="2"/>
+      <c r="E2160" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F2160" s="2"/>
+      <c r="G2160" s="2"/>
+      <c r="H2160" s="2"/>
+    </row>
+    <row r="2161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2161" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B2161" s="1">
+        <v>6149</v>
+      </c>
+      <c r="C2161" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2161" s="2"/>
+      <c r="E2161" s="2"/>
+      <c r="F2161" s="2"/>
+      <c r="G2161" s="2"/>
+      <c r="H2161" s="2"/>
+    </row>
+    <row r="2162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2162" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B2162" s="1">
+        <v>6150</v>
+      </c>
+      <c r="C2162" s="2"/>
+      <c r="D2162" s="2"/>
+      <c r="E2162" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2162" s="2"/>
+      <c r="G2162" s="2"/>
+      <c r="H2162" s="2"/>
+    </row>
+    <row r="2163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2163" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B2163" s="1">
+        <v>9201</v>
+      </c>
+      <c r="C2163" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2163" s="2"/>
+      <c r="E2163" s="2"/>
+      <c r="F2163" s="2"/>
+      <c r="G2163" s="2"/>
+      <c r="H2163" s="2"/>
+    </row>
+    <row r="2164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2164" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B2164" s="1">
+        <v>9202</v>
+      </c>
+      <c r="C2164" s="2"/>
+      <c r="D2164" s="2"/>
+      <c r="E2164" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2164" s="2"/>
+      <c r="G2164" s="2"/>
+      <c r="H2164" s="2"/>
+    </row>
+    <row r="2165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2165" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B2165" s="1">
+        <v>9203</v>
+      </c>
+      <c r="C2165" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2165" s="2"/>
+      <c r="E2165" s="2"/>
+      <c r="F2165" s="2"/>
+      <c r="G2165" s="2"/>
+      <c r="H2165" s="2"/>
+    </row>
+    <row r="2166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2166" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B2166" s="1">
+        <v>9204</v>
+      </c>
+      <c r="C2166" s="2"/>
+      <c r="D2166" s="2"/>
+      <c r="E2166" s="2">
+        <v>7</v>
+      </c>
+      <c r="F2166" s="2"/>
+      <c r="G2166" s="2"/>
+      <c r="H2166" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data_import.xlsx
+++ b/data/data_import.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="11">
   <si>
     <t>tgl_transaksi</t>
   </si>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3572"/>
+  <dimension ref="A1:I3789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3555" workbookViewId="0">
-      <selection activeCell="I3578" sqref="I3578"/>
+    <sheetView tabSelected="1" topLeftCell="A3770" workbookViewId="0">
+      <selection activeCell="K3783" sqref="K3783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +910,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -14651,7 +14651,7 @@
       <c r="G743" s="2"/>
       <c r="H743" s="2"/>
       <c r="I743" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="744" spans="1:9" x14ac:dyDescent="0.25">
@@ -18594,7 +18594,7 @@
       <c r="G950" s="2"/>
       <c r="H950" s="2"/>
       <c r="I950" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="951" spans="1:9" x14ac:dyDescent="0.25">
@@ -18653,7 +18653,7 @@
       <c r="G953" s="2"/>
       <c r="H953" s="2"/>
       <c r="I953" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.25">
@@ -21641,7 +21641,7 @@
       <c r="G1109" s="2"/>
       <c r="H1109" s="2"/>
       <c r="I1109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1110" spans="1:9" x14ac:dyDescent="0.25">
@@ -22865,7 +22865,7 @@
       <c r="G1173" s="2"/>
       <c r="H1173" s="2"/>
       <c r="I1173" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1174" spans="1:9" x14ac:dyDescent="0.25">
@@ -30398,7 +30398,7 @@
       </c>
       <c r="H1568" s="2"/>
       <c r="I1568" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1569" spans="1:9" x14ac:dyDescent="0.25">
@@ -31599,7 +31599,7 @@
       </c>
       <c r="H1631" s="2"/>
       <c r="I1631" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1632" spans="1:9" x14ac:dyDescent="0.25">
@@ -32572,7 +32572,7 @@
       <c r="G1682" s="2"/>
       <c r="H1682" s="2"/>
       <c r="I1682" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1683" spans="1:9" x14ac:dyDescent="0.25">
@@ -33678,7 +33678,7 @@
       <c r="G1740" s="2"/>
       <c r="H1740" s="2"/>
       <c r="I1740" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1741" spans="1:9" x14ac:dyDescent="0.25">
@@ -38554,7 +38554,7 @@
       <c r="G1996" s="2"/>
       <c r="H1996" s="2"/>
       <c r="I1996" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1997" spans="1:9" x14ac:dyDescent="0.25">
@@ -59104,7 +59104,7 @@
       <c r="G3076" s="2"/>
       <c r="H3076" s="2"/>
       <c r="I3076" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3077" spans="1:9" x14ac:dyDescent="0.25">
@@ -68672,6 +68672,4165 @@
       <c r="G3572" s="2"/>
       <c r="H3572" s="2"/>
       <c r="I3572" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3573" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B3573" s="1">
+        <v>1529</v>
+      </c>
+      <c r="C3573" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3573" s="2"/>
+      <c r="E3573" s="2"/>
+      <c r="F3573" s="2"/>
+      <c r="G3573" s="2"/>
+      <c r="H3573" s="2"/>
+      <c r="I3573" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3574" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B3574" s="1">
+        <v>1530</v>
+      </c>
+      <c r="C3574" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3574" s="2"/>
+      <c r="E3574" s="2"/>
+      <c r="F3574" s="2"/>
+      <c r="G3574" s="2"/>
+      <c r="H3574" s="2"/>
+      <c r="I3574" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3575" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B3575" s="1">
+        <v>1531</v>
+      </c>
+      <c r="C3575" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3575" s="2"/>
+      <c r="E3575" s="2"/>
+      <c r="F3575" s="2"/>
+      <c r="G3575" s="2"/>
+      <c r="H3575" s="2"/>
+      <c r="I3575" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3576" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B3576" s="1">
+        <v>1532</v>
+      </c>
+      <c r="C3576" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3576" s="2"/>
+      <c r="E3576" s="2"/>
+      <c r="F3576" s="2"/>
+      <c r="G3576" s="2"/>
+      <c r="H3576" s="2"/>
+      <c r="I3576" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3577" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B3577" s="1">
+        <v>1648</v>
+      </c>
+      <c r="C3577" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3577" s="2"/>
+      <c r="E3577" s="2"/>
+      <c r="F3577" s="2"/>
+      <c r="G3577" s="2"/>
+      <c r="H3577" s="2"/>
+      <c r="I3577" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3578" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B3578" s="1">
+        <v>1649</v>
+      </c>
+      <c r="C3578" s="2"/>
+      <c r="D3578" s="2"/>
+      <c r="E3578" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3578" s="2"/>
+      <c r="G3578" s="2"/>
+      <c r="H3578" s="2"/>
+      <c r="I3578" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3579" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B3579" s="1">
+        <v>1751</v>
+      </c>
+      <c r="C3579" s="2"/>
+      <c r="D3579" s="2"/>
+      <c r="E3579" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3579" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3579" s="2"/>
+      <c r="H3579" s="2"/>
+      <c r="I3579" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3580" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B3580" s="1">
+        <v>1752</v>
+      </c>
+      <c r="C3580" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3580" s="2"/>
+      <c r="E3580" s="2"/>
+      <c r="F3580" s="2"/>
+      <c r="G3580" s="2"/>
+      <c r="H3580" s="2"/>
+      <c r="I3580" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3581" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B3581" s="1">
+        <v>1753</v>
+      </c>
+      <c r="C3581" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3581" s="2"/>
+      <c r="E3581" s="2"/>
+      <c r="F3581" s="2"/>
+      <c r="G3581" s="2"/>
+      <c r="H3581" s="2"/>
+      <c r="I3581" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3582" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B3582" s="1">
+        <v>1754</v>
+      </c>
+      <c r="C3582" s="2"/>
+      <c r="D3582" s="2"/>
+      <c r="E3582" s="2">
+        <v>8</v>
+      </c>
+      <c r="F3582" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3582" s="2"/>
+      <c r="H3582" s="2"/>
+      <c r="I3582" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3583" s="3">
+        <v>43864</v>
+      </c>
+      <c r="B3583" s="1">
+        <v>1755</v>
+      </c>
+      <c r="C3583" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3583" s="2"/>
+      <c r="E3583" s="2"/>
+      <c r="F3583" s="2"/>
+      <c r="G3583" s="2"/>
+      <c r="H3583" s="2"/>
+      <c r="I3583" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3584" s="3">
+        <v>43864</v>
+      </c>
+      <c r="B3584" s="1">
+        <v>1756</v>
+      </c>
+      <c r="C3584" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D3584" s="2"/>
+      <c r="E3584" s="2"/>
+      <c r="F3584" s="2"/>
+      <c r="G3584" s="2"/>
+      <c r="H3584" s="2"/>
+      <c r="I3584" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3585" s="3">
+        <v>43865</v>
+      </c>
+      <c r="B3585" s="1">
+        <v>1758</v>
+      </c>
+      <c r="C3585" s="2"/>
+      <c r="D3585" s="2"/>
+      <c r="E3585" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F3585" s="2"/>
+      <c r="G3585" s="2"/>
+      <c r="H3585" s="2"/>
+      <c r="I3585" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3586" s="3">
+        <v>43865</v>
+      </c>
+      <c r="B3586" s="1">
+        <v>1759</v>
+      </c>
+      <c r="C3586" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D3586" s="2"/>
+      <c r="E3586" s="2"/>
+      <c r="F3586" s="2"/>
+      <c r="G3586" s="2"/>
+      <c r="H3586" s="2"/>
+      <c r="I3586" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3587" s="3">
+        <v>43865</v>
+      </c>
+      <c r="B3587" s="1">
+        <v>1757</v>
+      </c>
+      <c r="C3587" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3587" s="2"/>
+      <c r="E3587" s="2"/>
+      <c r="F3587" s="2"/>
+      <c r="G3587" s="2"/>
+      <c r="H3587" s="2"/>
+      <c r="I3587" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3588" s="3">
+        <v>43865</v>
+      </c>
+      <c r="B3588" s="1">
+        <v>1760</v>
+      </c>
+      <c r="C3588" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3588" s="2"/>
+      <c r="E3588" s="2"/>
+      <c r="F3588" s="2"/>
+      <c r="G3588" s="2"/>
+      <c r="H3588" s="2"/>
+      <c r="I3588" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3589" s="3">
+        <v>43865</v>
+      </c>
+      <c r="B3589" s="1">
+        <v>1761</v>
+      </c>
+      <c r="C3589" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3589" s="2"/>
+      <c r="E3589" s="2"/>
+      <c r="F3589" s="2"/>
+      <c r="G3589" s="2"/>
+      <c r="H3589" s="2"/>
+      <c r="I3589" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3590" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B3590" s="1">
+        <v>1533</v>
+      </c>
+      <c r="C3590" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3590" s="2"/>
+      <c r="E3590" s="2"/>
+      <c r="F3590" s="2"/>
+      <c r="G3590" s="2"/>
+      <c r="H3590" s="2"/>
+      <c r="I3590" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3591" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B3591" s="1">
+        <v>1534</v>
+      </c>
+      <c r="C3591" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3591" s="2"/>
+      <c r="E3591" s="2"/>
+      <c r="F3591" s="2"/>
+      <c r="G3591" s="2"/>
+      <c r="H3591" s="2"/>
+      <c r="I3591" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3592" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B3592" s="1">
+        <v>1762</v>
+      </c>
+      <c r="C3592" s="2"/>
+      <c r="D3592" s="2"/>
+      <c r="E3592" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3592" s="2"/>
+      <c r="G3592" s="2"/>
+      <c r="H3592" s="2"/>
+      <c r="I3592" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3593" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B3593" s="1">
+        <v>1763</v>
+      </c>
+      <c r="C3593" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3593" s="2"/>
+      <c r="E3593" s="2"/>
+      <c r="F3593" s="2"/>
+      <c r="G3593" s="2"/>
+      <c r="H3593" s="2"/>
+      <c r="I3593" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3594" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B3594" s="1">
+        <v>1764</v>
+      </c>
+      <c r="C3594" s="2"/>
+      <c r="D3594" s="2"/>
+      <c r="E3594" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3594" s="2"/>
+      <c r="G3594" s="2"/>
+      <c r="H3594" s="2"/>
+      <c r="I3594" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3595" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B3595" s="1">
+        <v>1765</v>
+      </c>
+      <c r="C3595" s="2"/>
+      <c r="D3595" s="2"/>
+      <c r="E3595" s="2"/>
+      <c r="F3595" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G3595" s="2"/>
+      <c r="H3595" s="2"/>
+      <c r="I3595" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3596" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B3596" s="1">
+        <v>1766</v>
+      </c>
+      <c r="C3596" s="2"/>
+      <c r="D3596" s="2"/>
+      <c r="E3596" s="2"/>
+      <c r="F3596" s="2">
+        <v>48</v>
+      </c>
+      <c r="G3596" s="2"/>
+      <c r="H3596" s="2"/>
+      <c r="I3596" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3597" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B3597" s="1">
+        <v>1767</v>
+      </c>
+      <c r="C3597" s="2"/>
+      <c r="D3597" s="2"/>
+      <c r="E3597" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3597" s="2"/>
+      <c r="G3597" s="2"/>
+      <c r="H3597" s="2"/>
+      <c r="I3597" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3598" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B3598" s="1">
+        <v>1768</v>
+      </c>
+      <c r="C3598" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3598" s="2"/>
+      <c r="E3598" s="2"/>
+      <c r="F3598" s="2"/>
+      <c r="G3598" s="2"/>
+      <c r="H3598" s="2"/>
+      <c r="I3598" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3599" s="3">
+        <v>43867</v>
+      </c>
+      <c r="B3599" s="1">
+        <v>1769</v>
+      </c>
+      <c r="C3599" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3599" s="2"/>
+      <c r="E3599" s="2"/>
+      <c r="F3599" s="2"/>
+      <c r="G3599" s="2"/>
+      <c r="H3599" s="2"/>
+      <c r="I3599" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3600" s="3">
+        <v>43867</v>
+      </c>
+      <c r="B3600" s="1">
+        <v>1770</v>
+      </c>
+      <c r="C3600" s="2"/>
+      <c r="D3600" s="2"/>
+      <c r="E3600" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F3600" s="2"/>
+      <c r="G3600" s="2"/>
+      <c r="H3600" s="2"/>
+      <c r="I3600" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3601" s="3">
+        <v>43867</v>
+      </c>
+      <c r="B3601" s="1">
+        <v>1771</v>
+      </c>
+      <c r="C3601" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D3601" s="2"/>
+      <c r="E3601" s="2"/>
+      <c r="F3601" s="2"/>
+      <c r="G3601" s="2"/>
+      <c r="H3601" s="2"/>
+      <c r="I3601" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3602" s="3">
+        <v>43867</v>
+      </c>
+      <c r="B3602" s="1">
+        <v>1772</v>
+      </c>
+      <c r="C3602" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D3602" s="2"/>
+      <c r="E3602" s="2"/>
+      <c r="F3602" s="2"/>
+      <c r="G3602" s="2"/>
+      <c r="H3602" s="2"/>
+      <c r="I3602" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3603" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3603" s="1">
+        <v>1535</v>
+      </c>
+      <c r="C3603" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3603" s="2"/>
+      <c r="E3603" s="2"/>
+      <c r="F3603" s="2"/>
+      <c r="G3603" s="2"/>
+      <c r="H3603" s="2"/>
+      <c r="I3603" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3604" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3604" s="1">
+        <v>1536</v>
+      </c>
+      <c r="C3604" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D3604" s="2"/>
+      <c r="E3604" s="2"/>
+      <c r="F3604" s="2"/>
+      <c r="G3604" s="2"/>
+      <c r="H3604" s="2"/>
+      <c r="I3604" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3605" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3605" s="1">
+        <v>1537</v>
+      </c>
+      <c r="C3605" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3605" s="2"/>
+      <c r="E3605" s="2"/>
+      <c r="F3605" s="2"/>
+      <c r="G3605" s="2"/>
+      <c r="H3605" s="2"/>
+      <c r="I3605" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3606" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3606" s="1">
+        <v>1538</v>
+      </c>
+      <c r="C3606" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3606" s="2"/>
+      <c r="E3606" s="2"/>
+      <c r="F3606" s="2"/>
+      <c r="G3606" s="2"/>
+      <c r="H3606" s="2"/>
+      <c r="I3606" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3607" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3607" s="1">
+        <v>1539</v>
+      </c>
+      <c r="C3607" s="2"/>
+      <c r="D3607" s="2"/>
+      <c r="E3607" s="2"/>
+      <c r="F3607" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3607" s="2"/>
+      <c r="H3607" s="2"/>
+      <c r="I3607" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3608" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3608" s="1">
+        <v>1540</v>
+      </c>
+      <c r="C3608" s="2"/>
+      <c r="D3608" s="2"/>
+      <c r="E3608" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F3608" s="2"/>
+      <c r="G3608" s="2"/>
+      <c r="H3608" s="2"/>
+      <c r="I3608" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3609" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3609" s="1">
+        <v>1541</v>
+      </c>
+      <c r="C3609" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3609" s="2"/>
+      <c r="E3609" s="2"/>
+      <c r="F3609" s="2"/>
+      <c r="G3609" s="2"/>
+      <c r="H3609" s="2"/>
+      <c r="I3609" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3610" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3610" s="1">
+        <v>1542</v>
+      </c>
+      <c r="C3610" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3610" s="2"/>
+      <c r="E3610" s="2"/>
+      <c r="F3610" s="2"/>
+      <c r="G3610" s="2"/>
+      <c r="H3610" s="2"/>
+      <c r="I3610" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3611" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3611" s="1">
+        <v>1543</v>
+      </c>
+      <c r="C3611" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3611" s="2"/>
+      <c r="E3611" s="2"/>
+      <c r="F3611" s="2"/>
+      <c r="G3611" s="2"/>
+      <c r="H3611" s="2"/>
+      <c r="I3611" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3612" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3612" s="1">
+        <v>1544</v>
+      </c>
+      <c r="C3612" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3612" s="2"/>
+      <c r="E3612" s="2"/>
+      <c r="F3612" s="2"/>
+      <c r="G3612" s="2"/>
+      <c r="H3612" s="2"/>
+      <c r="I3612" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3613" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3613" s="1">
+        <v>1545</v>
+      </c>
+      <c r="C3613" s="2"/>
+      <c r="D3613" s="2"/>
+      <c r="E3613" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3613" s="2"/>
+      <c r="G3613" s="2"/>
+      <c r="H3613" s="2"/>
+      <c r="I3613" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3614" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3614" s="1">
+        <v>1546</v>
+      </c>
+      <c r="C3614" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3614" s="2"/>
+      <c r="E3614" s="2"/>
+      <c r="F3614" s="2"/>
+      <c r="G3614" s="2"/>
+      <c r="H3614" s="2"/>
+      <c r="I3614" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3615" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3615" s="1">
+        <v>1774</v>
+      </c>
+      <c r="C3615" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3615" s="2"/>
+      <c r="E3615" s="2"/>
+      <c r="F3615" s="2"/>
+      <c r="G3615" s="2"/>
+      <c r="H3615" s="2"/>
+      <c r="I3615" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3616" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3616" s="1">
+        <v>1775</v>
+      </c>
+      <c r="C3616" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3616" s="2"/>
+      <c r="E3616" s="2"/>
+      <c r="F3616" s="2"/>
+      <c r="G3616" s="2"/>
+      <c r="H3616" s="2"/>
+      <c r="I3616" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3617" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3617" s="1">
+        <v>1776</v>
+      </c>
+      <c r="C3617" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3617" s="2"/>
+      <c r="E3617" s="2"/>
+      <c r="F3617" s="2"/>
+      <c r="G3617" s="2"/>
+      <c r="H3617" s="2"/>
+      <c r="I3617" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3618" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3618" s="1">
+        <v>1777</v>
+      </c>
+      <c r="C3618" s="2"/>
+      <c r="D3618" s="2"/>
+      <c r="E3618" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3618" s="2"/>
+      <c r="G3618" s="2"/>
+      <c r="H3618" s="2"/>
+      <c r="I3618" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3619" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B3619" s="1">
+        <v>1778</v>
+      </c>
+      <c r="C3619" s="2"/>
+      <c r="D3619" s="2"/>
+      <c r="E3619" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3619" s="2"/>
+      <c r="G3619" s="2"/>
+      <c r="H3619" s="2"/>
+      <c r="I3619" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3620" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3620" s="1">
+        <v>1547</v>
+      </c>
+      <c r="C3620" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3620" s="2"/>
+      <c r="E3620" s="2"/>
+      <c r="F3620" s="2"/>
+      <c r="G3620" s="2"/>
+      <c r="H3620" s="2"/>
+      <c r="I3620" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3621" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3621" s="1">
+        <v>1548</v>
+      </c>
+      <c r="C3621" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3621" s="2"/>
+      <c r="E3621" s="2"/>
+      <c r="F3621" s="2"/>
+      <c r="G3621" s="2"/>
+      <c r="H3621" s="2"/>
+      <c r="I3621" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3622" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3622" s="1">
+        <v>1549</v>
+      </c>
+      <c r="C3622" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3622" s="2"/>
+      <c r="E3622" s="2"/>
+      <c r="F3622" s="2"/>
+      <c r="G3622" s="2"/>
+      <c r="H3622" s="2"/>
+      <c r="I3622" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3623" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3623" s="1">
+        <v>1550</v>
+      </c>
+      <c r="C3623" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3623" s="2"/>
+      <c r="E3623" s="2"/>
+      <c r="F3623" s="2"/>
+      <c r="G3623" s="2"/>
+      <c r="H3623" s="2"/>
+      <c r="I3623" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3624" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3624" s="1">
+        <v>1851</v>
+      </c>
+      <c r="C3624" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3624" s="2"/>
+      <c r="E3624" s="2"/>
+      <c r="F3624" s="2"/>
+      <c r="G3624" s="2"/>
+      <c r="H3624" s="2"/>
+      <c r="I3624" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3625" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3625" s="1">
+        <v>1852</v>
+      </c>
+      <c r="C3625" s="2"/>
+      <c r="D3625" s="2"/>
+      <c r="E3625" s="2"/>
+      <c r="F3625" s="2"/>
+      <c r="G3625" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H3625" s="2"/>
+      <c r="I3625" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3626" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3626" s="1">
+        <v>1853</v>
+      </c>
+      <c r="C3626" s="2"/>
+      <c r="D3626" s="2"/>
+      <c r="E3626" s="2"/>
+      <c r="F3626" s="2"/>
+      <c r="G3626" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H3626" s="2"/>
+      <c r="I3626" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3627" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3627" s="1">
+        <v>1854</v>
+      </c>
+      <c r="C3627" s="2"/>
+      <c r="D3627" s="2"/>
+      <c r="E3627" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F3627" s="2"/>
+      <c r="G3627" s="2"/>
+      <c r="H3627" s="2"/>
+      <c r="I3627" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3628" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3628" s="1">
+        <v>1855</v>
+      </c>
+      <c r="C3628" s="2"/>
+      <c r="D3628" s="2"/>
+      <c r="E3628" s="2"/>
+      <c r="F3628" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G3628" s="2"/>
+      <c r="H3628" s="2"/>
+      <c r="I3628" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3629" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3629" s="1">
+        <v>1779</v>
+      </c>
+      <c r="C3629" s="2"/>
+      <c r="D3629" s="2"/>
+      <c r="E3629" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F3629" s="2"/>
+      <c r="G3629" s="2"/>
+      <c r="H3629" s="2"/>
+      <c r="I3629" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3630" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3630" s="1">
+        <v>1780</v>
+      </c>
+      <c r="C3630" s="2"/>
+      <c r="D3630" s="2"/>
+      <c r="E3630" s="2"/>
+      <c r="F3630" s="2">
+        <v>40</v>
+      </c>
+      <c r="G3630" s="2"/>
+      <c r="H3630" s="2"/>
+      <c r="I3630" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3631" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3631" s="1">
+        <v>1781</v>
+      </c>
+      <c r="C3631" s="2"/>
+      <c r="D3631" s="2"/>
+      <c r="E3631" s="2"/>
+      <c r="F3631" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3631" s="2"/>
+      <c r="H3631" s="2"/>
+      <c r="I3631" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3632" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3632" s="1">
+        <v>1782</v>
+      </c>
+      <c r="C3632" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D3632" s="2"/>
+      <c r="E3632" s="2"/>
+      <c r="F3632" s="2"/>
+      <c r="G3632" s="2"/>
+      <c r="H3632" s="2"/>
+      <c r="I3632" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3633" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3633" s="1">
+        <v>1783</v>
+      </c>
+      <c r="C3633" s="2"/>
+      <c r="D3633" s="2"/>
+      <c r="E3633" s="2">
+        <v>8</v>
+      </c>
+      <c r="F3633" s="2"/>
+      <c r="G3633" s="2"/>
+      <c r="H3633" s="2"/>
+      <c r="I3633" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3634" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3634" s="1">
+        <v>1784</v>
+      </c>
+      <c r="C3634" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D3634" s="2"/>
+      <c r="E3634" s="2"/>
+      <c r="F3634" s="2"/>
+      <c r="G3634" s="2"/>
+      <c r="H3634" s="2"/>
+      <c r="I3634" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3635" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B3635" s="1">
+        <v>1785</v>
+      </c>
+      <c r="C3635" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3635" s="2"/>
+      <c r="E3635" s="2"/>
+      <c r="F3635" s="2"/>
+      <c r="G3635" s="2"/>
+      <c r="H3635" s="2"/>
+      <c r="I3635" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3636" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3636" s="1">
+        <v>1856</v>
+      </c>
+      <c r="C3636" s="2"/>
+      <c r="D3636" s="2"/>
+      <c r="E3636" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F3636" s="2"/>
+      <c r="G3636" s="2"/>
+      <c r="H3636" s="2"/>
+      <c r="I3636" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3637" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3637" s="1">
+        <v>1857</v>
+      </c>
+      <c r="C3637" s="2"/>
+      <c r="D3637" s="2"/>
+      <c r="E3637" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3637" s="2"/>
+      <c r="G3637" s="2"/>
+      <c r="H3637" s="2"/>
+      <c r="I3637" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3638" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3638" s="1">
+        <v>1858</v>
+      </c>
+      <c r="C3638" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3638" s="2"/>
+      <c r="E3638" s="2"/>
+      <c r="F3638" s="2"/>
+      <c r="G3638" s="2"/>
+      <c r="H3638" s="2"/>
+      <c r="I3638" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3639" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3639" s="1">
+        <v>1859</v>
+      </c>
+      <c r="C3639" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3639" s="2"/>
+      <c r="E3639" s="2"/>
+      <c r="F3639" s="2"/>
+      <c r="G3639" s="2"/>
+      <c r="H3639" s="2"/>
+      <c r="I3639" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3640" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3640" s="1">
+        <v>1860</v>
+      </c>
+      <c r="C3640" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3640" s="2"/>
+      <c r="E3640" s="2"/>
+      <c r="F3640" s="2"/>
+      <c r="G3640" s="2"/>
+      <c r="H3640" s="2"/>
+      <c r="I3640" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3641" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3641" s="1">
+        <v>1861</v>
+      </c>
+      <c r="C3641" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3641" s="2"/>
+      <c r="E3641" s="2"/>
+      <c r="F3641" s="2"/>
+      <c r="G3641" s="2"/>
+      <c r="H3641" s="2"/>
+      <c r="I3641" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3642" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3642" s="1">
+        <v>1862</v>
+      </c>
+      <c r="C3642" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3642" s="2"/>
+      <c r="E3642" s="2"/>
+      <c r="F3642" s="2"/>
+      <c r="G3642" s="2"/>
+      <c r="H3642" s="2"/>
+      <c r="I3642" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3643" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3643" s="1">
+        <v>1863</v>
+      </c>
+      <c r="C3643" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3643" s="2"/>
+      <c r="E3643" s="2"/>
+      <c r="F3643" s="2"/>
+      <c r="G3643" s="2"/>
+      <c r="H3643" s="2"/>
+      <c r="I3643" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3644" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3644" s="1">
+        <v>1864</v>
+      </c>
+      <c r="C3644" s="2"/>
+      <c r="D3644" s="2"/>
+      <c r="E3644" s="2"/>
+      <c r="F3644" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3644" s="2"/>
+      <c r="H3644" s="2"/>
+      <c r="I3644" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3645" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3645" s="1">
+        <v>1086</v>
+      </c>
+      <c r="C3645" s="2"/>
+      <c r="D3645" s="2"/>
+      <c r="E3645" s="2"/>
+      <c r="F3645" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3645" s="2">
+        <v>20</v>
+      </c>
+      <c r="H3645" s="2"/>
+      <c r="I3645" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3646" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3646" s="1">
+        <v>1087</v>
+      </c>
+      <c r="C3646" s="2"/>
+      <c r="D3646" s="2"/>
+      <c r="E3646" s="2"/>
+      <c r="F3646" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3646" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3646" s="2"/>
+      <c r="I3646" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3647" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3647" s="1">
+        <v>1088</v>
+      </c>
+      <c r="C3647" s="2"/>
+      <c r="D3647" s="2"/>
+      <c r="E3647" s="2"/>
+      <c r="F3647" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3647" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3647" s="2"/>
+      <c r="I3647" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3648" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3648" s="1">
+        <v>1089</v>
+      </c>
+      <c r="C3648" s="2"/>
+      <c r="D3648" s="2"/>
+      <c r="E3648" s="2"/>
+      <c r="F3648" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3648" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3648" s="2"/>
+      <c r="I3648" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3649" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3649" s="1">
+        <v>1090</v>
+      </c>
+      <c r="C3649" s="2"/>
+      <c r="D3649" s="2"/>
+      <c r="E3649" s="2"/>
+      <c r="F3649" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3649" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3649" s="2"/>
+      <c r="I3649" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3650" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3650" s="1">
+        <v>1091</v>
+      </c>
+      <c r="C3650" s="2"/>
+      <c r="D3650" s="2"/>
+      <c r="E3650" s="2"/>
+      <c r="F3650" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3650" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3650" s="2"/>
+      <c r="I3650" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3651" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3651" s="1">
+        <v>1786</v>
+      </c>
+      <c r="C3651" s="2"/>
+      <c r="D3651" s="2"/>
+      <c r="E3651" s="2"/>
+      <c r="F3651" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3651" s="2"/>
+      <c r="H3651" s="2"/>
+      <c r="I3651" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3652" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3652" s="1">
+        <v>1788</v>
+      </c>
+      <c r="C3652" s="2"/>
+      <c r="D3652" s="2"/>
+      <c r="E3652" s="2">
+        <v>8</v>
+      </c>
+      <c r="F3652" s="2"/>
+      <c r="G3652" s="2"/>
+      <c r="H3652" s="2"/>
+      <c r="I3652" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3653" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3653" s="1">
+        <v>1789</v>
+      </c>
+      <c r="C3653" s="2"/>
+      <c r="D3653" s="2"/>
+      <c r="E3653" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3653" s="2"/>
+      <c r="G3653" s="2"/>
+      <c r="H3653" s="2"/>
+      <c r="I3653" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3654" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B3654" s="1">
+        <v>1790</v>
+      </c>
+      <c r="C3654" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D3654" s="2"/>
+      <c r="E3654" s="2"/>
+      <c r="F3654" s="2"/>
+      <c r="G3654" s="2"/>
+      <c r="H3654" s="2"/>
+      <c r="I3654" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3655" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3655" s="1">
+        <v>1791</v>
+      </c>
+      <c r="C3655" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D3655" s="2"/>
+      <c r="E3655" s="2"/>
+      <c r="F3655" s="2"/>
+      <c r="G3655" s="2"/>
+      <c r="H3655" s="2"/>
+      <c r="I3655" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3656" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3656" s="1">
+        <v>1792</v>
+      </c>
+      <c r="C3656" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3656" s="2"/>
+      <c r="E3656" s="2"/>
+      <c r="F3656" s="2"/>
+      <c r="G3656" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3656" s="2"/>
+      <c r="I3656" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3657" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3657" s="1">
+        <v>1793</v>
+      </c>
+      <c r="C3657" s="2"/>
+      <c r="D3657" s="2"/>
+      <c r="E3657" s="2">
+        <v>8</v>
+      </c>
+      <c r="F3657" s="2"/>
+      <c r="G3657" s="2"/>
+      <c r="H3657" s="2"/>
+      <c r="I3657" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3658" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3658" s="1">
+        <v>1794</v>
+      </c>
+      <c r="C3658" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3658" s="2"/>
+      <c r="E3658" s="2"/>
+      <c r="F3658" s="2"/>
+      <c r="G3658" s="2"/>
+      <c r="H3658" s="2"/>
+      <c r="I3658" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3659" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3659" s="1">
+        <v>1795</v>
+      </c>
+      <c r="C3659" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3659" s="2"/>
+      <c r="E3659" s="2"/>
+      <c r="F3659" s="2"/>
+      <c r="G3659" s="2"/>
+      <c r="H3659" s="2"/>
+      <c r="I3659" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3660" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3660" s="1">
+        <v>1796</v>
+      </c>
+      <c r="C3660" s="2"/>
+      <c r="D3660" s="2"/>
+      <c r="E3660" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F3660" s="2"/>
+      <c r="G3660" s="2"/>
+      <c r="H3660" s="2"/>
+      <c r="I3660" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3661" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3661" s="1">
+        <v>1797</v>
+      </c>
+      <c r="C3661" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3661" s="2"/>
+      <c r="E3661" s="2"/>
+      <c r="F3661" s="2"/>
+      <c r="G3661" s="2"/>
+      <c r="H3661" s="2"/>
+      <c r="I3661" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3662" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3662" s="1">
+        <v>1798</v>
+      </c>
+      <c r="C3662" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3662" s="2"/>
+      <c r="E3662" s="2"/>
+      <c r="F3662" s="2"/>
+      <c r="G3662" s="2"/>
+      <c r="H3662" s="2"/>
+      <c r="I3662" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3663" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3663" s="1">
+        <v>1799</v>
+      </c>
+      <c r="C3663" s="2"/>
+      <c r="D3663" s="2"/>
+      <c r="E3663" s="2"/>
+      <c r="F3663" s="2"/>
+      <c r="G3663" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H3663" s="2"/>
+      <c r="I3663" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3664" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3664" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C3664" s="2"/>
+      <c r="D3664" s="2"/>
+      <c r="E3664" s="2"/>
+      <c r="F3664" s="2"/>
+      <c r="G3664" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H3664" s="2"/>
+      <c r="I3664" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3665" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3665" s="1">
+        <v>1951</v>
+      </c>
+      <c r="C3665" s="2"/>
+      <c r="D3665" s="2"/>
+      <c r="E3665" s="2"/>
+      <c r="F3665" s="2"/>
+      <c r="G3665" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3665" s="2"/>
+      <c r="I3665" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3666" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3666" s="1">
+        <v>1952</v>
+      </c>
+      <c r="C3666" s="2"/>
+      <c r="D3666" s="2"/>
+      <c r="E3666" s="2">
+        <v>8</v>
+      </c>
+      <c r="F3666" s="2"/>
+      <c r="G3666" s="2"/>
+      <c r="H3666" s="2"/>
+      <c r="I3666" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3667" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B3667" s="1">
+        <v>1953</v>
+      </c>
+      <c r="C3667" s="2"/>
+      <c r="D3667" s="2"/>
+      <c r="E3667" s="2"/>
+      <c r="F3667" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G3667" s="2"/>
+      <c r="H3667" s="2"/>
+      <c r="I3667" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3668" s="3">
+        <v>43873</v>
+      </c>
+      <c r="B3668" s="1">
+        <v>1865</v>
+      </c>
+      <c r="C3668" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3668" s="2"/>
+      <c r="E3668" s="2"/>
+      <c r="F3668" s="2"/>
+      <c r="G3668" s="2"/>
+      <c r="H3668" s="2"/>
+      <c r="I3668" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3669" s="3">
+        <v>43874</v>
+      </c>
+      <c r="B3669" s="1">
+        <v>1866</v>
+      </c>
+      <c r="C3669" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3669" s="2"/>
+      <c r="E3669" s="2"/>
+      <c r="F3669" s="2"/>
+      <c r="G3669" s="2"/>
+      <c r="H3669" s="2"/>
+      <c r="I3669" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3670" s="3">
+        <v>43874</v>
+      </c>
+      <c r="B3670" s="1">
+        <v>1867</v>
+      </c>
+      <c r="C3670" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D3670" s="2"/>
+      <c r="E3670" s="2"/>
+      <c r="F3670" s="2"/>
+      <c r="G3670" s="2"/>
+      <c r="H3670" s="2"/>
+      <c r="I3670" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3671" s="3">
+        <v>43875</v>
+      </c>
+      <c r="B3671" s="1">
+        <v>1954</v>
+      </c>
+      <c r="C3671" s="2"/>
+      <c r="D3671" s="2"/>
+      <c r="E3671" s="2">
+        <v>8</v>
+      </c>
+      <c r="F3671" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3671" s="2"/>
+      <c r="H3671" s="2"/>
+      <c r="I3671" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3672" s="3">
+        <v>43875</v>
+      </c>
+      <c r="B3672" s="1">
+        <v>1955</v>
+      </c>
+      <c r="C3672" s="2"/>
+      <c r="D3672" s="2"/>
+      <c r="E3672" s="2"/>
+      <c r="F3672" s="2"/>
+      <c r="G3672" s="2">
+        <v>7</v>
+      </c>
+      <c r="H3672" s="2"/>
+      <c r="I3672" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3673" s="3">
+        <v>43875</v>
+      </c>
+      <c r="B3673" s="1">
+        <v>1956</v>
+      </c>
+      <c r="C3673" s="2"/>
+      <c r="D3673" s="2"/>
+      <c r="E3673" s="2"/>
+      <c r="F3673" s="2"/>
+      <c r="G3673" s="2">
+        <v>7</v>
+      </c>
+      <c r="H3673" s="2"/>
+      <c r="I3673" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3674" s="3">
+        <v>43875</v>
+      </c>
+      <c r="B3674" s="1">
+        <v>1957</v>
+      </c>
+      <c r="C3674" s="2"/>
+      <c r="D3674" s="2"/>
+      <c r="E3674" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F3674" s="2"/>
+      <c r="G3674" s="2"/>
+      <c r="H3674" s="2"/>
+      <c r="I3674" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3675" s="3">
+        <v>43875</v>
+      </c>
+      <c r="B3675" s="1">
+        <v>1958</v>
+      </c>
+      <c r="C3675" s="2"/>
+      <c r="D3675" s="2"/>
+      <c r="E3675" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F3675" s="2"/>
+      <c r="G3675" s="2"/>
+      <c r="H3675" s="2"/>
+      <c r="I3675" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3676" s="3">
+        <v>43876</v>
+      </c>
+      <c r="B3676" s="1">
+        <v>1868</v>
+      </c>
+      <c r="C3676" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3676" s="2"/>
+      <c r="E3676" s="2"/>
+      <c r="F3676" s="2"/>
+      <c r="G3676" s="2"/>
+      <c r="H3676" s="2"/>
+      <c r="I3676" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3677" s="3">
+        <v>43876</v>
+      </c>
+      <c r="B3677" s="1">
+        <v>1869</v>
+      </c>
+      <c r="C3677" s="2"/>
+      <c r="D3677" s="2"/>
+      <c r="E3677" s="2"/>
+      <c r="F3677" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3677" s="2"/>
+      <c r="H3677" s="2"/>
+      <c r="I3677" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3678" s="3">
+        <v>43876</v>
+      </c>
+      <c r="B3678" s="1">
+        <v>1092</v>
+      </c>
+      <c r="C3678" s="2"/>
+      <c r="D3678" s="2"/>
+      <c r="E3678" s="2"/>
+      <c r="F3678" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3678" s="2"/>
+      <c r="H3678" s="2"/>
+      <c r="I3678" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3679" s="3">
+        <v>43876</v>
+      </c>
+      <c r="B3679" s="1">
+        <v>1093</v>
+      </c>
+      <c r="C3679" s="2"/>
+      <c r="D3679" s="2"/>
+      <c r="E3679" s="2"/>
+      <c r="F3679" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3679" s="2"/>
+      <c r="H3679" s="2"/>
+      <c r="I3679" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3680" s="3">
+        <v>43876</v>
+      </c>
+      <c r="B3680" s="1">
+        <v>1094</v>
+      </c>
+      <c r="C3680" s="2"/>
+      <c r="D3680" s="2"/>
+      <c r="E3680" s="2"/>
+      <c r="F3680" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3680" s="2"/>
+      <c r="H3680" s="2"/>
+      <c r="I3680" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3681" s="3">
+        <v>43876</v>
+      </c>
+      <c r="B3681" s="1">
+        <v>1095</v>
+      </c>
+      <c r="C3681" s="2"/>
+      <c r="D3681" s="2"/>
+      <c r="E3681" s="2"/>
+      <c r="F3681" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3681" s="2"/>
+      <c r="H3681" s="2"/>
+      <c r="I3681" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3682" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3682" s="3">
+        <v>43876</v>
+      </c>
+      <c r="B3682" s="1">
+        <v>1959</v>
+      </c>
+      <c r="C3682" s="2"/>
+      <c r="D3682" s="2"/>
+      <c r="E3682" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3682" s="2"/>
+      <c r="G3682" s="2"/>
+      <c r="H3682" s="2"/>
+      <c r="I3682" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3683" s="3">
+        <v>43876</v>
+      </c>
+      <c r="B3683" s="1">
+        <v>1960</v>
+      </c>
+      <c r="C3683" s="2"/>
+      <c r="D3683" s="2"/>
+      <c r="E3683" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F3683" s="2"/>
+      <c r="G3683" s="2"/>
+      <c r="H3683" s="2"/>
+      <c r="I3683" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3684" s="3">
+        <v>43876</v>
+      </c>
+      <c r="B3684" s="1">
+        <v>1961</v>
+      </c>
+      <c r="C3684" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D3684" s="2"/>
+      <c r="E3684" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3684" s="2"/>
+      <c r="G3684" s="2"/>
+      <c r="H3684" s="2"/>
+      <c r="I3684" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3685" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3685" s="1">
+        <v>1201</v>
+      </c>
+      <c r="C3685" s="2">
+        <v>16</v>
+      </c>
+      <c r="D3685" s="2"/>
+      <c r="E3685" s="2"/>
+      <c r="F3685" s="2"/>
+      <c r="G3685" s="2"/>
+      <c r="H3685" s="2"/>
+      <c r="I3685" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3686" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3686" s="1">
+        <v>1202</v>
+      </c>
+      <c r="C3686" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3686" s="2"/>
+      <c r="E3686" s="2"/>
+      <c r="F3686" s="2"/>
+      <c r="G3686" s="2"/>
+      <c r="H3686" s="2"/>
+      <c r="I3686" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3687" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3687" s="1">
+        <v>1203</v>
+      </c>
+      <c r="C3687" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3687" s="2"/>
+      <c r="E3687" s="2"/>
+      <c r="F3687" s="2"/>
+      <c r="G3687" s="2"/>
+      <c r="H3687" s="2"/>
+      <c r="I3687" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3688" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3688" s="1">
+        <v>1204</v>
+      </c>
+      <c r="C3688" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3688" s="2"/>
+      <c r="E3688" s="2"/>
+      <c r="F3688" s="2"/>
+      <c r="G3688" s="2"/>
+      <c r="H3688" s="2"/>
+      <c r="I3688" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3689" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3689" s="1">
+        <v>1205</v>
+      </c>
+      <c r="C3689" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3689" s="2"/>
+      <c r="E3689" s="2"/>
+      <c r="F3689" s="2"/>
+      <c r="G3689" s="2"/>
+      <c r="H3689" s="2"/>
+      <c r="I3689" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3690" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3690" s="1">
+        <v>1206</v>
+      </c>
+      <c r="C3690" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3690" s="2"/>
+      <c r="E3690" s="2"/>
+      <c r="F3690" s="2"/>
+      <c r="G3690" s="2"/>
+      <c r="H3690" s="2"/>
+      <c r="I3690" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3691" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3691" s="1">
+        <v>1207</v>
+      </c>
+      <c r="C3691" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3691" s="2"/>
+      <c r="E3691" s="2"/>
+      <c r="F3691" s="2"/>
+      <c r="G3691" s="2"/>
+      <c r="H3691" s="2"/>
+      <c r="I3691" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3692" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3692" s="1">
+        <v>1208</v>
+      </c>
+      <c r="C3692" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3692" s="2"/>
+      <c r="E3692" s="2"/>
+      <c r="F3692" s="2"/>
+      <c r="G3692" s="2"/>
+      <c r="H3692" s="2"/>
+      <c r="I3692" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3693" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3693" s="1">
+        <v>1209</v>
+      </c>
+      <c r="C3693" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3693" s="2"/>
+      <c r="E3693" s="2"/>
+      <c r="F3693" s="2"/>
+      <c r="G3693" s="2"/>
+      <c r="H3693" s="2"/>
+      <c r="I3693" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3694" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3694" s="1">
+        <v>1963</v>
+      </c>
+      <c r="C3694" s="2"/>
+      <c r="D3694" s="2"/>
+      <c r="E3694" s="2"/>
+      <c r="F3694" s="2"/>
+      <c r="G3694" s="2">
+        <v>8</v>
+      </c>
+      <c r="H3694" s="2"/>
+      <c r="I3694" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3695" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3695" s="1">
+        <v>1096</v>
+      </c>
+      <c r="C3695" s="2"/>
+      <c r="D3695" s="2"/>
+      <c r="E3695" s="2"/>
+      <c r="F3695" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3695" s="2"/>
+      <c r="H3695" s="2"/>
+      <c r="I3695" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3696" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3696" s="1">
+        <v>1097</v>
+      </c>
+      <c r="C3696" s="2"/>
+      <c r="D3696" s="2"/>
+      <c r="E3696" s="2"/>
+      <c r="F3696" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3696" s="2"/>
+      <c r="H3696" s="2"/>
+      <c r="I3696" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3697" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3697" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3697" s="1">
+        <v>1098</v>
+      </c>
+      <c r="C3697" s="2"/>
+      <c r="D3697" s="2"/>
+      <c r="E3697" s="2"/>
+      <c r="F3697" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3697" s="2"/>
+      <c r="H3697" s="2"/>
+      <c r="I3697" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3698" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3698" s="1">
+        <v>1099</v>
+      </c>
+      <c r="C3698" s="2"/>
+      <c r="D3698" s="2"/>
+      <c r="E3698" s="2"/>
+      <c r="F3698" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3698" s="2"/>
+      <c r="H3698" s="2"/>
+      <c r="I3698" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3699" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3699" s="1">
+        <v>1964</v>
+      </c>
+      <c r="C3699" s="2"/>
+      <c r="D3699" s="2"/>
+      <c r="E3699" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3699" s="2"/>
+      <c r="G3699" s="2"/>
+      <c r="H3699" s="2"/>
+      <c r="I3699" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3700" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3700" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B3700" s="1">
+        <v>1965</v>
+      </c>
+      <c r="C3700" s="2"/>
+      <c r="D3700" s="2"/>
+      <c r="E3700" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3700" s="2"/>
+      <c r="G3700" s="2"/>
+      <c r="H3700" s="2"/>
+      <c r="I3700" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3701" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B3701" s="1">
+        <v>1966</v>
+      </c>
+      <c r="C3701" s="2"/>
+      <c r="D3701" s="2"/>
+      <c r="E3701" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F3701" s="2"/>
+      <c r="G3701" s="2"/>
+      <c r="H3701" s="2"/>
+      <c r="I3701" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3702" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B3702" s="1">
+        <v>1967</v>
+      </c>
+      <c r="C3702" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3702" s="2"/>
+      <c r="E3702" s="2"/>
+      <c r="F3702" s="2"/>
+      <c r="G3702" s="2"/>
+      <c r="H3702" s="2"/>
+      <c r="I3702" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3703" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B3703" s="1">
+        <v>1968</v>
+      </c>
+      <c r="C3703" s="2"/>
+      <c r="D3703" s="2"/>
+      <c r="E3703" s="2"/>
+      <c r="F3703" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3703" s="2"/>
+      <c r="H3703" s="2"/>
+      <c r="I3703" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3704" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B3704" s="1">
+        <v>1969</v>
+      </c>
+      <c r="C3704" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D3704" s="2"/>
+      <c r="E3704" s="2"/>
+      <c r="F3704" s="2"/>
+      <c r="G3704" s="2"/>
+      <c r="H3704" s="2"/>
+      <c r="I3704" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3705" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B3705" s="1">
+        <v>1970</v>
+      </c>
+      <c r="C3705" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D3705" s="2"/>
+      <c r="E3705" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F3705" s="2"/>
+      <c r="G3705" s="2"/>
+      <c r="H3705" s="2"/>
+      <c r="I3705" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3706" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3706" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B3706" s="1">
+        <v>1971</v>
+      </c>
+      <c r="C3706" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D3706" s="2"/>
+      <c r="E3706" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F3706" s="2"/>
+      <c r="G3706" s="2"/>
+      <c r="H3706" s="2"/>
+      <c r="I3706" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3707" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3707" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B3707" s="1">
+        <v>1972</v>
+      </c>
+      <c r="C3707" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D3707" s="2"/>
+      <c r="E3707" s="2"/>
+      <c r="F3707" s="2"/>
+      <c r="G3707" s="2"/>
+      <c r="H3707" s="2"/>
+      <c r="I3707" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3708" s="3">
+        <v>43880</v>
+      </c>
+      <c r="B3708" s="1">
+        <v>1973</v>
+      </c>
+      <c r="C3708" s="2"/>
+      <c r="D3708" s="2"/>
+      <c r="E3708" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3708" s="2"/>
+      <c r="G3708" s="2"/>
+      <c r="H3708" s="2"/>
+      <c r="I3708" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3709" s="3">
+        <v>43880</v>
+      </c>
+      <c r="B3709" s="1">
+        <v>1974</v>
+      </c>
+      <c r="C3709" s="2"/>
+      <c r="D3709" s="2"/>
+      <c r="E3709" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F3709" s="2"/>
+      <c r="G3709" s="2"/>
+      <c r="H3709" s="2"/>
+      <c r="I3709" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3710" s="3">
+        <v>43880</v>
+      </c>
+      <c r="B3710" s="1">
+        <v>1975</v>
+      </c>
+      <c r="C3710" s="2"/>
+      <c r="D3710" s="2"/>
+      <c r="E3710" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F3710" s="2"/>
+      <c r="G3710" s="2"/>
+      <c r="H3710" s="2"/>
+      <c r="I3710" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3711" s="3">
+        <v>43880</v>
+      </c>
+      <c r="B3711" s="1">
+        <v>1870</v>
+      </c>
+      <c r="C3711" s="2"/>
+      <c r="D3711" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3711" s="2"/>
+      <c r="F3711" s="2"/>
+      <c r="G3711" s="2"/>
+      <c r="H3711" s="2"/>
+      <c r="I3711" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3712" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3712" s="3">
+        <v>43880</v>
+      </c>
+      <c r="B3712" s="1">
+        <v>1871</v>
+      </c>
+      <c r="C3712" s="2"/>
+      <c r="D3712" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3712" s="2"/>
+      <c r="F3712" s="2"/>
+      <c r="G3712" s="2"/>
+      <c r="H3712" s="2"/>
+      <c r="I3712" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3713" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3713" s="3">
+        <v>43880</v>
+      </c>
+      <c r="B3713" s="1">
+        <v>1872</v>
+      </c>
+      <c r="C3713" s="2"/>
+      <c r="D3713" s="2"/>
+      <c r="E3713" s="2"/>
+      <c r="F3713" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3713" s="2"/>
+      <c r="H3713" s="2"/>
+      <c r="I3713" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3714" s="3">
+        <v>43880</v>
+      </c>
+      <c r="B3714" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C3714" s="2"/>
+      <c r="D3714" s="2"/>
+      <c r="E3714" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F3714" s="2"/>
+      <c r="G3714" s="2"/>
+      <c r="H3714" s="2"/>
+      <c r="I3714" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3715" s="3">
+        <v>43881</v>
+      </c>
+      <c r="B3715" s="1">
+        <v>1873</v>
+      </c>
+      <c r="C3715" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3715" s="2"/>
+      <c r="E3715" s="2"/>
+      <c r="F3715" s="2"/>
+      <c r="G3715" s="2"/>
+      <c r="H3715" s="2"/>
+      <c r="I3715" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3716" s="3">
+        <v>43881</v>
+      </c>
+      <c r="B3716" s="1">
+        <v>1874</v>
+      </c>
+      <c r="C3716" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3716" s="2"/>
+      <c r="E3716" s="2"/>
+      <c r="F3716" s="2"/>
+      <c r="G3716" s="2"/>
+      <c r="H3716" s="2"/>
+      <c r="I3716" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3717" s="3">
+        <v>43881</v>
+      </c>
+      <c r="B3717" s="1">
+        <v>1875</v>
+      </c>
+      <c r="C3717" s="2"/>
+      <c r="D3717" s="2"/>
+      <c r="E3717" s="2"/>
+      <c r="F3717" s="2"/>
+      <c r="G3717" s="2">
+        <v>7</v>
+      </c>
+      <c r="H3717" s="2"/>
+      <c r="I3717" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3718" s="3">
+        <v>43881</v>
+      </c>
+      <c r="B3718" s="1">
+        <v>1877</v>
+      </c>
+      <c r="C3718" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3718" s="2"/>
+      <c r="E3718" s="2"/>
+      <c r="F3718" s="2"/>
+      <c r="G3718" s="2"/>
+      <c r="H3718" s="2"/>
+      <c r="I3718" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3719" s="3">
+        <v>43881</v>
+      </c>
+      <c r="B3719" s="1">
+        <v>1878</v>
+      </c>
+      <c r="C3719" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D3719" s="2"/>
+      <c r="E3719" s="2"/>
+      <c r="F3719" s="2"/>
+      <c r="G3719" s="2"/>
+      <c r="H3719" s="2"/>
+      <c r="I3719" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3720" s="3">
+        <v>43882</v>
+      </c>
+      <c r="B3720" s="1">
+        <v>1979</v>
+      </c>
+      <c r="C3720" s="2"/>
+      <c r="D3720" s="2"/>
+      <c r="E3720" s="2">
+        <v>8</v>
+      </c>
+      <c r="F3720" s="2"/>
+      <c r="G3720" s="2"/>
+      <c r="H3720" s="2"/>
+      <c r="I3720" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3721" s="3">
+        <v>43882</v>
+      </c>
+      <c r="B3721" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C3721" s="2"/>
+      <c r="D3721" s="2"/>
+      <c r="E3721" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3721" s="2"/>
+      <c r="G3721" s="2"/>
+      <c r="H3721" s="2"/>
+      <c r="I3721" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3722" s="3">
+        <v>43882</v>
+      </c>
+      <c r="B3722" s="1">
+        <v>1981</v>
+      </c>
+      <c r="C3722" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D3722" s="2"/>
+      <c r="E3722" s="2"/>
+      <c r="F3722" s="2"/>
+      <c r="G3722" s="2"/>
+      <c r="H3722" s="2"/>
+      <c r="I3722" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3723" s="3">
+        <v>43882</v>
+      </c>
+      <c r="B3723" s="1">
+        <v>1982</v>
+      </c>
+      <c r="C3723" s="2"/>
+      <c r="D3723" s="2"/>
+      <c r="E3723" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3723" s="2"/>
+      <c r="G3723" s="2"/>
+      <c r="H3723" s="2"/>
+      <c r="I3723" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3724" s="3">
+        <v>43882</v>
+      </c>
+      <c r="B3724" s="1">
+        <v>1983</v>
+      </c>
+      <c r="C3724" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3724" s="2"/>
+      <c r="E3724" s="2"/>
+      <c r="F3724" s="2"/>
+      <c r="G3724" s="2"/>
+      <c r="H3724" s="2"/>
+      <c r="I3724" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3725" s="3">
+        <v>43882</v>
+      </c>
+      <c r="B3725" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C3725" s="2"/>
+      <c r="D3725" s="2"/>
+      <c r="E3725" s="2"/>
+      <c r="F3725" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G3725" s="2"/>
+      <c r="H3725" s="2"/>
+      <c r="I3725" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3726" s="3">
+        <v>43883</v>
+      </c>
+      <c r="B3726" s="1">
+        <v>1985</v>
+      </c>
+      <c r="C3726" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3726" s="2"/>
+      <c r="E3726" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3726" s="2"/>
+      <c r="G3726" s="2"/>
+      <c r="H3726" s="2"/>
+      <c r="I3726" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3727" s="3">
+        <v>43883</v>
+      </c>
+      <c r="B3727" s="1">
+        <v>1986</v>
+      </c>
+      <c r="C3727" s="2"/>
+      <c r="D3727" s="2"/>
+      <c r="E3727" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3727" s="2"/>
+      <c r="G3727" s="2"/>
+      <c r="H3727" s="2"/>
+      <c r="I3727" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3728" s="3">
+        <v>43883</v>
+      </c>
+      <c r="B3728" s="1">
+        <v>1987</v>
+      </c>
+      <c r="C3728" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3728" s="2"/>
+      <c r="E3728" s="2"/>
+      <c r="F3728" s="2"/>
+      <c r="G3728" s="2"/>
+      <c r="H3728" s="2"/>
+      <c r="I3728" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3729" s="3">
+        <v>43883</v>
+      </c>
+      <c r="B3729" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C3729" s="2"/>
+      <c r="D3729" s="2"/>
+      <c r="E3729" s="2"/>
+      <c r="F3729" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G3729" s="2"/>
+      <c r="H3729" s="2"/>
+      <c r="I3729" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3730" s="3">
+        <v>43883</v>
+      </c>
+      <c r="B3730" s="1">
+        <v>1989</v>
+      </c>
+      <c r="C3730" s="2"/>
+      <c r="D3730" s="2"/>
+      <c r="E3730" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3730" s="2"/>
+      <c r="G3730" s="2"/>
+      <c r="H3730" s="2"/>
+      <c r="I3730" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3731" s="3">
+        <v>43883</v>
+      </c>
+      <c r="B3731" s="1">
+        <v>1990</v>
+      </c>
+      <c r="C3731" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3731" s="2"/>
+      <c r="E3731" s="2"/>
+      <c r="F3731" s="2"/>
+      <c r="G3731" s="2"/>
+      <c r="H3731" s="2"/>
+      <c r="I3731" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3732" s="3">
+        <v>43883</v>
+      </c>
+      <c r="B3732" s="1">
+        <v>1991</v>
+      </c>
+      <c r="C3732" s="2"/>
+      <c r="D3732" s="2"/>
+      <c r="E3732" s="2"/>
+      <c r="F3732" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G3732" s="2"/>
+      <c r="H3732" s="2"/>
+      <c r="I3732" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3733" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B3733" s="1">
+        <v>1994</v>
+      </c>
+      <c r="C3733" s="2"/>
+      <c r="D3733" s="2"/>
+      <c r="E3733" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3733" s="2"/>
+      <c r="G3733" s="2"/>
+      <c r="H3733" s="2"/>
+      <c r="I3733" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3734" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B3734" s="1">
+        <v>1995</v>
+      </c>
+      <c r="C3734" s="2"/>
+      <c r="D3734" s="2"/>
+      <c r="E3734" s="2">
+        <v>8</v>
+      </c>
+      <c r="F3734" s="2"/>
+      <c r="G3734" s="2"/>
+      <c r="H3734" s="2"/>
+      <c r="I3734" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3735" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B3735" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C3735" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3735" s="2"/>
+      <c r="E3735" s="2"/>
+      <c r="F3735" s="2"/>
+      <c r="G3735" s="2"/>
+      <c r="H3735" s="2"/>
+      <c r="I3735" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3736" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B3736" s="1">
+        <v>1997</v>
+      </c>
+      <c r="C3736" s="2"/>
+      <c r="D3736" s="2"/>
+      <c r="E3736" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3736" s="2"/>
+      <c r="G3736" s="2"/>
+      <c r="H3736" s="2"/>
+      <c r="I3736" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3737" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B3737" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C3737" s="2"/>
+      <c r="D3737" s="2"/>
+      <c r="E3737" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3737" s="2"/>
+      <c r="G3737" s="2"/>
+      <c r="H3737" s="2"/>
+      <c r="I3737" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3738" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B3738" s="1">
+        <v>1999</v>
+      </c>
+      <c r="C3738" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3738" s="2"/>
+      <c r="E3738" s="2"/>
+      <c r="F3738" s="2"/>
+      <c r="G3738" s="2"/>
+      <c r="H3738" s="2"/>
+      <c r="I3738" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3739" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B3739" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C3739" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3739" s="2"/>
+      <c r="E3739" s="2"/>
+      <c r="F3739" s="2"/>
+      <c r="G3739" s="2"/>
+      <c r="H3739" s="2"/>
+      <c r="I3739" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3740" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B3740" s="1">
+        <v>2151</v>
+      </c>
+      <c r="C3740" s="2"/>
+      <c r="D3740" s="2"/>
+      <c r="E3740" s="2"/>
+      <c r="F3740" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3740" s="2"/>
+      <c r="H3740" s="2"/>
+      <c r="I3740" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3741" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B3741" s="1">
+        <v>2152</v>
+      </c>
+      <c r="C3741" s="2"/>
+      <c r="D3741" s="2"/>
+      <c r="E3741" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3741" s="2"/>
+      <c r="G3741" s="2"/>
+      <c r="H3741" s="2"/>
+      <c r="I3741" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3742" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B3742" s="1">
+        <v>2153</v>
+      </c>
+      <c r="C3742" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3742" s="2"/>
+      <c r="E3742" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3742" s="2"/>
+      <c r="G3742" s="2"/>
+      <c r="H3742" s="2"/>
+      <c r="I3742" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3743" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B3743" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C3743" s="2"/>
+      <c r="D3743" s="2"/>
+      <c r="E3743" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3743" s="2"/>
+      <c r="G3743" s="2"/>
+      <c r="H3743" s="2"/>
+      <c r="I3743" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3744" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3744" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B3744" s="1">
+        <v>1993</v>
+      </c>
+      <c r="C3744" s="2"/>
+      <c r="D3744" s="2"/>
+      <c r="E3744" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F3744" s="2"/>
+      <c r="G3744" s="2"/>
+      <c r="H3744" s="2"/>
+      <c r="I3744" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3745" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3745" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B3745" s="1">
+        <v>2155</v>
+      </c>
+      <c r="C3745" s="2"/>
+      <c r="D3745" s="2"/>
+      <c r="E3745" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3745" s="2"/>
+      <c r="G3745" s="2"/>
+      <c r="H3745" s="2"/>
+      <c r="I3745" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3746" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B3746" s="1">
+        <v>2156</v>
+      </c>
+      <c r="C3746" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3746" s="2"/>
+      <c r="E3746" s="2"/>
+      <c r="F3746" s="2"/>
+      <c r="G3746" s="2"/>
+      <c r="H3746" s="2"/>
+      <c r="I3746" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3747" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B3747" s="1">
+        <v>2157</v>
+      </c>
+      <c r="C3747" s="2"/>
+      <c r="D3747" s="2"/>
+      <c r="E3747" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3747" s="2"/>
+      <c r="G3747" s="2"/>
+      <c r="H3747" s="2"/>
+      <c r="I3747" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3748" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B3748" s="1">
+        <v>2158</v>
+      </c>
+      <c r="C3748" s="2"/>
+      <c r="D3748" s="2"/>
+      <c r="E3748" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3748" s="2"/>
+      <c r="G3748" s="2"/>
+      <c r="H3748" s="2"/>
+      <c r="I3748" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3749" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B3749" s="1">
+        <v>2159</v>
+      </c>
+      <c r="C3749" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3749" s="2"/>
+      <c r="E3749" s="2"/>
+      <c r="F3749" s="2"/>
+      <c r="G3749" s="2"/>
+      <c r="H3749" s="2"/>
+      <c r="I3749" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3750" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B3750" s="1">
+        <v>2160</v>
+      </c>
+      <c r="C3750" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3750" s="2"/>
+      <c r="E3750" s="2"/>
+      <c r="F3750" s="2"/>
+      <c r="G3750" s="2"/>
+      <c r="H3750" s="2"/>
+      <c r="I3750" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3751" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B3751" s="1">
+        <v>2161</v>
+      </c>
+      <c r="C3751" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D3751" s="2"/>
+      <c r="E3751" s="2"/>
+      <c r="F3751" s="2"/>
+      <c r="G3751" s="2"/>
+      <c r="H3751" s="2"/>
+      <c r="I3751" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3752" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3752" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B3752" s="1">
+        <v>2162</v>
+      </c>
+      <c r="C3752" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3752" s="2"/>
+      <c r="E3752" s="2"/>
+      <c r="F3752" s="2"/>
+      <c r="G3752" s="2"/>
+      <c r="H3752" s="2"/>
+      <c r="I3752" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3753" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3753" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B3753" s="1">
+        <v>2163</v>
+      </c>
+      <c r="C3753" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3753" s="2"/>
+      <c r="E3753" s="2"/>
+      <c r="F3753" s="2"/>
+      <c r="G3753" s="2"/>
+      <c r="H3753" s="2"/>
+      <c r="I3753" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3754" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3754" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B3754" s="1">
+        <v>2164</v>
+      </c>
+      <c r="C3754" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3754" s="2"/>
+      <c r="E3754" s="2"/>
+      <c r="F3754" s="2"/>
+      <c r="G3754" s="2"/>
+      <c r="H3754" s="2"/>
+      <c r="I3754" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3755" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B3755" s="1">
+        <v>2165</v>
+      </c>
+      <c r="C3755" s="2"/>
+      <c r="D3755" s="2"/>
+      <c r="E3755" s="2"/>
+      <c r="F3755" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3755" s="2"/>
+      <c r="H3755" s="2"/>
+      <c r="I3755" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3756" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B3756" s="1">
+        <v>2166</v>
+      </c>
+      <c r="C3756" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3756" s="2"/>
+      <c r="E3756" s="2"/>
+      <c r="F3756" s="2"/>
+      <c r="G3756" s="2"/>
+      <c r="H3756" s="2"/>
+      <c r="I3756" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3757" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3757" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B3757" s="1">
+        <v>2167</v>
+      </c>
+      <c r="C3757" s="2"/>
+      <c r="D3757" s="2"/>
+      <c r="E3757" s="2"/>
+      <c r="F3757" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G3757" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H3757" s="2"/>
+      <c r="I3757" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3758" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B3758" s="1">
+        <v>2168</v>
+      </c>
+      <c r="C3758" s="2"/>
+      <c r="D3758" s="2"/>
+      <c r="E3758" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3758" s="2"/>
+      <c r="G3758" s="2"/>
+      <c r="H3758" s="2"/>
+      <c r="I3758" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3759" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B3759" s="1">
+        <v>2170</v>
+      </c>
+      <c r="C3759" s="2"/>
+      <c r="D3759" s="2"/>
+      <c r="E3759" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3759" s="2"/>
+      <c r="G3759" s="2"/>
+      <c r="H3759" s="2"/>
+      <c r="I3759" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3760" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B3760" s="1">
+        <v>2171</v>
+      </c>
+      <c r="C3760" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3760" s="2"/>
+      <c r="E3760" s="2"/>
+      <c r="F3760" s="2"/>
+      <c r="G3760" s="2"/>
+      <c r="H3760" s="2"/>
+      <c r="I3760" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3761" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B3761" s="1">
+        <v>2172</v>
+      </c>
+      <c r="C3761" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3761" s="2"/>
+      <c r="E3761" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3761" s="2"/>
+      <c r="G3761" s="2"/>
+      <c r="H3761" s="2"/>
+      <c r="I3761" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3762" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B3762" s="1">
+        <v>1877</v>
+      </c>
+      <c r="C3762" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3762" s="2"/>
+      <c r="E3762" s="2"/>
+      <c r="F3762" s="2"/>
+      <c r="G3762" s="2"/>
+      <c r="H3762" s="2"/>
+      <c r="I3762" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3763" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B3763" s="1">
+        <v>1878</v>
+      </c>
+      <c r="C3763" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3763" s="2"/>
+      <c r="E3763" s="2"/>
+      <c r="F3763" s="2"/>
+      <c r="G3763" s="2"/>
+      <c r="H3763" s="2"/>
+      <c r="I3763" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3764" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B3764" s="1">
+        <v>2173</v>
+      </c>
+      <c r="C3764" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3764" s="2"/>
+      <c r="E3764" s="2"/>
+      <c r="F3764" s="2"/>
+      <c r="G3764" s="2"/>
+      <c r="H3764" s="2"/>
+      <c r="I3764" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3765" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B3765" s="1">
+        <v>2174</v>
+      </c>
+      <c r="C3765" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3765" s="2"/>
+      <c r="E3765" s="2"/>
+      <c r="F3765" s="2"/>
+      <c r="G3765" s="2"/>
+      <c r="H3765" s="2"/>
+      <c r="I3765" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3766" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B3766" s="1">
+        <v>2175</v>
+      </c>
+      <c r="C3766" s="2"/>
+      <c r="D3766" s="2"/>
+      <c r="E3766" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3766" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3766" s="2"/>
+      <c r="H3766" s="2"/>
+      <c r="I3766" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3767" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B3767" s="1">
+        <v>2176</v>
+      </c>
+      <c r="C3767" s="2"/>
+      <c r="D3767" s="2"/>
+      <c r="E3767" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3767" s="2"/>
+      <c r="G3767" s="2"/>
+      <c r="H3767" s="2"/>
+      <c r="I3767" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3768" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B3768" s="1">
+        <v>2177</v>
+      </c>
+      <c r="C3768" s="2"/>
+      <c r="D3768" s="2"/>
+      <c r="E3768" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F3768" s="2"/>
+      <c r="G3768" s="2"/>
+      <c r="H3768" s="2"/>
+      <c r="I3768" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3769" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B3769" s="1">
+        <v>2178</v>
+      </c>
+      <c r="C3769" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D3769" s="2"/>
+      <c r="E3769" s="2"/>
+      <c r="F3769" s="2"/>
+      <c r="G3769" s="2"/>
+      <c r="H3769" s="2"/>
+      <c r="I3769" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3770" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B3770" s="1">
+        <v>1879</v>
+      </c>
+      <c r="C3770" s="2"/>
+      <c r="D3770" s="2"/>
+      <c r="E3770" s="2"/>
+      <c r="F3770" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3770" s="2"/>
+      <c r="H3770" s="2"/>
+      <c r="I3770" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3771" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B3771" s="1">
+        <v>1880</v>
+      </c>
+      <c r="C3771" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3771" s="2"/>
+      <c r="E3771" s="2"/>
+      <c r="F3771" s="2"/>
+      <c r="G3771" s="2"/>
+      <c r="H3771" s="2"/>
+      <c r="I3771" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3772" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B3772" s="1">
+        <v>1881</v>
+      </c>
+      <c r="C3772" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3772" s="2"/>
+      <c r="E3772" s="2"/>
+      <c r="F3772" s="2"/>
+      <c r="G3772" s="2"/>
+      <c r="H3772" s="2"/>
+      <c r="I3772" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3773" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B3773" s="1">
+        <v>1882</v>
+      </c>
+      <c r="C3773" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3773" s="2"/>
+      <c r="E3773" s="2"/>
+      <c r="F3773" s="2"/>
+      <c r="G3773" s="2"/>
+      <c r="H3773" s="2"/>
+      <c r="I3773" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3774" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B3774" s="1">
+        <v>1883</v>
+      </c>
+      <c r="C3774" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3774" s="2"/>
+      <c r="E3774" s="2"/>
+      <c r="F3774" s="2"/>
+      <c r="G3774" s="2"/>
+      <c r="H3774" s="2"/>
+      <c r="I3774" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3775" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B3775" s="1">
+        <v>1884</v>
+      </c>
+      <c r="C3775" s="2"/>
+      <c r="D3775" s="2"/>
+      <c r="E3775" s="2"/>
+      <c r="F3775" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3775" s="2"/>
+      <c r="H3775" s="2"/>
+      <c r="I3775" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3776" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B3776" s="1">
+        <v>1885</v>
+      </c>
+      <c r="C3776" s="2"/>
+      <c r="D3776" s="2"/>
+      <c r="E3776" s="2"/>
+      <c r="F3776" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3776" s="2"/>
+      <c r="H3776" s="2"/>
+      <c r="I3776" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3777" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B3777" s="1">
+        <v>1886</v>
+      </c>
+      <c r="C3777" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3777" s="2"/>
+      <c r="E3777" s="2"/>
+      <c r="F3777" s="2"/>
+      <c r="G3777" s="2"/>
+      <c r="H3777" s="2"/>
+      <c r="I3777" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3778" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B3778" s="1">
+        <v>2179</v>
+      </c>
+      <c r="C3778" s="2"/>
+      <c r="D3778" s="2"/>
+      <c r="E3778" s="2"/>
+      <c r="F3778" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3778" s="2"/>
+      <c r="H3778" s="2"/>
+      <c r="I3778" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3779" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B3779" s="1">
+        <v>2180</v>
+      </c>
+      <c r="C3779" s="2"/>
+      <c r="D3779" s="2"/>
+      <c r="E3779" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3779" s="2"/>
+      <c r="G3779" s="2"/>
+      <c r="H3779" s="2"/>
+      <c r="I3779" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3780" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B3780" s="1">
+        <v>2181</v>
+      </c>
+      <c r="C3780" s="2"/>
+      <c r="D3780" s="2"/>
+      <c r="E3780" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3780" s="2"/>
+      <c r="G3780" s="2"/>
+      <c r="H3780" s="2"/>
+      <c r="I3780" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3781" s="3">
+        <v>43890</v>
+      </c>
+      <c r="B3781" s="1">
+        <v>2101</v>
+      </c>
+      <c r="C3781" s="2"/>
+      <c r="D3781" s="2"/>
+      <c r="E3781" s="2"/>
+      <c r="F3781" s="2">
+        <v>40</v>
+      </c>
+      <c r="G3781" s="2"/>
+      <c r="H3781" s="2"/>
+      <c r="I3781" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3782" s="3">
+        <v>43890</v>
+      </c>
+      <c r="B3782" s="1">
+        <v>2182</v>
+      </c>
+      <c r="C3782" s="2"/>
+      <c r="D3782" s="2"/>
+      <c r="E3782" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3782" s="2"/>
+      <c r="G3782" s="2"/>
+      <c r="H3782" s="2"/>
+      <c r="I3782" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3783" s="3">
+        <v>43890</v>
+      </c>
+      <c r="B3783" s="1">
+        <v>2183</v>
+      </c>
+      <c r="C3783" s="2"/>
+      <c r="D3783" s="2"/>
+      <c r="E3783" s="2"/>
+      <c r="F3783" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3783" s="2"/>
+      <c r="H3783" s="2"/>
+      <c r="I3783" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3784" s="3">
+        <v>43890</v>
+      </c>
+      <c r="B3784" s="1">
+        <v>2184</v>
+      </c>
+      <c r="C3784" s="2"/>
+      <c r="D3784" s="2"/>
+      <c r="E3784" s="2"/>
+      <c r="F3784" s="2"/>
+      <c r="G3784" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3784" s="2"/>
+      <c r="I3784" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3785" s="3">
+        <v>43890</v>
+      </c>
+      <c r="B3785" s="1">
+        <v>2185</v>
+      </c>
+      <c r="C3785" s="2"/>
+      <c r="D3785" s="2"/>
+      <c r="E3785" s="2"/>
+      <c r="F3785" s="2"/>
+      <c r="G3785" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3785" s="2"/>
+      <c r="I3785" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3786" s="3">
+        <v>43890</v>
+      </c>
+      <c r="B3786" s="1">
+        <v>2186</v>
+      </c>
+      <c r="C3786" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3786" s="2"/>
+      <c r="E3786" s="2"/>
+      <c r="F3786" s="2"/>
+      <c r="G3786" s="2"/>
+      <c r="H3786" s="2"/>
+      <c r="I3786" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3787" s="3">
+        <v>43890</v>
+      </c>
+      <c r="B3787" s="1">
+        <v>2187</v>
+      </c>
+      <c r="C3787" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3787" s="2"/>
+      <c r="E3787" s="2"/>
+      <c r="F3787" s="2"/>
+      <c r="G3787" s="2"/>
+      <c r="H3787" s="2"/>
+      <c r="I3787" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3788" s="3">
+        <v>43890</v>
+      </c>
+      <c r="B3788" s="1">
+        <v>2188</v>
+      </c>
+      <c r="C3788" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3788" s="2"/>
+      <c r="E3788" s="2"/>
+      <c r="F3788" s="2"/>
+      <c r="G3788" s="2"/>
+      <c r="H3788" s="2"/>
+      <c r="I3788" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3789" s="3">
+        <v>43890</v>
+      </c>
+      <c r="B3789" s="1">
+        <v>2189</v>
+      </c>
+      <c r="C3789" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3789" s="2"/>
+      <c r="E3789" s="2"/>
+      <c r="F3789" s="2"/>
+      <c r="G3789" s="2"/>
+      <c r="H3789" s="2"/>
+      <c r="I3789" s="2" t="s">
         <v>9</v>
       </c>
     </row>
